--- a/data/IEEE_9/ieee9/ieee9_2050.xlsx
+++ b/data/IEEE_9/ieee9/ieee9_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8204D51B-FFC7-456C-96EA-432F1C9C6F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0CB949-BA24-42E4-B343-5106FDDBAF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25740" yWindow="3600" windowWidth="21600" windowHeight="12660" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25395" yWindow="3945" windowWidth="21600" windowHeight="12660" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -217,6 +217,9 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Base Consumption"/>
@@ -244,7 +247,7 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>-5.0000000000000001E-3</v>
+            <v>2.5000000000000001E-3</v>
           </cell>
         </row>
         <row r="3">
@@ -1149,592 +1152,592 @@
       <sheetData sheetId="4">
         <row r="2">
           <cell r="B2">
-            <v>56.309511426502212</v>
+            <v>54.531316328823202</v>
           </cell>
           <cell r="C2">
-            <v>55.80303789179937</v>
+            <v>57.367609047644216</v>
           </cell>
           <cell r="D2">
-            <v>48.117067049533681</v>
+            <v>50.081028969922819</v>
           </cell>
           <cell r="E2">
-            <v>52.88241128342132</v>
+            <v>45.605015235244068</v>
           </cell>
           <cell r="F2">
-            <v>51.289658458143712</v>
+            <v>48.242748054689628</v>
           </cell>
           <cell r="G2">
-            <v>56.474223462013839</v>
+            <v>50.991289145313466</v>
           </cell>
           <cell r="H2">
-            <v>60.868299549960085</v>
+            <v>71.454090776040104</v>
           </cell>
           <cell r="I2">
-            <v>68.786478518766842</v>
+            <v>68.046838964801609</v>
           </cell>
           <cell r="J2">
-            <v>78.284120064959353</v>
+            <v>79.849802466258538</v>
           </cell>
           <cell r="K2">
-            <v>79.32833557499923</v>
+            <v>83.375699634948177</v>
           </cell>
           <cell r="L2">
-            <v>83.321670971970505</v>
+            <v>78.420396208913417</v>
           </cell>
           <cell r="M2">
-            <v>82.452596358079347</v>
+            <v>76.794084843309179</v>
           </cell>
           <cell r="N2">
-            <v>73.947023266689911</v>
+            <v>88.414919123216194</v>
           </cell>
           <cell r="O2">
-            <v>73.996480918472415</v>
+            <v>85.804430001207393</v>
           </cell>
           <cell r="P2">
-            <v>76.976013587677983</v>
+            <v>70.116764852142325</v>
           </cell>
           <cell r="Q2">
-            <v>67.350506949838632</v>
+            <v>80.072269373697054</v>
           </cell>
           <cell r="R2">
-            <v>72.855093240928014</v>
+            <v>84.480905992139938</v>
           </cell>
           <cell r="S2">
-            <v>93.011939159311737</v>
+            <v>95.644352531745085</v>
           </cell>
           <cell r="T2">
-            <v>87.679263937608383</v>
+            <v>95.731441238000997</v>
           </cell>
           <cell r="U2">
-            <v>84.6</v>
+            <v>85.5</v>
           </cell>
           <cell r="V2">
-            <v>89.070149072636383</v>
+            <v>85.577202050180063</v>
           </cell>
           <cell r="W2">
-            <v>86.665244289698251</v>
+            <v>76.665408410117678</v>
           </cell>
           <cell r="X2">
-            <v>78.266154996342649</v>
+            <v>81.305617326297707</v>
           </cell>
           <cell r="Y2">
-            <v>71.194943358549978</v>
+            <v>72.538244176635828</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>65.555402620965978</v>
+            <v>59.827260644376715</v>
           </cell>
           <cell r="C3">
-            <v>65.30229024346697</v>
+            <v>58.772061219120268</v>
           </cell>
           <cell r="D3">
-            <v>58.500876280522206</v>
+            <v>54.56331730010244</v>
           </cell>
           <cell r="E3">
-            <v>50.267552905334476</v>
+            <v>50.826081270949302</v>
           </cell>
           <cell r="F3">
-            <v>58.787610523613765</v>
+            <v>57.657079552005811</v>
           </cell>
           <cell r="G3">
-            <v>67.727021176180443</v>
+            <v>59.649486540489193</v>
           </cell>
           <cell r="H3">
-            <v>78.590579779532206</v>
+            <v>72.659215267869385</v>
           </cell>
           <cell r="I3">
-            <v>85.674654363204752</v>
+            <v>86.56709867948814</v>
           </cell>
           <cell r="J3">
-            <v>99.106194329630398</v>
+            <v>95.219676904939007</v>
           </cell>
           <cell r="K3">
-            <v>96.407050061777014</v>
+            <v>108.21199496730074</v>
           </cell>
           <cell r="L3">
-            <v>99.548531315603682</v>
+            <v>93.805346816626539</v>
           </cell>
           <cell r="M3">
-            <v>94.288832112120986</v>
+            <v>88.516046472603378</v>
           </cell>
           <cell r="N3">
             <v>87.481966178020883</v>
           </cell>
           <cell r="O3">
-            <v>104.02063272458084</v>
+            <v>103.07499060890282</v>
           </cell>
           <cell r="P3">
-            <v>81.149285857356148</v>
+            <v>94.52554176790936</v>
           </cell>
           <cell r="Q3">
-            <v>92.683551489830805</v>
+            <v>94.415954321416436</v>
           </cell>
           <cell r="R3">
-            <v>85.699946637247507</v>
+            <v>91.112574845915773</v>
           </cell>
           <cell r="S3">
-            <v>103</v>
+            <v>108</v>
           </cell>
           <cell r="T3">
             <v>104.61937666064914</v>
           </cell>
           <cell r="U3">
-            <v>94.647407611170919</v>
+            <v>104.40487231335351</v>
           </cell>
           <cell r="V3">
             <v>96.855581754478948</v>
           </cell>
           <cell r="W3">
-            <v>84.488066904344308</v>
+            <v>98.8690144625306</v>
           </cell>
           <cell r="X3">
-            <v>86.491992341486721</v>
+            <v>82.56053814414642</v>
           </cell>
           <cell r="Y3">
-            <v>77.043461245399598</v>
+            <v>72.049903572086663</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>72.212712620575786</v>
+            <v>76.460519245315552</v>
           </cell>
           <cell r="C4">
-            <v>69.077411062395257</v>
+            <v>71.051051378463697</v>
           </cell>
           <cell r="D4">
-            <v>63.702485915992995</v>
+            <v>53.581530209713733</v>
           </cell>
           <cell r="E4">
-            <v>66.594679845444617</v>
+            <v>69.796347145706378</v>
           </cell>
           <cell r="F4">
-            <v>62.533822730050439</v>
+            <v>68.276724817504061</v>
           </cell>
           <cell r="G4">
-            <v>64.526107230186639</v>
+            <v>59.869584028008227</v>
           </cell>
           <cell r="H4">
             <v>102.95900891476366</v>
           </cell>
           <cell r="I4">
-            <v>120.18428409417976</v>
+            <v>101.43994620793154</v>
           </cell>
           <cell r="J4">
-            <v>112.42258885332305</v>
+            <v>116.04912397762378</v>
           </cell>
           <cell r="K4">
-            <v>122.1577888301361</v>
+            <v>111.27244131061903</v>
           </cell>
           <cell r="L4">
-            <v>102.82381485439703</v>
+            <v>122.24609099356093</v>
           </cell>
           <cell r="M4">
-            <v>122.5</v>
+            <v>117.5</v>
           </cell>
           <cell r="N4">
-            <v>110.81249786908471</v>
+            <v>119.0644923912506</v>
           </cell>
           <cell r="O4">
-            <v>104.83869762321503</v>
+            <v>112.56365429018877</v>
           </cell>
           <cell r="P4">
-            <v>116.63731290979733</v>
+            <v>97.376105273317023</v>
           </cell>
           <cell r="Q4">
-            <v>106.98720721502637</v>
+            <v>89.989239713573582</v>
           </cell>
           <cell r="R4">
-            <v>99.051334073102836</v>
+            <v>104.05392670305753</v>
           </cell>
           <cell r="S4">
-            <v>100.6259123453416</v>
+            <v>97.448251955488715</v>
           </cell>
           <cell r="T4">
-            <v>102.74435260524353</v>
+            <v>116.51421429460608</v>
           </cell>
           <cell r="U4">
-            <v>104.29162834972759</v>
+            <v>117.19368546515781</v>
           </cell>
           <cell r="V4">
-            <v>109.84466500038602</v>
+            <v>98.337128667012223</v>
           </cell>
           <cell r="W4">
-            <v>88.860654734496066</v>
+            <v>90.751306962889601</v>
           </cell>
           <cell r="X4">
-            <v>84.750127592875572</v>
+            <v>80.752480064909747</v>
           </cell>
           <cell r="Y4">
-            <v>82.784612180880288</v>
+            <v>72.726668644885478</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="2">
           <cell r="B2">
-            <v>58.68043822340757</v>
+            <v>54.531316328823202</v>
           </cell>
           <cell r="C2">
             <v>52.152371861494736</v>
           </cell>
           <cell r="D2">
-            <v>52.535981370409232</v>
+            <v>44.189143208755425</v>
           </cell>
           <cell r="E2">
-            <v>50.941772337240714</v>
+            <v>46.090174971789217</v>
           </cell>
           <cell r="F2">
-            <v>52.305295259295072</v>
+            <v>50.781840057568033</v>
           </cell>
           <cell r="G2">
-            <v>58.119103757023957</v>
+            <v>57.570810325353918</v>
           </cell>
           <cell r="H2">
-            <v>70.792478824410097</v>
+            <v>63.514747356480079</v>
           </cell>
           <cell r="I2">
-            <v>66.567559856871142</v>
+            <v>81.360350936175848</v>
           </cell>
           <cell r="J2">
-            <v>78.284120064959353</v>
+            <v>85.329690870805706</v>
           </cell>
           <cell r="K2">
-            <v>82.566226822958399</v>
+            <v>83.375699634948177</v>
           </cell>
           <cell r="L2">
-            <v>80.871033590441968</v>
+            <v>79.237275336089596</v>
           </cell>
           <cell r="M2">
-            <v>88.111107872849502</v>
+            <v>76.794084843309179</v>
           </cell>
           <cell r="N2">
-            <v>80.377199202923805</v>
+            <v>77.965883226836084</v>
           </cell>
           <cell r="O2">
-            <v>71.634891101925433</v>
+            <v>82.655643579144723</v>
           </cell>
           <cell r="P2">
-            <v>74.689597342499425</v>
+            <v>70.878903600535168</v>
           </cell>
           <cell r="Q2">
-            <v>72.588879712603855</v>
+            <v>77.078913509259777</v>
           </cell>
           <cell r="R2">
-            <v>76.73036415799865</v>
+            <v>69.754876507271504</v>
           </cell>
           <cell r="S2">
-            <v>84.23722791786723</v>
+            <v>92.134468035167288</v>
           </cell>
           <cell r="T2">
-            <v>96.626127604711286</v>
+            <v>81.41645937063636</v>
           </cell>
           <cell r="U2">
-            <v>91.8</v>
+            <v>86.399999999999991</v>
           </cell>
           <cell r="V2">
-            <v>82.957491783337801</v>
+            <v>81.211018272109655</v>
           </cell>
           <cell r="W2">
-            <v>86.665244289698251</v>
+            <v>76.665408410117678</v>
           </cell>
           <cell r="X2">
-            <v>72.947095918921306</v>
+            <v>69.907633588966263</v>
           </cell>
           <cell r="Y2">
-            <v>68.508341722378276</v>
+            <v>64.478439268120724</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>61.736641303239807</v>
+            <v>57.281419765892608</v>
           </cell>
           <cell r="C3">
-            <v>63.521318691372414</v>
+            <v>64.708633059435456</v>
           </cell>
           <cell r="D3">
-            <v>54.56331730010244</v>
+            <v>51.188266745456929</v>
           </cell>
           <cell r="E3">
-            <v>53.618723099023434</v>
+            <v>55.852836561482746</v>
           </cell>
           <cell r="F3">
-            <v>54.830752122985913</v>
+            <v>61.613937952633663</v>
           </cell>
           <cell r="G3">
-            <v>58.406788904229003</v>
+            <v>64.620277085529963</v>
           </cell>
           <cell r="H3">
-            <v>73.400635831827245</v>
+            <v>71.91779470391154</v>
           </cell>
           <cell r="I3">
             <v>86.56709867948814</v>
           </cell>
           <cell r="J3">
-            <v>104.93597046666748</v>
+            <v>101.04945304197609</v>
           </cell>
           <cell r="K3">
-            <v>88.537086791427882</v>
+            <v>91.48832301780881</v>
           </cell>
           <cell r="L3">
-            <v>105.29171581458083</v>
+            <v>89.01935973414561</v>
           </cell>
           <cell r="M3">
-            <v>90.440308352442571</v>
+            <v>99.099486811719004</v>
           </cell>
           <cell r="N3">
-            <v>96.134028767055909</v>
+            <v>92.288667616373672</v>
           </cell>
           <cell r="O3">
-            <v>91.727285220766731</v>
+            <v>85.107790411020687</v>
           </cell>
           <cell r="P3">
-            <v>91.850290585798717</v>
+            <v>81.149285857356148</v>
           </cell>
           <cell r="Q3">
-            <v>80.556731668731445</v>
+            <v>84.021537331902692</v>
           </cell>
           <cell r="R3">
-            <v>92.9167842488052</v>
+            <v>86.60205133869222</v>
           </cell>
           <cell r="S3">
-            <v>99</v>
+            <v>103</v>
           </cell>
           <cell r="T3">
-            <v>106.61212669228055</v>
+            <v>98.641126565754902</v>
           </cell>
           <cell r="U3">
-            <v>94.647407611170919</v>
+            <v>90.744421730297901</v>
           </cell>
           <cell r="V3">
-            <v>103.56834484637353</v>
+            <v>87.265920194629544</v>
           </cell>
           <cell r="W3">
-            <v>80.892830014797752</v>
+            <v>87.184494571504246</v>
           </cell>
           <cell r="X3">
-            <v>71.552466391593555</v>
+            <v>83.346828983614472</v>
           </cell>
           <cell r="Y3">
-            <v>73.476634335890353</v>
+            <v>70.623172808282959</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>66.548970454256121</v>
+            <v>77.876454786895465</v>
           </cell>
           <cell r="C4">
-            <v>68.419530957039115</v>
+            <v>72.366811589175995</v>
           </cell>
           <cell r="D4">
-            <v>64.89318658731996</v>
+            <v>62.511785244666022</v>
           </cell>
           <cell r="E4">
-            <v>63.393012545182849</v>
+            <v>67.875346765549324</v>
           </cell>
           <cell r="F4">
-            <v>62.533822730050439</v>
+            <v>58.705221338414702</v>
           </cell>
           <cell r="G4">
-            <v>63.860889629875437</v>
+            <v>63.195672029564236</v>
           </cell>
           <cell r="H4">
-            <v>107.908961266435</v>
+            <v>98.999047033426592</v>
           </cell>
           <cell r="I4">
-            <v>120.18428409417976</v>
+            <v>101.43994620793154</v>
           </cell>
           <cell r="J4">
-            <v>120.88450414335811</v>
+            <v>128.13757439195962</v>
           </cell>
           <cell r="K4">
-            <v>123.36727188786023</v>
+            <v>125.78623800330847</v>
           </cell>
           <cell r="L4">
             <v>115.39117000326779</v>
           </cell>
           <cell r="M4">
-            <v>118.75</v>
+            <v>127.5</v>
           </cell>
           <cell r="N4">
-            <v>126.13763055310707</v>
+            <v>123.77991783248825</v>
           </cell>
           <cell r="O4">
-            <v>116.9779152427452</v>
+            <v>99.320871432519496</v>
           </cell>
           <cell r="P4">
-            <v>116.63731290979733</v>
+            <v>104.86657490972603</v>
           </cell>
           <cell r="Q4">
-            <v>106.98720721502637</v>
+            <v>91.989000596097441</v>
           </cell>
           <cell r="R4">
-            <v>96.049778495130028</v>
+            <v>100.05185259909378</v>
           </cell>
           <cell r="S4">
-            <v>108.04045325499835</v>
+            <v>104.86279286514547</v>
           </cell>
           <cell r="T4">
-            <v>97.448251955488715</v>
+            <v>116.51421429460608</v>
           </cell>
           <cell r="U4">
-            <v>99.990942644584194</v>
+            <v>112.8929997600144</v>
           </cell>
           <cell r="V4">
-            <v>102.52168733369361</v>
+            <v>112.98308400039704</v>
           </cell>
           <cell r="W4">
-            <v>87.915328620299306</v>
+            <v>99.259241990660513</v>
           </cell>
           <cell r="X4">
-            <v>83.151068581689245</v>
+            <v>85.549657098468742</v>
           </cell>
           <cell r="Y4">
-            <v>78.916172359343818</v>
+            <v>70.405604751963608</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="2">
           <cell r="B2">
-            <v>62.829560117991953</v>
+            <v>57.494974824954895</v>
           </cell>
           <cell r="C2">
-            <v>54.759990454569476</v>
+            <v>46.937134675345263</v>
           </cell>
           <cell r="D2">
-            <v>52.044990890311951</v>
+            <v>44.680133688852706</v>
           </cell>
           <cell r="E2">
-            <v>43.664376289063469</v>
+            <v>49.971452864150415</v>
           </cell>
           <cell r="F2">
-            <v>51.797476858719392</v>
+            <v>48.750566455265307</v>
           </cell>
           <cell r="G2">
-            <v>53.732756303663649</v>
+            <v>50.442995713643434</v>
           </cell>
           <cell r="H2">
-            <v>65.49958321137008</v>
+            <v>63.514747356480079</v>
           </cell>
           <cell r="I2">
-            <v>72.484676288593022</v>
+            <v>67.307199410836375</v>
           </cell>
           <cell r="J2">
-            <v>72.804231660412199</v>
+            <v>74.369914061711384</v>
           </cell>
           <cell r="K2">
-            <v>80.947281198978814</v>
+            <v>88.232536506886916</v>
           </cell>
           <cell r="L2">
-            <v>77.603517081737238</v>
+            <v>78.420396208913417</v>
           </cell>
           <cell r="M2">
-            <v>80.835878782430726</v>
+            <v>88.919466660673805</v>
           </cell>
           <cell r="N2">
-            <v>81.180971194953045</v>
+            <v>83.592287171040766</v>
           </cell>
           <cell r="O2">
-            <v>83.442840184660398</v>
+            <v>78.719660551566406</v>
           </cell>
           <cell r="P2">
-            <v>76.976013587677983</v>
+            <v>80.78670732964224</v>
           </cell>
           <cell r="Q2">
-            <v>72.588879712603855</v>
+            <v>68.847184882057277</v>
           </cell>
           <cell r="R2">
-            <v>74.405201607756268</v>
+            <v>78.280472524826905</v>
           </cell>
           <cell r="S2">
-            <v>78.97240117300052</v>
+            <v>89.502054662733926</v>
           </cell>
           <cell r="T2">
-            <v>93.942068504580419</v>
+            <v>91.258009404449538</v>
           </cell>
           <cell r="U2">
-            <v>85.5</v>
+            <v>98.100000000000009</v>
           </cell>
           <cell r="V2">
-            <v>95.182806361934965</v>
+            <v>85.577202050180063</v>
           </cell>
           <cell r="W2">
-            <v>84.165285319803104</v>
+            <v>80.832006693276242</v>
           </cell>
           <cell r="X2">
-            <v>77.506289413853892</v>
+            <v>80.54575174380895</v>
           </cell>
           <cell r="Y2">
-            <v>73.881544994721679</v>
+            <v>64.478439268120724</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>67.464783279829064</v>
+            <v>64.282482181723921</v>
           </cell>
           <cell r="C3">
-            <v>56.991089667025712</v>
+            <v>57.584746851057233</v>
           </cell>
           <cell r="D3">
-            <v>54.56331730010244</v>
+            <v>58.500876280522206</v>
           </cell>
           <cell r="E3">
-            <v>56.411364927097573</v>
+            <v>51.384609636564129</v>
           </cell>
           <cell r="F3">
-            <v>55.961283094593874</v>
+            <v>57.091814066201827</v>
           </cell>
           <cell r="G3">
-            <v>65.241625903660065</v>
+            <v>62.134881813009578</v>
           </cell>
           <cell r="H3">
-            <v>68.210691884122284</v>
+            <v>80.814841471405757</v>
           </cell>
           <cell r="I3">
-            <v>97.276430474888741</v>
+            <v>94.599097526038591</v>
           </cell>
           <cell r="J3">
-            <v>98.134564973457557</v>
+            <v>104.93597046666748</v>
           </cell>
           <cell r="K3">
-            <v>89.52083220022152</v>
+            <v>88.537086791427882</v>
           </cell>
           <cell r="L3">
-            <v>90.933754567137981</v>
+            <v>104.33451839808464</v>
           </cell>
           <cell r="M3">
-            <v>101.98587963147781</v>
+            <v>105.83440339115621</v>
           </cell>
           <cell r="N3">
-            <v>95.172688479385343</v>
+            <v>99.018049630067594</v>
           </cell>
           <cell r="O3">
-            <v>103.07499060890282</v>
+            <v>86.999074642376698</v>
           </cell>
           <cell r="P3">
-            <v>89.175039403688075</v>
+            <v>90.958540191761841</v>
           </cell>
           <cell r="Q3">
-            <v>86.620141579281125</v>
+            <v>90.084947242452373</v>
           </cell>
           <cell r="R3">
-            <v>96.52520305458404</v>
+            <v>91.112574845915773</v>
           </cell>
           <cell r="S3">
-            <v>107</v>
+            <v>95</v>
           </cell>
           <cell r="T3">
-            <v>108.60487672391197</v>
+            <v>96.648376534123486</v>
           </cell>
           <cell r="U3">
-            <v>102.45337937291698</v>
+            <v>89.768675260079647</v>
           </cell>
           <cell r="V3">
-            <v>87.265920194629544</v>
+            <v>88.224886350614497</v>
           </cell>
           <cell r="W3">
-            <v>86.2856853491176</v>
+            <v>96.172586795370663</v>
           </cell>
           <cell r="X3">
             <v>83.346828983614472</v>
@@ -1745,149 +1748,149 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>67.964905995836034</v>
+            <v>76.460519245315552</v>
           </cell>
           <cell r="C4">
-            <v>69.735291167751413</v>
+            <v>63.15649011418995</v>
           </cell>
           <cell r="D4">
-            <v>62.511785244666022</v>
+            <v>61.32108457333905</v>
           </cell>
           <cell r="E4">
-            <v>64.033346005235202</v>
+            <v>58.270344864764034</v>
           </cell>
           <cell r="F4">
-            <v>62.533822730050439</v>
+            <v>59.981421802293276</v>
           </cell>
           <cell r="G4">
-            <v>60.534801628319428</v>
+            <v>62.530454429253034</v>
           </cell>
           <cell r="H4">
-            <v>95.039085152089527</v>
+            <v>93.059104211420987</v>
           </cell>
           <cell r="I4">
-            <v>100.33733809697576</v>
+            <v>105.85037865175464</v>
           </cell>
           <cell r="J4">
             <v>111.21374381188947</v>
           </cell>
           <cell r="K4">
-            <v>129.41468717648084</v>
+            <v>113.69140742606726</v>
           </cell>
           <cell r="L4">
-            <v>110.82122267640568</v>
+            <v>125.67355148870749</v>
           </cell>
           <cell r="M4">
-            <v>118.75</v>
+            <v>122.5</v>
           </cell>
           <cell r="N4">
-            <v>110.81249786908471</v>
+            <v>122.60106147217884</v>
           </cell>
           <cell r="O4">
-            <v>104.83869762321503</v>
+            <v>110.35652381391056</v>
           </cell>
           <cell r="P4">
-            <v>96.306038182401451</v>
+            <v>107.00670909155717</v>
           </cell>
           <cell r="Q4">
-            <v>96.988402802407066</v>
+            <v>107.9870876562883</v>
           </cell>
           <cell r="R4">
-            <v>107.05548228103035</v>
+            <v>99.051334073102836</v>
           </cell>
           <cell r="S4">
-            <v>109.09967338494931</v>
+            <v>98.507472085439673</v>
           </cell>
           <cell r="T4">
-            <v>115.4549941646551</v>
+            <v>112.27733377480222</v>
           </cell>
           <cell r="U4">
-            <v>98.915771218298346</v>
+            <v>117.19368546515781</v>
           </cell>
           <cell r="V4">
-            <v>94.152570000330869</v>
+            <v>97.290989000341895</v>
           </cell>
           <cell r="W4">
-            <v>89.805980848692826</v>
+            <v>90.751306962889601</v>
           </cell>
           <cell r="X4">
-            <v>74.356244020164425</v>
+            <v>75.155773525757581</v>
           </cell>
           <cell r="Y4">
-            <v>83.558300145187573</v>
+            <v>77.368796430729233</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="2">
           <cell r="B2">
-            <v>10.813262185630244</v>
+            <v>12.653817451269436</v>
           </cell>
           <cell r="C2">
             <v>9.2283995159327823</v>
           </cell>
           <cell r="D2">
-            <v>7.444214048958572</v>
+            <v>7.2922913132655403</v>
           </cell>
           <cell r="E2">
             <v>7.8793241403845427</v>
           </cell>
           <cell r="F2">
-            <v>9.1242992184498171</v>
+            <v>8.2794566982229814</v>
           </cell>
           <cell r="G2">
-            <v>10.384985187332877</v>
+            <v>10.699681708161146</v>
           </cell>
           <cell r="H2">
-            <v>15.786886814010129</v>
+            <v>16.275141045371267</v>
           </cell>
           <cell r="I2">
-            <v>19.670144754169069</v>
+            <v>21.855716393521188</v>
           </cell>
           <cell r="J2">
-            <v>24.103403479477805</v>
+            <v>24.792072150320028</v>
           </cell>
           <cell r="K2">
-            <v>27.806200777770208</v>
+            <v>24.520013413124634</v>
           </cell>
           <cell r="L2">
-            <v>27.785946846808869</v>
+            <v>24.98186046777311</v>
           </cell>
           <cell r="M2">
-            <v>26.286338021730796</v>
+            <v>23.532531181358994</v>
           </cell>
           <cell r="N2">
-            <v>24.638404161081308</v>
+            <v>25.644053310513197</v>
           </cell>
           <cell r="O2">
-            <v>23.391596336170867</v>
+            <v>23.142749566637139</v>
           </cell>
           <cell r="P2">
-            <v>23.795782085238013</v>
+            <v>20.428454431666598</v>
           </cell>
           <cell r="Q2">
             <v>19.622150335440256</v>
           </cell>
           <cell r="R2">
-            <v>22.671328709175562</v>
+            <v>23.11154868411101</v>
           </cell>
           <cell r="S2">
-            <v>32.700000000000003</v>
+            <v>32.1</v>
           </cell>
           <cell r="T2">
-            <v>31.75383604533792</v>
+            <v>31.454271554344164</v>
           </cell>
           <cell r="U2">
-            <v>31.656127895941694</v>
+            <v>28.461472787176934</v>
           </cell>
           <cell r="V2">
-            <v>28.494633745335054</v>
+            <v>29.569902943272229</v>
           </cell>
           <cell r="W2">
-            <v>22.950545226683232</v>
+            <v>25.819363380018636</v>
           </cell>
           <cell r="X2">
-            <v>20.278914547482202</v>
+            <v>19.88893542156908</v>
           </cell>
           <cell r="Y2">
             <v>15.109050429231946</v>
@@ -1895,55 +1898,55 @@
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-27.059434563384116</v>
+            <v>-30.841936169018453</v>
           </cell>
           <cell r="C3">
-            <v>-31.939772440491488</v>
+            <v>-29.726124845605938</v>
           </cell>
           <cell r="D3">
             <v>-30.656624782507482</v>
           </cell>
           <cell r="E3">
-            <v>-33.138648183003248</v>
+            <v>-35.167545010534063</v>
           </cell>
           <cell r="F3">
-            <v>-32.200000000000003</v>
+            <v>-36.4</v>
           </cell>
           <cell r="G3">
-            <v>-33.649115465354889</v>
+            <v>-33.337549581416418</v>
           </cell>
           <cell r="H3">
-            <v>-24.825992348482206</v>
+            <v>-24.593973728402933</v>
           </cell>
           <cell r="I3">
-            <v>-10.314375907489971</v>
+            <v>-9.3593411012408989</v>
           </cell>
           <cell r="J3">
-            <v>-2.5593955467785316</v>
+            <v>-2.5312703209897567</v>
           </cell>
           <cell r="K3">
-            <v>-0.41797373795190984</v>
+            <v>-0.47517014419796066</v>
           </cell>
           <cell r="L3">
-            <v>-3.9893191974059161</v>
+            <v>-4.3448030862836715</v>
           </cell>
           <cell r="M3">
             <v>-3.1361382232545592</v>
           </cell>
           <cell r="N3">
-            <v>-3.8987193289407798</v>
+            <v>-4.4212281049843902</v>
           </cell>
           <cell r="O3">
-            <v>-3.9329058759209174</v>
+            <v>-3.7301787689146848</v>
           </cell>
           <cell r="P3">
-            <v>-10.864996868383985</v>
+            <v>-10.659996927471079</v>
           </cell>
           <cell r="Q3">
-            <v>-14.318761230902309</v>
+            <v>-14.613993421230191</v>
           </cell>
           <cell r="R3">
-            <v>-12.996478098968542</v>
+            <v>-13.652865881744731</v>
           </cell>
           <cell r="S3">
             <v>-4.1227000778745406</v>
@@ -1952,915 +1955,915 @@
             <v>-6.3229769374534452</v>
           </cell>
           <cell r="U3">
-            <v>-7.7844020483341021</v>
+            <v>-7.3746966773691494</v>
           </cell>
           <cell r="V3">
-            <v>-12.742775751833543</v>
+            <v>-11.841771405744304</v>
           </cell>
           <cell r="W3">
-            <v>-15.87262924120456</v>
+            <v>-16.206789856808868</v>
           </cell>
           <cell r="X3">
-            <v>-23.088578632758438</v>
+            <v>-22.191934802360052</v>
           </cell>
           <cell r="Y3">
-            <v>-23.212724838934463</v>
+            <v>-25.735847104036036</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>40.364416827048736</v>
+            <v>43.59357017321264</v>
           </cell>
           <cell r="C4">
-            <v>51.5</v>
+            <v>52</v>
           </cell>
           <cell r="D4">
-            <v>48.5</v>
+            <v>55.000000000000007</v>
           </cell>
           <cell r="E4">
-            <v>54.500000000000007</v>
+            <v>52.5</v>
           </cell>
           <cell r="F4">
-            <v>54</v>
+            <v>48</v>
           </cell>
           <cell r="G4">
-            <v>42.133168430436328</v>
+            <v>36.461395757108356</v>
           </cell>
           <cell r="H4">
-            <v>16.721741331392934</v>
+            <v>20.029338517822307</v>
           </cell>
           <cell r="I4">
-            <v>2.2237206877056699</v>
+            <v>2.5549131305554504</v>
           </cell>
           <cell r="J4">
-            <v>-14.395532639376221</v>
+            <v>-13.565021140950668</v>
           </cell>
           <cell r="K4">
-            <v>-12.457672476383268</v>
+            <v>-13.980276890163443</v>
           </cell>
           <cell r="L4">
-            <v>-1.2516779557268016</v>
+            <v>-1.1920742435493348</v>
           </cell>
           <cell r="M4">
-            <v>-13.28005170360659</v>
+            <v>-14.723535584433394</v>
           </cell>
           <cell r="N4">
-            <v>-13.857445255937311</v>
+            <v>-15.156580748681435</v>
           </cell>
           <cell r="O4">
-            <v>-10.391413319233276</v>
+            <v>-12.290918979738283</v>
           </cell>
           <cell r="P4">
-            <v>-1.3063503459713692</v>
+            <v>-1.4175290988199967</v>
           </cell>
           <cell r="Q4">
-            <v>8.729824570743844</v>
+            <v>7.554655878528326</v>
           </cell>
           <cell r="R4">
-            <v>10.839454655483015</v>
+            <v>11.888434138271693</v>
           </cell>
           <cell r="S4">
-            <v>11.888434138271693</v>
+            <v>12.004987414137103</v>
           </cell>
           <cell r="T4">
-            <v>12.820860345194964</v>
+            <v>11.189114483079241</v>
           </cell>
           <cell r="U4">
-            <v>11.305667758944649</v>
+            <v>11.771880862406285</v>
           </cell>
           <cell r="V4">
-            <v>12.820860345194964</v>
+            <v>12.23809396586792</v>
           </cell>
           <cell r="W4">
-            <v>24.305111538796627</v>
+            <v>21.874600384916963</v>
           </cell>
           <cell r="X4">
-            <v>39.381709115562217</v>
+            <v>34.923402423234421</v>
           </cell>
           <cell r="Y4">
-            <v>39.010183557868238</v>
+            <v>34.551876865540436</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="2">
           <cell r="B2">
-            <v>12.538782747166985</v>
+            <v>10.353123369220446</v>
           </cell>
           <cell r="C2">
-            <v>9.6720725695833973</v>
+            <v>8.8734610730122903</v>
           </cell>
           <cell r="D2">
-            <v>7.8240208881911526</v>
+            <v>7.0644072097259922</v>
           </cell>
           <cell r="E2">
-            <v>7.2103249209179303</v>
+            <v>7.3589914141327331</v>
           </cell>
           <cell r="F2">
-            <v>7.772551186086881</v>
+            <v>8.8708464623817651</v>
           </cell>
           <cell r="G2">
-            <v>10.594782867885055</v>
+            <v>10.699681708161146</v>
           </cell>
           <cell r="H2">
-            <v>17.414400918547258</v>
+            <v>14.64762694083414</v>
           </cell>
           <cell r="I2">
-            <v>19.670144754169069</v>
+            <v>21.060963070120419</v>
           </cell>
           <cell r="J2">
-            <v>22.037397466951134</v>
+            <v>25.251184597548178</v>
           </cell>
           <cell r="K2">
-            <v>25.78393163029601</v>
+            <v>23.003311552518987</v>
           </cell>
           <cell r="L2">
-            <v>27.531029903260166</v>
+            <v>24.726943524224406</v>
           </cell>
           <cell r="M2">
-            <v>26.53668409812823</v>
+            <v>27.538068403717975</v>
           </cell>
           <cell r="N2">
-            <v>25.141228735797252</v>
+            <v>23.129930436933474</v>
           </cell>
           <cell r="O2">
-            <v>24.138136644772068</v>
+            <v>23.640443105704602</v>
           </cell>
           <cell r="P2">
-            <v>22.897828044285635</v>
+            <v>23.346805064761824</v>
           </cell>
           <cell r="Q2">
-            <v>19.195581849887208</v>
+            <v>21.541708520428976</v>
           </cell>
           <cell r="R2">
-            <v>22.231108734240113</v>
+            <v>20.250118847030599</v>
           </cell>
           <cell r="S2">
-            <v>29.4</v>
+            <v>30.6</v>
           </cell>
           <cell r="T2">
-            <v>32.652529518319184</v>
+            <v>27.85949766241912</v>
           </cell>
           <cell r="U2">
-            <v>30.204011937412258</v>
+            <v>27.009356828647501</v>
           </cell>
           <cell r="V2">
-            <v>27.15054724791359</v>
+            <v>24.193556953586366</v>
           </cell>
           <cell r="W2">
-            <v>23.9068179444617</v>
+            <v>21.994272508904764</v>
           </cell>
           <cell r="X2">
-            <v>19.88893542156908</v>
+            <v>21.253862362265</v>
           </cell>
           <cell r="Y2">
-            <v>13.912293959589812</v>
+            <v>14.809861311821411</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-26.768472901412242</v>
+            <v>-28.223281211271601</v>
           </cell>
           <cell r="C3">
-            <v>-29.093654104210071</v>
+            <v>-34.469655406074978</v>
           </cell>
           <cell r="D3">
-            <v>-33.381658096508147</v>
+            <v>-33.722287260758229</v>
           </cell>
           <cell r="E3">
-            <v>-34.491246068023791</v>
+            <v>-34.829395539278927</v>
           </cell>
           <cell r="F3">
-            <v>-36.75</v>
+            <v>-37.450000000000003</v>
           </cell>
           <cell r="G3">
-            <v>-33.96068134929336</v>
+            <v>-28.352495438400876</v>
           </cell>
           <cell r="H3">
-            <v>-21.34571304729311</v>
+            <v>-23.897917868165113</v>
           </cell>
           <cell r="I3">
-            <v>-8.5953132562416421</v>
+            <v>-9.7413550237405264</v>
           </cell>
           <cell r="J3">
-            <v>-2.8968982562438326</v>
+            <v>-2.8125225788775072</v>
           </cell>
           <cell r="K3">
-            <v>-0.41357401439452129</v>
+            <v>-0.4091742908371328</v>
           </cell>
           <cell r="L3">
-            <v>-4.2658066665330594</v>
+            <v>-3.7523299381540793</v>
           </cell>
           <cell r="M3">
-            <v>-2.7876784206707192</v>
+            <v>-2.6715251531427726</v>
           </cell>
           <cell r="N3">
-            <v>-3.7781403806230238</v>
+            <v>-4.0192982772585362</v>
           </cell>
           <cell r="O3">
-            <v>-3.8518150331184242</v>
+            <v>-3.8923604545196708</v>
           </cell>
           <cell r="P3">
-            <v>-10.35249701610172</v>
+            <v>-11.274996750209795</v>
           </cell>
           <cell r="Q3">
-            <v>-15.352073897049898</v>
+            <v>-14.466377326066249</v>
           </cell>
           <cell r="R3">
-            <v>-13.521588325189494</v>
+            <v>-13.915420994855207</v>
           </cell>
           <cell r="S3">
-            <v>-4.884503353133967</v>
+            <v>-4.5708196515565565</v>
           </cell>
           <cell r="T3">
-            <v>-6.2577916082013481</v>
+            <v>-7.1052008884786142</v>
           </cell>
           <cell r="U3">
-            <v>-8.9315770870359703</v>
+            <v>-7.3746966773691494</v>
           </cell>
           <cell r="V3">
-            <v>-11.970486312328481</v>
+            <v>-13.515065191338607</v>
           </cell>
           <cell r="W3">
-            <v>-16.206789856808868</v>
+            <v>-17.543432319226095</v>
           </cell>
           <cell r="X3">
             <v>-21.519451929561264</v>
           </cell>
           <cell r="Y3">
-            <v>-23.969661518464932</v>
+            <v>-25.735847104036036</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>43.997214341483122</v>
+            <v>39.557128490507758</v>
           </cell>
           <cell r="C4">
-            <v>47</v>
+            <v>47.5</v>
           </cell>
           <cell r="D4">
-            <v>52</v>
+            <v>46.5</v>
           </cell>
           <cell r="E4">
-            <v>45.5</v>
+            <v>47.5</v>
           </cell>
           <cell r="F4">
-            <v>50</v>
+            <v>53.5</v>
           </cell>
           <cell r="G4">
-            <v>36.866522376631785</v>
+            <v>43.348548289006601</v>
           </cell>
           <cell r="H4">
             <v>18.191784525361541</v>
           </cell>
           <cell r="I4">
-            <v>2.1290942754628754</v>
+            <v>2.3420037030091629</v>
           </cell>
           <cell r="J4">
-            <v>-13.288183974808817</v>
+            <v>-14.257114056305294</v>
           </cell>
           <cell r="K4">
-            <v>-15.226044137801772</v>
+            <v>-12.457672476383268</v>
           </cell>
           <cell r="L4">
-            <v>-1.1563120162428546</v>
+            <v>-1.1920742435493348</v>
           </cell>
           <cell r="M4">
+            <v>-14.867883972516074</v>
+          </cell>
+          <cell r="N4">
             <v>-13.28005170360659</v>
           </cell>
-          <cell r="N4">
-            <v>-15.445277524846796</v>
-          </cell>
           <cell r="O4">
-            <v>-10.503148946321804</v>
+            <v>-12.290918979738283</v>
           </cell>
           <cell r="P4">
-            <v>-1.3619397223956828</v>
+            <v>-1.3063503459713692</v>
           </cell>
           <cell r="Q4">
-            <v>8.6458839498713065</v>
+            <v>9.2334682959790655</v>
           </cell>
           <cell r="R4">
-            <v>12.587753793464147</v>
+            <v>10.606348103752197</v>
           </cell>
           <cell r="S4">
+            <v>12.121540690002512</v>
+          </cell>
+          <cell r="T4">
+            <v>11.538774310675468</v>
+          </cell>
+          <cell r="U4">
+            <v>12.121540690002512</v>
+          </cell>
+          <cell r="V4">
             <v>10.489794827886788</v>
           </cell>
-          <cell r="T4">
-            <v>10.489794827886788</v>
-          </cell>
-          <cell r="U4">
-            <v>12.004987414137103</v>
-          </cell>
-          <cell r="V4">
-            <v>11.888434138271693</v>
-          </cell>
           <cell r="W4">
-            <v>23.332907077244762</v>
+            <v>23.575958192632729</v>
           </cell>
           <cell r="X4">
-            <v>40.124760230950187</v>
+            <v>34.551876865540436</v>
           </cell>
           <cell r="Y4">
-            <v>35.666453538622385</v>
+            <v>33.437300192458487</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="9">
         <row r="2">
           <cell r="B2">
-            <v>12.538782747166985</v>
+            <v>11.50347041024494</v>
           </cell>
           <cell r="C2">
-            <v>9.3171341266629053</v>
+            <v>9.0509302944725363</v>
           </cell>
           <cell r="D2">
-            <v>7.444214048958572</v>
+            <v>7.1403685775725076</v>
           </cell>
           <cell r="E2">
-            <v>7.3589914141327331</v>
+            <v>7.6563244005623385</v>
           </cell>
           <cell r="F2">
-            <v>7.9415196901322469</v>
+            <v>9.0398149664271337</v>
           </cell>
           <cell r="G2">
             <v>10.489884027608966</v>
           </cell>
           <cell r="H2">
-            <v>17.902655149908394</v>
+            <v>16.600643866278691</v>
           </cell>
           <cell r="I2">
-            <v>21.259651400970611</v>
+            <v>19.670144754169069</v>
           </cell>
           <cell r="J2">
-            <v>23.644291032249654</v>
+            <v>22.955622361407432</v>
           </cell>
           <cell r="K2">
-            <v>24.772797056558908</v>
+            <v>26.542282560598832</v>
           </cell>
           <cell r="L2">
-            <v>24.726943524224406</v>
+            <v>22.942524919383469</v>
           </cell>
           <cell r="M2">
-            <v>23.28218510496156</v>
+            <v>23.782877257756429</v>
           </cell>
           <cell r="N2">
-            <v>24.386991873723336</v>
+            <v>22.627105862217526</v>
           </cell>
           <cell r="O2">
-            <v>22.396209258035938</v>
+            <v>25.382370492440732</v>
           </cell>
           <cell r="P2">
-            <v>20.428454431666598</v>
+            <v>22.448851023809446</v>
           </cell>
           <cell r="Q2">
-            <v>21.541708520428976</v>
+            <v>19.195581849887208</v>
           </cell>
           <cell r="R2">
-            <v>23.771878646514182</v>
+            <v>19.80989887209515</v>
           </cell>
           <cell r="S2">
-            <v>33</v>
+            <v>32.400000000000006</v>
           </cell>
           <cell r="T2">
-            <v>32.952094009312937</v>
+            <v>31.454271554344164</v>
           </cell>
           <cell r="U2">
-            <v>30.784858320824032</v>
+            <v>26.718933636941614</v>
           </cell>
           <cell r="V2">
-            <v>26.881729948429296</v>
+            <v>28.763451044819348</v>
           </cell>
           <cell r="W2">
-            <v>24.145886123906319</v>
+            <v>23.428681585572466</v>
           </cell>
           <cell r="X2">
-            <v>19.498956295655962</v>
+            <v>20.668893673395321</v>
           </cell>
           <cell r="Y2">
-            <v>14.809861311821411</v>
+            <v>14.510672194410878</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-28.223281211271601</v>
+            <v>-29.387127859159094</v>
           </cell>
           <cell r="C3">
-            <v>-30.674830957699747</v>
+            <v>-31.939772440491488</v>
           </cell>
           <cell r="D3">
-            <v>-33.381658096508147</v>
+            <v>-36.447320574758898</v>
           </cell>
           <cell r="E3">
-            <v>-34.491246068023791</v>
+            <v>-36.520142895554606</v>
           </cell>
           <cell r="F3">
-            <v>-36.4</v>
+            <v>-37.1</v>
           </cell>
           <cell r="G3">
-            <v>-33.025983697477947</v>
+            <v>-34.27224723323183</v>
           </cell>
           <cell r="H3">
-            <v>-24.825992348482206</v>
+            <v>-21.34571304729311</v>
           </cell>
           <cell r="I3">
-            <v>-10.218872426865063</v>
+            <v>-8.5953132562416421</v>
           </cell>
           <cell r="J3">
-            <v>-2.7000216757224069</v>
+            <v>-2.7281469015111819</v>
           </cell>
           <cell r="K3">
-            <v>-0.42677318506668688</v>
+            <v>-0.47517014419796066</v>
           </cell>
           <cell r="L3">
-            <v>-4.2658066665330594</v>
+            <v>-3.7128317282787733</v>
           </cell>
           <cell r="M3">
-            <v>-2.9038316881986659</v>
+            <v>-2.9619083219626394</v>
           </cell>
           <cell r="N3">
-            <v>-4.4212281049843902</v>
+            <v>-4.1398772255762921</v>
           </cell>
           <cell r="O3">
-            <v>-4.0545421401246573</v>
+            <v>-4.297814668532137</v>
           </cell>
           <cell r="P3">
-            <v>-10.454996986558173</v>
+            <v>-9.5324972524500993</v>
           </cell>
           <cell r="Q3">
-            <v>-15.204457801885956</v>
+            <v>-14.613993421230191</v>
           </cell>
           <cell r="R3">
-            <v>-12.602645429302829</v>
+            <v>-13.915420994855207</v>
           </cell>
           <cell r="S3">
-            <v>-4.7948794383975635</v>
+            <v>-4.2123239926109433</v>
           </cell>
           <cell r="T3">
-            <v>-5.9970502911929593</v>
+            <v>-6.0622356204450565</v>
           </cell>
           <cell r="U3">
-            <v>-7.5385788257551312</v>
+            <v>-7.7844020483341021</v>
           </cell>
           <cell r="V3">
-            <v>-12.35663103208101</v>
+            <v>-13.000205565001897</v>
           </cell>
           <cell r="W3">
-            <v>-15.705548933402408</v>
+            <v>-17.209271703621788</v>
           </cell>
           <cell r="X3">
-            <v>-21.967773844760455</v>
+            <v>-20.398647141563281</v>
           </cell>
           <cell r="Y3">
-            <v>-24.978910424505564</v>
+            <v>-27.754344916117294</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>39.557128490507758</v>
+            <v>39.153484322237276</v>
           </cell>
           <cell r="C4">
-            <v>54.500000000000007</v>
+            <v>53</v>
           </cell>
           <cell r="D4">
-            <v>47</v>
+            <v>45</v>
           </cell>
           <cell r="E4">
-            <v>53.5</v>
+            <v>51.5</v>
           </cell>
           <cell r="F4">
-            <v>48</v>
+            <v>52.5</v>
           </cell>
           <cell r="G4">
-            <v>42.133168430436328</v>
+            <v>43.348548289006601</v>
           </cell>
           <cell r="H4">
-            <v>16.905496730639008</v>
+            <v>18.375539924607619</v>
           </cell>
           <cell r="I4">
-            <v>2.4839433213733546</v>
+            <v>2.4129735121912588</v>
           </cell>
           <cell r="J4">
-            <v>-13.149765391737892</v>
+            <v>-12.457672476383268</v>
           </cell>
           <cell r="K4">
-            <v>-13.841858307092519</v>
+            <v>-15.226044137801772</v>
           </cell>
           <cell r="L4">
-            <v>-1.0728668191944013</v>
+            <v>-1.2516779557268016</v>
           </cell>
           <cell r="M4">
-            <v>-12.991354927441231</v>
+            <v>-13.424400091689272</v>
           </cell>
           <cell r="N4">
-            <v>-15.589625912929476</v>
+            <v>-13.56874847977195</v>
           </cell>
           <cell r="O4">
-            <v>-10.279677692144746</v>
+            <v>-10.726620200498864</v>
           </cell>
           <cell r="P4">
-            <v>-1.3897344106078398</v>
+            <v>-1.3619397223956828</v>
           </cell>
           <cell r="Q4">
-            <v>7.8904183620184734</v>
+            <v>8.3101214663811582</v>
           </cell>
           <cell r="R4">
             <v>10.722901379617607</v>
           </cell>
           <cell r="S4">
+            <v>12.23809396586792</v>
+          </cell>
+          <cell r="T4">
             <v>11.771880862406285</v>
           </cell>
-          <cell r="T4">
-            <v>11.538774310675468</v>
-          </cell>
           <cell r="U4">
+            <v>11.189114483079241</v>
+          </cell>
+          <cell r="V4">
             <v>10.489794827886788</v>
           </cell>
-          <cell r="V4">
-            <v>10.606348103752197</v>
-          </cell>
           <cell r="W4">
-            <v>21.874600384916963</v>
+            <v>25.277316000348492</v>
           </cell>
           <cell r="X4">
-            <v>34.923402423234421</v>
+            <v>35.294927980928399</v>
           </cell>
           <cell r="Y4">
-            <v>34.180351307846458</v>
+            <v>33.437300192458487</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="2">
           <cell r="B2">
-            <v>59.438297935290414</v>
+            <v>69.129324772566022</v>
           </cell>
           <cell r="C2">
-            <v>61.423437385685375</v>
+            <v>56.304817603544919</v>
           </cell>
           <cell r="D2">
-            <v>53.242242251262013</v>
+            <v>57.006845238724985</v>
           </cell>
           <cell r="E2">
-            <v>56.76103778770694</v>
+            <v>56.240294321764672</v>
           </cell>
           <cell r="F2">
-            <v>58.515902732345822</v>
+            <v>54.651645004738072</v>
           </cell>
           <cell r="G2">
-            <v>46.517983202194273</v>
+            <v>48.540504210985318</v>
           </cell>
           <cell r="H2">
-            <v>65.231323143366964</v>
+            <v>55.150118657573884</v>
           </cell>
           <cell r="I2">
-            <v>63.323499844761344</v>
+            <v>72.271385692390666</v>
           </cell>
           <cell r="J2">
-            <v>83.744840137692734</v>
+            <v>77.541518646011781</v>
           </cell>
           <cell r="K2">
-            <v>90.712731831924771</v>
+            <v>85.719370446681197</v>
           </cell>
           <cell r="L2">
-            <v>84.168275910791152</v>
+            <v>82.450555994244382</v>
           </cell>
           <cell r="M2">
-            <v>88.117720366036508</v>
+            <v>78.520740920230551</v>
           </cell>
           <cell r="N2">
-            <v>94.295843361447737</v>
+            <v>97.854177073200489</v>
           </cell>
           <cell r="O2">
-            <v>94.171291445793756</v>
+            <v>86.996335907066594</v>
           </cell>
           <cell r="P2">
-            <v>90.9</v>
+            <v>81.900000000000006</v>
           </cell>
           <cell r="Q2">
-            <v>83.14278879614011</v>
+            <v>92.669566679031178</v>
           </cell>
           <cell r="R2">
-            <v>88.383428673284783</v>
+            <v>91.849445484001834</v>
           </cell>
           <cell r="S2">
-            <v>86.603039142092371</v>
+            <v>75.777659249330824</v>
           </cell>
           <cell r="T2">
-            <v>87.058706702768248</v>
+            <v>78.68767721211745</v>
           </cell>
           <cell r="U2">
-            <v>89.462449644059646</v>
+            <v>76.802669034051206</v>
           </cell>
           <cell r="V2">
-            <v>77.845430393062216</v>
+            <v>84.541811502142835</v>
           </cell>
           <cell r="W2">
-            <v>79.768981770656168</v>
+            <v>82.370144219699284</v>
           </cell>
           <cell r="X2">
-            <v>80.476788208874339</v>
+            <v>83.018160468101954</v>
           </cell>
           <cell r="Y2">
-            <v>80.252838115129975</v>
+            <v>77.224429129653373</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>78.761702268432046</v>
+            <v>72.198227079396034</v>
           </cell>
           <cell r="C3">
-            <v>60.957267279529205</v>
+            <v>62.945004256035581</v>
           </cell>
           <cell r="D3">
-            <v>62.496524084707048</v>
+            <v>58.590491329412863</v>
           </cell>
           <cell r="E3">
-            <v>70.778324224091151</v>
+            <v>64.934242407423071</v>
           </cell>
           <cell r="F3">
-            <v>68.835723540077041</v>
+            <v>64.939361830261362</v>
           </cell>
           <cell r="G3">
-            <v>68.226960514451122</v>
+            <v>59.215852521976437</v>
           </cell>
           <cell r="H3">
-            <v>63.233920563755632</v>
+            <v>71.572459539195933</v>
           </cell>
           <cell r="I3">
-            <v>74.249122012378223</v>
+            <v>81.674034213616039</v>
           </cell>
           <cell r="J3">
-            <v>89.32415807141399</v>
+            <v>94.965683844345406</v>
           </cell>
           <cell r="K3">
-            <v>91.099768724681368</v>
+            <v>102.72952643421517</v>
           </cell>
           <cell r="L3">
-            <v>104.56794794895464</v>
+            <v>94.015219256858288</v>
           </cell>
           <cell r="M3">
             <v>104.56558070996049</v>
           </cell>
           <cell r="N3">
-            <v>97</v>
+            <v>90</v>
           </cell>
           <cell r="O3">
-            <v>106.00220233070868</v>
+            <v>106.98370420414118</v>
           </cell>
           <cell r="P3">
-            <v>96.201247252621954</v>
+            <v>90.5423503554089</v>
           </cell>
           <cell r="Q3">
-            <v>94.139691704866777</v>
+            <v>87.803366301654577</v>
           </cell>
           <cell r="R3">
-            <v>87.49328342078644</v>
+            <v>100.38703045121815</v>
           </cell>
           <cell r="S3">
-            <v>93.93818121791675</v>
+            <v>93.008100215759157</v>
           </cell>
           <cell r="T3">
-            <v>93.402885050440617</v>
+            <v>90.600798498927389</v>
           </cell>
           <cell r="U3">
-            <v>92.775204276389431</v>
+            <v>99.205168929208511</v>
           </cell>
           <cell r="V3">
-            <v>96.739257962336225</v>
+            <v>93.975279163412324</v>
           </cell>
           <cell r="W3">
-            <v>95.948572984935637</v>
+            <v>100.74600163418242</v>
           </cell>
           <cell r="X3">
-            <v>80.492115032773299</v>
+            <v>93.907467538235508</v>
           </cell>
           <cell r="Y3">
-            <v>82.80504418314284</v>
+            <v>80.345488415326713</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>90.673838861083524</v>
+            <v>81.523267966845722</v>
           </cell>
           <cell r="C4">
-            <v>70.442171306853069</v>
+            <v>73.471942115749968</v>
           </cell>
           <cell r="D4">
-            <v>69.155371638820881</v>
+            <v>68.435003184249837</v>
           </cell>
           <cell r="E4">
-            <v>65.303984128223789</v>
+            <v>70.861770011476878</v>
           </cell>
           <cell r="F4">
-            <v>65.303984128223789</v>
+            <v>66.693430599037058</v>
           </cell>
           <cell r="G4">
-            <v>67.785795948213959</v>
+            <v>72.255189087656632</v>
           </cell>
           <cell r="H4">
-            <v>94.26695628322733</v>
+            <v>100.80030968899557</v>
           </cell>
           <cell r="I4">
-            <v>107.96214538005113</v>
+            <v>124.04161384090982</v>
           </cell>
           <cell r="J4">
-            <v>109.08253199200091</v>
+            <v>122.26833256246255</v>
           </cell>
           <cell r="K4">
-            <v>116.1885059508124</v>
+            <v>118.53574849527327</v>
           </cell>
           <cell r="L4">
-            <v>118.47945024446015</v>
+            <v>106.7488116063948</v>
           </cell>
           <cell r="M4">
             <v>132.5</v>
           </cell>
           <cell r="N4">
-            <v>118.75</v>
+            <v>133.75</v>
           </cell>
           <cell r="O4">
-            <v>133.75</v>
+            <v>113.75</v>
           </cell>
           <cell r="P4">
-            <v>128.22627818362832</v>
+            <v>123.47715676941986</v>
           </cell>
           <cell r="Q4">
-            <v>110.15231154251752</v>
+            <v>118.02033379555451</v>
           </cell>
           <cell r="R4">
-            <v>107.84791773614783</v>
+            <v>100.51844759873973</v>
           </cell>
           <cell r="S4">
-            <v>109.94205206112159</v>
+            <v>100.51844759873973</v>
           </cell>
           <cell r="T4">
             <v>104.70671624868721</v>
           </cell>
           <cell r="U4">
-            <v>106.80085057366097</v>
+            <v>114.13032071106907</v>
           </cell>
           <cell r="V4">
-            <v>109.94205206112159</v>
+            <v>94.236044623818501</v>
           </cell>
           <cell r="W4">
-            <v>96.330178948792238</v>
+            <v>100.51844759873973</v>
           </cell>
           <cell r="X4">
-            <v>94.886948844600084</v>
+            <v>108.00961198268308</v>
           </cell>
           <cell r="Y4">
-            <v>102.00450593617379</v>
+            <v>86.892727278962852</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
         <row r="2">
           <cell r="B2">
-            <v>70.421461684202782</v>
+            <v>64.606845581837405</v>
           </cell>
           <cell r="C2">
-            <v>62.560908448383252</v>
+            <v>61.423437385685375</v>
           </cell>
           <cell r="D2">
-            <v>57.006845238724985</v>
+            <v>59.158046945846685</v>
           </cell>
           <cell r="E2">
-            <v>47.387655400746162</v>
+            <v>47.908398866688422</v>
           </cell>
           <cell r="F2">
-            <v>52.443497731819363</v>
+            <v>50.787387277130335</v>
           </cell>
           <cell r="G2">
-            <v>53.59680673296296</v>
+            <v>54.60806723735849</v>
           </cell>
           <cell r="H2">
             <v>56.929154743302071</v>
           </cell>
           <cell r="I2">
-            <v>65.388396578829642</v>
+            <v>68.829891135610154</v>
           </cell>
           <cell r="J2">
-            <v>85.295670510612965</v>
+            <v>83.744840137692734</v>
           </cell>
           <cell r="K2">
-            <v>91.544958729465364</v>
+            <v>85.719370446681197</v>
           </cell>
           <cell r="L2">
-            <v>85.885995827337908</v>
+            <v>79.873976119424256</v>
           </cell>
           <cell r="M2">
-            <v>95.969794458059567</v>
+            <v>81.138098950904904</v>
           </cell>
           <cell r="N2">
-            <v>96.075010217324106</v>
+            <v>90.737509649694985</v>
           </cell>
           <cell r="O2">
-            <v>86.099466464725708</v>
+            <v>89.686944234089282</v>
           </cell>
           <cell r="P2">
-            <v>84.6</v>
+            <v>88.2</v>
           </cell>
           <cell r="Q2">
-            <v>78.812435213007817</v>
+            <v>94.401708112284098</v>
           </cell>
           <cell r="R2">
-            <v>81.451395051850668</v>
+            <v>82.317899254529934</v>
           </cell>
           <cell r="S2">
-            <v>82.439431491030234</v>
+            <v>91.599368323366932</v>
           </cell>
           <cell r="T2">
-            <v>85.38450080463808</v>
+            <v>82.036089008377772</v>
           </cell>
           <cell r="U2">
-            <v>75.958683660050639</v>
+            <v>88.618464270059093</v>
           </cell>
           <cell r="V2">
-            <v>79.519525670332357</v>
+            <v>83.70476386350775</v>
           </cell>
           <cell r="W2">
-            <v>94.508902315233939</v>
+            <v>88.439523267466612</v>
           </cell>
           <cell r="X2">
-            <v>86.406656813738763</v>
+            <v>76.24116777682832</v>
           </cell>
           <cell r="Y2">
-            <v>73.438917897807613</v>
+            <v>68.896304419592724</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>77.303152226424046</v>
+            <v>74.386052142408033</v>
           </cell>
           <cell r="C3">
             <v>65.595320224710775</v>
           </cell>
           <cell r="D3">
-            <v>67.704567758432646</v>
+            <v>61.845518625491351</v>
           </cell>
           <cell r="E3">
-            <v>69.479639375942696</v>
+            <v>67.531612103719993</v>
           </cell>
           <cell r="F3">
-            <v>70.134510776682276</v>
+            <v>69.485117158379666</v>
           </cell>
           <cell r="G3">
-            <v>65.008707659995878</v>
+            <v>65.652358230886918</v>
           </cell>
           <cell r="H3">
-            <v>72.267337787149287</v>
+            <v>72.962216035102657</v>
           </cell>
           <cell r="I3">
-            <v>79.199063479870105</v>
+            <v>88.273956170271887</v>
           </cell>
           <cell r="J3">
-            <v>90.264412366902562</v>
+            <v>94.025429548856835</v>
           </cell>
           <cell r="K3">
-            <v>88.192329297297931</v>
+            <v>94.00720815206482</v>
           </cell>
           <cell r="L3">
-            <v>95.933897200875805</v>
+            <v>89.218524396814502</v>
           </cell>
           <cell r="M3">
-            <v>103.57911296741369</v>
+            <v>88.782096829211724</v>
           </cell>
           <cell r="N3">
-            <v>108</v>
+            <v>92</v>
           </cell>
           <cell r="O3">
-            <v>89.316670482356386</v>
+            <v>100.11319109011374</v>
           </cell>
           <cell r="P3">
-            <v>97.144396735490801</v>
+            <v>89.599200872540052</v>
           </cell>
           <cell r="Q3">
-            <v>83.277419585074455</v>
+            <v>88.708555644970616</v>
           </cell>
           <cell r="R3">
-            <v>94.861138866747424</v>
+            <v>83.809355697805969</v>
           </cell>
           <cell r="S3">
-            <v>93.008100215759157</v>
+            <v>101.37882923517749</v>
           </cell>
           <cell r="T3">
-            <v>91.534827349431808</v>
+            <v>102.74317355548469</v>
           </cell>
           <cell r="U3">
-            <v>82.670974107673757</v>
+            <v>83.589540486647905</v>
           </cell>
           <cell r="V3">
-            <v>100.42456302756808</v>
+            <v>101.34588929387604</v>
           </cell>
           <cell r="W3">
-            <v>87.313201416291434</v>
+            <v>88.272687146140797</v>
           </cell>
           <cell r="X3">
-            <v>98.379251706722926</v>
+            <v>82.280828700168257</v>
           </cell>
           <cell r="Y3">
-            <v>84.444748028353587</v>
+            <v>88.54400764138046</v>
           </cell>
         </row>
         <row r="4">
@@ -2868,518 +2871,518 @@
             <v>79.859527804257041</v>
           </cell>
           <cell r="C4">
-            <v>71.957056711301519</v>
+            <v>68.169843200180395</v>
           </cell>
           <cell r="D4">
-            <v>68.435003184249837</v>
+            <v>79.240530002815603</v>
           </cell>
           <cell r="E4">
-            <v>75.030109423916699</v>
+            <v>70.861770011476878</v>
           </cell>
           <cell r="F4">
-            <v>63.91453765741052</v>
+            <v>67.388153834443699</v>
           </cell>
           <cell r="G4">
-            <v>70.765391374509065</v>
+            <v>70.020492517935281</v>
           </cell>
           <cell r="H4">
-            <v>85.866930475811046</v>
+            <v>84.000258074162971</v>
           </cell>
           <cell r="I4">
-            <v>111.40774576452085</v>
+            <v>119.4474799949502</v>
           </cell>
           <cell r="J4">
-            <v>116.27478684861634</v>
+            <v>131.85800570461649</v>
           </cell>
           <cell r="K4">
-            <v>107.97315704519941</v>
+            <v>129.09833994534713</v>
           </cell>
           <cell r="L4">
-            <v>121.99864183587977</v>
+            <v>126.69089729110591</v>
           </cell>
           <cell r="M4">
-            <v>133.75</v>
+            <v>115</v>
           </cell>
           <cell r="N4">
-            <v>131.25</v>
+            <v>121.25</v>
           </cell>
           <cell r="O4">
-            <v>120</v>
+            <v>123.75</v>
           </cell>
           <cell r="P4">
-            <v>121.10259606231564</v>
+            <v>116.35347464810717</v>
           </cell>
           <cell r="Q4">
-            <v>119.14433697455979</v>
+            <v>102.28428928948057</v>
           </cell>
           <cell r="R4">
-            <v>105.75378341117408</v>
+            <v>114.13032071106907</v>
           </cell>
           <cell r="S4">
-            <v>113.08325354858221</v>
+            <v>106.80085057366097</v>
           </cell>
           <cell r="T4">
+            <v>108.8949848986347</v>
+          </cell>
+          <cell r="U4">
+            <v>103.65964908620035</v>
+          </cell>
+          <cell r="V4">
             <v>100.51844759873973</v>
           </cell>
-          <cell r="U4">
-            <v>101.56551476122659</v>
-          </cell>
-          <cell r="V4">
-            <v>115.17738787355594</v>
-          </cell>
           <cell r="W4">
-            <v>112.03618638609532</v>
+            <v>107.84791773614783</v>
           </cell>
           <cell r="X4">
-            <v>108.00961198268308</v>
+            <v>99.934126974632008</v>
           </cell>
           <cell r="Y4">
-            <v>98.226561271871049</v>
+            <v>95.393102773643989</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="12">
         <row r="2">
           <cell r="B2">
-            <v>58.792229479472041</v>
+            <v>65.252914037655785</v>
           </cell>
           <cell r="C2">
-            <v>51.754933352753412</v>
+            <v>52.323668884102354</v>
           </cell>
           <cell r="D2">
-            <v>57.544645665505406</v>
+            <v>48.402038410238191</v>
           </cell>
           <cell r="E2">
-            <v>54.678063923937877</v>
+            <v>53.115833526111082</v>
           </cell>
           <cell r="F2">
             <v>51.891460913589682</v>
           </cell>
           <cell r="G2">
-            <v>46.012352949996504</v>
+            <v>47.023613454392034</v>
           </cell>
           <cell r="H2">
-            <v>55.150118657573884</v>
+            <v>59.89421488618239</v>
           </cell>
           <cell r="I2">
-            <v>64.700097667473543</v>
+            <v>70.206488958322353</v>
           </cell>
           <cell r="J2">
-            <v>82.969424951232611</v>
+            <v>82.194009764772488</v>
           </cell>
           <cell r="K2">
-            <v>81.55823595897823</v>
+            <v>84.05491665160001</v>
           </cell>
           <cell r="L2">
-            <v>78.156256202877501</v>
+            <v>84.168275910791152</v>
           </cell>
           <cell r="M2">
-            <v>88.117720366036508</v>
+            <v>86.372815012253596</v>
           </cell>
           <cell r="N2">
-            <v>88.068759365880425</v>
+            <v>82.731258798251318</v>
           </cell>
           <cell r="O2">
-            <v>93.274422003452855</v>
+            <v>88.790074791748381</v>
           </cell>
           <cell r="P2">
-            <v>99.000000000000014</v>
+            <v>98.100000000000009</v>
           </cell>
           <cell r="Q2">
-            <v>78.812435213007817</v>
+            <v>84.008859512766563</v>
           </cell>
           <cell r="R2">
-            <v>78.851882443812897</v>
+            <v>79.718386646492149</v>
           </cell>
           <cell r="S2">
             <v>75.777659249330824</v>
           </cell>
           <cell r="T2">
-            <v>84.54739785557301</v>
+            <v>76.176368364922212</v>
           </cell>
           <cell r="U2">
-            <v>86.930493522057958</v>
+            <v>80.178610530053447</v>
           </cell>
           <cell r="V2">
-            <v>79.519525670332357</v>
+            <v>84.541811502142835</v>
           </cell>
           <cell r="W2">
-            <v>80.636035920337207</v>
+            <v>95.375956464914978</v>
           </cell>
           <cell r="X2">
-            <v>87.253780900147973</v>
+            <v>82.171036381692744</v>
           </cell>
           <cell r="Y2">
-            <v>76.46732688328423</v>
+            <v>70.410508912331025</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>74.386052142408033</v>
+            <v>79.490977289436046</v>
           </cell>
           <cell r="C3">
-            <v>63.607583248204378</v>
+            <v>64.932741232541971</v>
           </cell>
           <cell r="D3">
-            <v>69.657584136079734</v>
+            <v>63.798535003138447</v>
           </cell>
           <cell r="E3">
-            <v>70.128981800016916</v>
+            <v>58.440818166680764</v>
           </cell>
           <cell r="F3">
             <v>62.991180975353522</v>
           </cell>
           <cell r="G3">
-            <v>69.514261656233217</v>
+            <v>58.57220195108539</v>
           </cell>
           <cell r="H3">
-            <v>75.74172902691609</v>
+            <v>71.572459539195933</v>
           </cell>
           <cell r="I3">
-            <v>89.923936659435853</v>
+            <v>79.199063479870105</v>
           </cell>
           <cell r="J3">
-            <v>96.846192435322536</v>
+            <v>101.54746391276539</v>
           </cell>
           <cell r="K3">
-            <v>101.76037995842069</v>
+            <v>88.192329297297931</v>
           </cell>
           <cell r="L3">
-            <v>89.218524396814502</v>
+            <v>92.09654131284077</v>
           </cell>
           <cell r="M3">
-            <v>99.633241997226492</v>
+            <v>98.646774254679698</v>
           </cell>
           <cell r="N3">
-            <v>94</v>
+            <v>90</v>
           </cell>
           <cell r="O3">
-            <v>95.205681722951311</v>
+            <v>92.261176102653849</v>
           </cell>
           <cell r="P3">
-            <v>95.258097769753121</v>
+            <v>89.599200872540052</v>
           </cell>
           <cell r="Q3">
-            <v>93.234502361550753</v>
+            <v>98.665638421446914</v>
           </cell>
           <cell r="R3">
-            <v>93.019175005257182</v>
+            <v>93.940156936002296</v>
           </cell>
           <cell r="S3">
-            <v>91.147938211443972</v>
+            <v>86.497533200656022</v>
           </cell>
           <cell r="T3">
-            <v>91.534827349431808</v>
+            <v>95.270942751449425</v>
           </cell>
           <cell r="U3">
-            <v>85.426673244596216</v>
+            <v>83.589540486647905</v>
           </cell>
           <cell r="V3">
-            <v>95.817931696028253</v>
+            <v>97.660584228644183</v>
           </cell>
           <cell r="W3">
-            <v>89.232172875990145</v>
+            <v>105.5434302834292</v>
           </cell>
           <cell r="X3">
-            <v>82.280828700168257</v>
+            <v>84.069542367563216</v>
           </cell>
           <cell r="Y3">
-            <v>77.066080724905206</v>
+            <v>85.264599950958967</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>84.850748292023113</v>
+            <v>82.355138048140077</v>
           </cell>
           <cell r="C4">
-            <v>77.259155626871106</v>
+            <v>74.229384817974207</v>
           </cell>
           <cell r="D4">
-            <v>77.7997930936735</v>
+            <v>68.435003184249837</v>
           </cell>
           <cell r="E4">
-            <v>73.64066295310343</v>
+            <v>67.388153834443699</v>
           </cell>
           <cell r="F4">
-            <v>62.525091186597251</v>
+            <v>63.91453765741052</v>
           </cell>
           <cell r="G4">
-            <v>70.765391374509065</v>
+            <v>70.020492517935281</v>
           </cell>
           <cell r="H4">
-            <v>88.666939078283136</v>
+            <v>96.133628684875404</v>
           </cell>
           <cell r="I4">
-            <v>104.51654499558143</v>
+            <v>105.66507845707133</v>
           </cell>
           <cell r="J4">
-            <v>118.67220513415482</v>
+            <v>124.66575084800104</v>
           </cell>
           <cell r="K4">
-            <v>107.97315704519941</v>
+            <v>124.40385485642541</v>
           </cell>
           <cell r="L4">
-            <v>107.92187547020133</v>
+            <v>109.09493933400788</v>
           </cell>
           <cell r="M4">
-            <v>123.75</v>
+            <v>132.5</v>
           </cell>
           <cell r="N4">
-            <v>137.5</v>
+            <v>120</v>
           </cell>
           <cell r="O4">
-            <v>137.5</v>
+            <v>135</v>
           </cell>
           <cell r="P4">
-            <v>121.10259606231564</v>
+            <v>130.60083889073255</v>
           </cell>
           <cell r="Q4">
-            <v>107.90430518450697</v>
+            <v>101.16028611047528</v>
           </cell>
           <cell r="R4">
-            <v>107.84791773614783</v>
+            <v>98.424313273765975</v>
           </cell>
           <cell r="S4">
+            <v>105.75378341117408</v>
+          </cell>
+          <cell r="T4">
             <v>110.98911922360845</v>
           </cell>
-          <cell r="T4">
-            <v>115.17738787355594</v>
-          </cell>
           <cell r="U4">
-            <v>115.17738787355594</v>
+            <v>105.75378341117408</v>
           </cell>
           <cell r="V4">
-            <v>98.424313273765975</v>
+            <v>99.471380436252844</v>
           </cell>
           <cell r="W4">
-            <v>99.471380436252844</v>
+            <v>95.283111786305369</v>
           </cell>
           <cell r="X4">
-            <v>100.94356260063839</v>
+            <v>103.97186947865754</v>
           </cell>
           <cell r="Y4">
-            <v>102.94899210224946</v>
+            <v>98.226561271871049</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="13">
         <row r="2">
           <cell r="B2">
-            <v>12.695712942389127</v>
+            <v>14.106347713765699</v>
           </cell>
           <cell r="C2">
-            <v>9.236094618732734</v>
+            <v>10.415170527507128</v>
           </cell>
           <cell r="D2">
-            <v>8.9388082820377797</v>
+            <v>9.3112586271226867</v>
           </cell>
           <cell r="E2">
-            <v>8.2948546189919714</v>
+            <v>8.3761767230997357</v>
           </cell>
           <cell r="F2">
-            <v>8.4256053063681797</v>
+            <v>9.3617836737424209</v>
           </cell>
           <cell r="G2">
-            <v>4.6925448149284597</v>
+            <v>4.0842519685488439</v>
           </cell>
           <cell r="H2">
-            <v>7.5809210989341649</v>
+            <v>7.3534934659661397</v>
           </cell>
           <cell r="I2">
-            <v>13.110872036015174</v>
+            <v>14.567635595572415</v>
           </cell>
           <cell r="J2">
-            <v>23.098694426383936</v>
+            <v>20.131889637674071</v>
           </cell>
           <cell r="K2">
-            <v>26.188605949002458</v>
+            <v>27.4476735427045</v>
           </cell>
           <cell r="L2">
-            <v>27.76518799587263</v>
+            <v>28.040090847316911</v>
           </cell>
           <cell r="M2">
-            <v>27.06922891897748</v>
+            <v>31.34331769565814</v>
           </cell>
           <cell r="N2">
-            <v>31.858957273478502</v>
+            <v>27.095001045668631</v>
           </cell>
           <cell r="O2">
-            <v>29.4</v>
+            <v>32.1</v>
           </cell>
           <cell r="P2">
-            <v>28.297707575904976</v>
+            <v>30.978543030464397</v>
           </cell>
           <cell r="Q2">
-            <v>27.067762468649544</v>
+            <v>27.355717388528792</v>
           </cell>
           <cell r="R2">
-            <v>28.773679580925911</v>
+            <v>27.403504362786581</v>
           </cell>
           <cell r="S2">
-            <v>24.317524564645893</v>
+            <v>21.885772108181303</v>
           </cell>
           <cell r="T2">
-            <v>24.447069097882029</v>
+            <v>22.026567207002621</v>
           </cell>
           <cell r="U2">
-            <v>21.644702762152292</v>
+            <v>23.256542329546615</v>
           </cell>
           <cell r="V2">
-            <v>20.340727461948816</v>
+            <v>21.170961235905914</v>
           </cell>
           <cell r="W2">
-            <v>25.131025992496539</v>
+            <v>25.628670071555877</v>
           </cell>
           <cell r="X2">
-            <v>21.626499616329696</v>
+            <v>21.849453220621754</v>
           </cell>
           <cell r="Y2">
-            <v>16.865863945424714</v>
+            <v>17.045288029950505</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-23.919804466460054</v>
+            <v>-25.62836192835006</v>
           </cell>
           <cell r="C3">
-            <v>-33.954684421399534</v>
+            <v>-34.906684919195783</v>
           </cell>
           <cell r="D3">
-            <v>-33.57722466211068</v>
+            <v>-32.877699148316708</v>
           </cell>
           <cell r="E3">
             <v>-31.917683997931213</v>
           </cell>
           <cell r="F3">
-            <v>-31.816660608509856</v>
+            <v>-36.606265431296286</v>
           </cell>
           <cell r="G3">
-            <v>-34.299999999999997</v>
+            <v>-35.700000000000003</v>
           </cell>
           <cell r="H3">
-            <v>-28.817451981430526</v>
+            <v>-27.300743982407869</v>
           </cell>
           <cell r="I3">
-            <v>-4.5777343692523207</v>
+            <v>-5.0496657475257569</v>
           </cell>
           <cell r="J3">
-            <v>13.633784980259477</v>
+            <v>14.08824447960146</v>
           </cell>
           <cell r="K3">
-            <v>20.509745529691543</v>
+            <v>23.817769002222434</v>
           </cell>
           <cell r="L3">
-            <v>16.642574040864059</v>
+            <v>18.202815357195067</v>
           </cell>
           <cell r="M3">
-            <v>20.782842726518385</v>
+            <v>24.939411271822067</v>
           </cell>
           <cell r="N3">
-            <v>21.721882394273109</v>
+            <v>22.3366526507148</v>
           </cell>
           <cell r="O3">
-            <v>22.798088720687748</v>
+            <v>19.631687509481115</v>
           </cell>
           <cell r="P3">
-            <v>9.9113973844948262</v>
+            <v>11.327311296565515</v>
           </cell>
           <cell r="Q3">
-            <v>2.808610616749061</v>
+            <v>2.9187522095627498</v>
           </cell>
           <cell r="R3">
-            <v>6.2480395020522259</v>
+            <v>5.5129760312225526</v>
           </cell>
           <cell r="S3">
-            <v>6.9939757541716467</v>
+            <v>7.8868237227893054</v>
           </cell>
           <cell r="T3">
-            <v>4.303258215747408</v>
+            <v>4.4825606414035502</v>
           </cell>
           <cell r="U3">
-            <v>-0.84456791096214168</v>
+            <v>-0.90310232063278517</v>
           </cell>
           <cell r="V3">
             <v>-3.0685485255490925</v>
           </cell>
           <cell r="W3">
-            <v>-2.0894459722325776</v>
+            <v>-2.2257141878129629</v>
           </cell>
           <cell r="X3">
-            <v>-10.456116659609817</v>
+            <v>-10.89178818709356</v>
           </cell>
           <cell r="Y3">
-            <v>-15.480068236484041</v>
+            <v>-14.005776023485559</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-35.933614398313658</v>
+            <v>-35.555365825699823</v>
           </cell>
           <cell r="C4">
-            <v>-40.850845842293424</v>
+            <v>-34.420620107858348</v>
           </cell>
           <cell r="D4">
-            <v>-42.155931485463739</v>
+            <v>-44.351552916998308</v>
           </cell>
           <cell r="E4">
-            <v>-52</v>
+            <v>-54.500000000000007</v>
           </cell>
           <cell r="F4">
-            <v>-52</v>
+            <v>-45.5</v>
           </cell>
           <cell r="G4">
-            <v>-49</v>
+            <v>-50.5</v>
           </cell>
           <cell r="H4">
-            <v>-19.338673265963784</v>
+            <v>-21.7310864535057</v>
           </cell>
           <cell r="I4">
-            <v>3.8019403844828168</v>
+            <v>4.421821968909363</v>
           </cell>
           <cell r="J4">
-            <v>13.385902192807253</v>
+            <v>12.467261846242048</v>
           </cell>
           <cell r="K4">
-            <v>14.435776874596057</v>
+            <v>12.598496181465649</v>
           </cell>
           <cell r="L4">
-            <v>12.839522206625626</v>
+            <v>11.039589187005211</v>
           </cell>
           <cell r="M4">
             <v>16.700890512964939</v>
           </cell>
           <cell r="N4">
-            <v>25.149849282307621</v>
+            <v>24.006674314930002</v>
           </cell>
           <cell r="O4">
-            <v>24.0372557602211</v>
+            <v>25.215552611212335</v>
           </cell>
           <cell r="P4">
-            <v>14.01010673205046</v>
+            <v>13.745765095596676</v>
           </cell>
           <cell r="Q4">
-            <v>9.4886624320361186</v>
+            <v>10.107488242821082</v>
           </cell>
           <cell r="R4">
-            <v>-1.7745062860625838</v>
+            <v>-1.5066562806191748</v>
           </cell>
           <cell r="S4">
-            <v>-1.7745062860625838</v>
+            <v>-1.6908031593615185</v>
           </cell>
           <cell r="T4">
-            <v>-1.6405812833408793</v>
+            <v>-1.7075437847017314</v>
           </cell>
           <cell r="U4">
-            <v>-1.8079875367430098</v>
+            <v>-1.6573219086810922</v>
           </cell>
           <cell r="V4">
-            <v>-11.198210315913499</v>
+            <v>-11.411509560026138</v>
           </cell>
           <cell r="W4">
-            <v>-14.071786625720499</v>
+            <v>-15.02812163911898</v>
           </cell>
           <cell r="X4">
-            <v>-35.143494425683116</v>
+            <v>-40.109422985833994</v>
           </cell>
           <cell r="Y4">
             <v>-41.63740100434196</v>
@@ -3389,448 +3392,448 @@
       <sheetData sheetId="14">
         <row r="2">
           <cell r="B2">
-            <v>12.695712942389127</v>
+            <v>11.541557220353752</v>
           </cell>
           <cell r="C2">
-            <v>10.808195830431925</v>
+            <v>10.611683178969527</v>
           </cell>
           <cell r="D2">
-            <v>9.7768215584788223</v>
+            <v>9.590596385936367</v>
           </cell>
           <cell r="E2">
-            <v>7.888244098453149</v>
+            <v>8.5388209313152661</v>
           </cell>
           <cell r="F2">
-            <v>9.7362550206921181</v>
+            <v>8.4256053063681797</v>
           </cell>
           <cell r="G2">
-            <v>4.4318478807657673</v>
+            <v>4.5187468588199975</v>
           </cell>
           <cell r="H2">
-            <v>6.8228289890407483</v>
+            <v>7.5809210989341649</v>
           </cell>
           <cell r="I2">
-            <v>14.421959239616692</v>
+            <v>13.256548391970899</v>
           </cell>
           <cell r="J2">
-            <v>20.767633520969042</v>
+            <v>19.072316498849123</v>
           </cell>
           <cell r="K2">
-            <v>24.929538355300416</v>
+            <v>26.944046505223685</v>
           </cell>
           <cell r="L2">
             <v>24.741256629985511</v>
           </cell>
           <cell r="M2">
-            <v>26.78428966719877</v>
+            <v>29.918621436764589</v>
           </cell>
           <cell r="N2">
-            <v>32.156704537716621</v>
+            <v>30.667968216526035</v>
           </cell>
           <cell r="O2">
-            <v>30.3</v>
+            <v>32.400000000000006</v>
           </cell>
           <cell r="P2">
             <v>30.680672424402239</v>
           </cell>
           <cell r="Q2">
-            <v>29.6593567475628</v>
+            <v>28.219582148166545</v>
           </cell>
           <cell r="R2">
-            <v>26.85543427553085</v>
+            <v>26.033329144647251</v>
           </cell>
           <cell r="S2">
-            <v>26.262926529817566</v>
+            <v>23.344823582060055</v>
           </cell>
           <cell r="T2">
-            <v>22.510667585178503</v>
+            <v>25.899370232409677</v>
           </cell>
           <cell r="U2">
-            <v>23.256542329546615</v>
+            <v>24.868381896940935</v>
           </cell>
           <cell r="V2">
-            <v>22.623870340330829</v>
+            <v>19.095376801013177</v>
           </cell>
           <cell r="W2">
-            <v>25.877492111085548</v>
+            <v>25.37984803202621</v>
           </cell>
           <cell r="X2">
-            <v>21.626499616329696</v>
+            <v>20.511731594869403</v>
           </cell>
           <cell r="Y2">
-            <v>18.480680706156868</v>
+            <v>16.686439860898918</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-23.187565554221479</v>
+            <v>-23.919804466460054</v>
           </cell>
           <cell r="C3">
-            <v>-33.002683923603286</v>
+            <v>-30.781349428745372</v>
           </cell>
           <cell r="D3">
-            <v>-33.57722466211068</v>
+            <v>-38.124140501771507</v>
           </cell>
           <cell r="E3">
-            <v>-31.5985071579519</v>
+            <v>-34.790275557745026</v>
           </cell>
           <cell r="F3">
-            <v>-33.869348389704044</v>
+            <v>-37.632609321893383</v>
           </cell>
           <cell r="G3">
-            <v>-34.65</v>
+            <v>-32.550000000000004</v>
           </cell>
           <cell r="H3">
-            <v>-32.760892778889442</v>
+            <v>-33.367575978498508</v>
           </cell>
           <cell r="I3">
-            <v>-4.3889618179429473</v>
+            <v>-4.766506920561695</v>
           </cell>
           <cell r="J3">
-            <v>14.694190478724103</v>
+            <v>14.997163478285424</v>
           </cell>
           <cell r="K3">
-            <v>23.597234104053708</v>
+            <v>24.03830390039116</v>
           </cell>
           <cell r="L3">
-            <v>15.775773309569058</v>
+            <v>15.949133455828058</v>
           </cell>
           <cell r="M3">
-            <v>21.93744510021385</v>
+            <v>23.784808898126599</v>
           </cell>
           <cell r="N3">
-            <v>20.082495043761927</v>
+            <v>22.3366526507148</v>
           </cell>
           <cell r="O3">
-            <v>22.586995306607303</v>
+            <v>21.953715064365976</v>
           </cell>
           <cell r="P3">
-            <v>10.564896113142836</v>
+            <v>10.020313839269495</v>
           </cell>
           <cell r="Q3">
-            <v>2.7810752185456389</v>
+            <v>2.7535398203422168</v>
           </cell>
           <cell r="R3">
             <v>6.3092947912880328</v>
           </cell>
           <cell r="S3">
-            <v>6.7707637620172338</v>
+            <v>7.2171877463260614</v>
           </cell>
           <cell r="T3">
-            <v>4.0791301836772309</v>
+            <v>4.751514279887763</v>
           </cell>
           <cell r="U3">
-            <v>-0.8194817353890087</v>
+            <v>-0.88637820358402986</v>
           </cell>
           <cell r="V3">
-            <v>-3.2970574583027488</v>
+            <v>-3.3949898580543154</v>
           </cell>
           <cell r="W3">
-            <v>-2.4755392497103363</v>
+            <v>-2.2938482956031558</v>
           </cell>
           <cell r="X3">
-            <v>-10.456116659609817</v>
+            <v>-11.872049123931982</v>
           </cell>
           <cell r="Y3">
-            <v>-13.416059138286169</v>
+            <v>-15.922355900383584</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-37.446608688768968</v>
+            <v>-41.607342987521079</v>
           </cell>
           <cell r="C4">
-            <v>-40.472597269679596</v>
+            <v>-41.229094414907252</v>
           </cell>
           <cell r="D4">
-            <v>-47.864547207453626</v>
+            <v>-47.425422921146712</v>
           </cell>
           <cell r="E4">
-            <v>-50</v>
+            <v>-48</v>
           </cell>
           <cell r="F4">
-            <v>-49.5</v>
+            <v>-52</v>
           </cell>
           <cell r="G4">
-            <v>-47</v>
+            <v>-54.500000000000007</v>
           </cell>
           <cell r="H4">
-            <v>-20.734247625363235</v>
+            <v>-21.531718687877206</v>
           </cell>
           <cell r="I4">
-            <v>4.2151947741005138</v>
+            <v>4.4631474078711326</v>
           </cell>
           <cell r="J4">
-            <v>13.517136528030852</v>
+            <v>12.336027511018447</v>
           </cell>
           <cell r="K4">
-            <v>12.860964851912849</v>
+            <v>12.99219918713645</v>
           </cell>
           <cell r="L4">
-            <v>12.479535602701542</v>
+            <v>12.599531137342902</v>
           </cell>
           <cell r="M4">
-            <v>17.544369831801554</v>
+            <v>17.206978104266906</v>
           </cell>
           <cell r="N4">
-            <v>22.17759436712581</v>
+            <v>21.263054393223715</v>
           </cell>
           <cell r="O4">
-            <v>21.445002688040397</v>
+            <v>24.272915130419349</v>
           </cell>
           <cell r="P4">
-            <v>11.895373640420202</v>
+            <v>12.027544458647093</v>
           </cell>
           <cell r="Q4">
-            <v>9.3855247969052904</v>
+            <v>9.282387161774464</v>
           </cell>
           <cell r="R4">
-            <v>-1.5401375312996011</v>
+            <v>-1.7912469114027969</v>
           </cell>
           <cell r="S4">
+            <v>-1.8414687874234361</v>
+          </cell>
+          <cell r="T4">
             <v>-1.5066562806191748</v>
           </cell>
-          <cell r="T4">
-            <v>-1.6573219086810922</v>
-          </cell>
           <cell r="U4">
-            <v>-1.7242844100419445</v>
+            <v>-1.607100032660453</v>
           </cell>
           <cell r="V4">
-            <v>-9.7051156071250322</v>
+            <v>-10.025064473293989</v>
           </cell>
           <cell r="W4">
-            <v>-13.388690187578726</v>
+            <v>-13.115451612322017</v>
           </cell>
           <cell r="X4">
-            <v>-40.491417490460982</v>
+            <v>-38.963439471953023</v>
           </cell>
           <cell r="Y4">
-            <v>-34.761499921056128</v>
+            <v>-38.581444967326028</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="15">
         <row r="2">
           <cell r="B2">
-            <v>13.208671041071517</v>
+            <v>12.56747341771853</v>
           </cell>
           <cell r="C2">
-            <v>10.120401550313529</v>
+            <v>10.611683178969527</v>
           </cell>
           <cell r="D2">
-            <v>8.9388082820377797</v>
+            <v>9.1250334545802332</v>
           </cell>
           <cell r="E2">
-            <v>8.1322104107764428</v>
+            <v>7.4816335779143275</v>
           </cell>
           <cell r="F2">
-            <v>8.6128409798430283</v>
+            <v>8.7064588165804526</v>
           </cell>
           <cell r="G2">
             <v>4.4318478807657673</v>
           </cell>
           <cell r="H2">
-            <v>7.5051118879448229</v>
+            <v>8.0357763648702143</v>
           </cell>
           <cell r="I2">
-            <v>15.150341019395313</v>
+            <v>14.567635595572415</v>
           </cell>
           <cell r="J2">
-            <v>20.555718893204052</v>
+            <v>22.251035915323975</v>
           </cell>
           <cell r="K2">
-            <v>24.929538355300416</v>
+            <v>25.181351874040825</v>
           </cell>
           <cell r="L2">
-            <v>25.016159481429796</v>
+            <v>28.314993698761196</v>
           </cell>
           <cell r="M2">
-            <v>27.924046674313612</v>
+            <v>26.499350415420064</v>
           </cell>
           <cell r="N2">
-            <v>29.179231895335448</v>
+            <v>30.667968216526035</v>
           </cell>
           <cell r="O2">
-            <v>28.799999999999997</v>
+            <v>27.6</v>
           </cell>
           <cell r="P2">
-            <v>29.787060606215764</v>
+            <v>30.084931212277922</v>
           </cell>
           <cell r="Q2">
-            <v>29.083446907804298</v>
+            <v>29.371401827683549</v>
           </cell>
           <cell r="R2">
-            <v>30.143854799065242</v>
+            <v>27.677539406414446</v>
           </cell>
           <cell r="S2">
             <v>23.344823582060055</v>
           </cell>
           <cell r="T2">
-            <v>23.478868341530266</v>
+            <v>21.784517017914681</v>
           </cell>
           <cell r="U2">
-            <v>22.335491148178431</v>
+            <v>24.868381896940935</v>
           </cell>
           <cell r="V2">
-            <v>22.208753453352283</v>
+            <v>21.793636566373735</v>
           </cell>
           <cell r="W2">
-            <v>25.131025992496539</v>
+            <v>23.389271715788858</v>
           </cell>
           <cell r="X2">
-            <v>23.633082054958226</v>
+            <v>20.734685199161461</v>
           </cell>
           <cell r="Y2">
-            <v>17.942408452579482</v>
+            <v>17.583560283527891</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-25.872441565762916</v>
+            <v>-23.919804466460054</v>
           </cell>
           <cell r="C3">
             <v>-28.877348433152875</v>
           </cell>
           <cell r="D3">
-            <v>-32.527936391419722</v>
+            <v>-35.326038446595611</v>
           </cell>
           <cell r="E3">
-            <v>-29.364269278096717</v>
+            <v>-34.1519218777864</v>
           </cell>
           <cell r="F3">
-            <v>-35.922036170898224</v>
+            <v>-35.579921540699196</v>
           </cell>
           <cell r="G3">
-            <v>-31.5</v>
+            <v>-37.800000000000004</v>
           </cell>
           <cell r="H3">
-            <v>-29.727476780844121</v>
+            <v>-28.817451981430526</v>
           </cell>
           <cell r="I3">
-            <v>-4.8137000583890384</v>
+            <v>-4.483348093597634</v>
           </cell>
           <cell r="J3">
-            <v>16.209055476530711</v>
+            <v>15.75459597718873</v>
           </cell>
           <cell r="K3">
-            <v>24.03830390039116</v>
+            <v>20.950815326028991</v>
           </cell>
           <cell r="L3">
-            <v>18.029455210936067</v>
+            <v>18.896255942231068</v>
           </cell>
           <cell r="M3">
-            <v>25.170331746561157</v>
+            <v>24.246649847604786</v>
           </cell>
           <cell r="N3">
-            <v>19.057877949692443</v>
+            <v>19.467724787320236</v>
           </cell>
           <cell r="O3">
-            <v>21.531528236205094</v>
+            <v>20.476061165802882</v>
           </cell>
           <cell r="P3">
-            <v>11.545144206114852</v>
+            <v>11.218394841790847</v>
           </cell>
           <cell r="Q3">
-            <v>3.0013584041730166</v>
+            <v>2.67093362573195</v>
           </cell>
           <cell r="R3">
-            <v>6.1255289235806138</v>
+            <v>6.3092947912880328</v>
           </cell>
           <cell r="S3">
-            <v>7.6636117306348908</v>
+            <v>6.6963597646324287</v>
           </cell>
           <cell r="T3">
-            <v>4.3480838221614437</v>
+            <v>4.7066886734737281</v>
           </cell>
           <cell r="U3">
-            <v>-0.81111967686463105</v>
+            <v>-0.84456791096214168</v>
           </cell>
           <cell r="V3">
-            <v>-3.5255663910564046</v>
+            <v>-3.2644133250522263</v>
           </cell>
           <cell r="W3">
-            <v>-2.3165596648665532</v>
+            <v>-2.4982506189737341</v>
           </cell>
           <cell r="X3">
-            <v>-9.8026093683842053</v>
+            <v>-10.238280895867947</v>
           </cell>
           <cell r="Y3">
-            <v>-14.448063687385103</v>
+            <v>-14.005776023485559</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-37.824857261382796</v>
+            <v>-40.094348697065769</v>
           </cell>
           <cell r="C4">
-            <v>-41.229094414907252</v>
+            <v>-37.446608688768968</v>
           </cell>
           <cell r="D4">
-            <v>-41.277682912849912</v>
+            <v>-46.547174348532877</v>
           </cell>
           <cell r="E4">
-            <v>-53</v>
+            <v>-54</v>
           </cell>
           <cell r="F4">
-            <v>-46.5</v>
+            <v>-51.5</v>
           </cell>
           <cell r="G4">
-            <v>-48.5</v>
+            <v>-54.500000000000007</v>
           </cell>
           <cell r="H4">
-            <v>-20.534879859734744</v>
+            <v>-20.335512094106249</v>
           </cell>
           <cell r="I4">
-            <v>4.4631474078711326</v>
+            <v>3.719289506559277</v>
           </cell>
           <cell r="J4">
-            <v>14.173308204148857</v>
+            <v>14.435776874596057</v>
           </cell>
           <cell r="K4">
-            <v>13.648370863254453</v>
+            <v>13.123433522360051</v>
           </cell>
           <cell r="L4">
-            <v>11.279580256287931</v>
+            <v>11.519571325570652</v>
           </cell>
           <cell r="M4">
-            <v>15.857411194128325</v>
+            <v>17.375673968034231</v>
           </cell>
           <cell r="N4">
-            <v>23.549404327978952</v>
+            <v>21.948959373650286</v>
           </cell>
           <cell r="O4">
-            <v>21.680662058238642</v>
+            <v>25.686871351608826</v>
           </cell>
           <cell r="P4">
-            <v>12.291886095100875</v>
+            <v>12.424056913327764</v>
           </cell>
           <cell r="Q4">
-            <v>9.6949377022977714</v>
+            <v>10.416901148213565</v>
           </cell>
           <cell r="R4">
-            <v>-1.824728162083223</v>
+            <v>-1.6238406580006661</v>
           </cell>
           <cell r="S4">
-            <v>-1.7075437847017314</v>
+            <v>-1.7745062860625838</v>
           </cell>
           <cell r="T4">
-            <v>-1.6740625340213053</v>
+            <v>-1.5736187819800269</v>
           </cell>
           <cell r="U4">
-            <v>-1.556878156639814</v>
+            <v>-1.8079875367430098</v>
           </cell>
           <cell r="V4">
-            <v>-10.025064473293989</v>
+            <v>-10.771611827688222</v>
           </cell>
           <cell r="W4">
-            <v>-14.208405913348853</v>
+            <v>-14.891502351490626</v>
           </cell>
           <cell r="X4">
-            <v>-36.671472444191075</v>
+            <v>-38.199450462699041</v>
           </cell>
           <cell r="Y4">
-            <v>-34.761499921056128</v>
+            <v>-37.435461453445058</v>
           </cell>
         </row>
       </sheetData>
@@ -4333,7 +4336,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4383,7 +4386,7 @@
       </c>
       <c r="B5" s="7">
         <f>((1+[1]Main!$B$2)^($B$3-2020))*$B$4</f>
-        <v>0.86038419191469639</v>
+        <v>1.0777832720706286</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -4509,100 +4512,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Qc, Winter, S2'!B2*Main!$B$5)</f>
-        <v>10.788170461515204</v>
+        <f ca="1">('[1]Qc, Winter, S2'!B2*Main!$B$5)</f>
+        <v>11.158423181029304</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Qc, Winter, S2'!C2*Main!$B$5)</f>
-        <v>8.3216983419213122</v>
+        <f ca="1">('[1]Qc, Winter, S2'!C2*Main!$B$5)</f>
+        <v>9.5636679098625379</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Qc, Winter, S2'!D2*Main!$B$5)</f>
-        <v>6.7316638894100498</v>
+        <f ca="1">('[1]Qc, Winter, S2'!D2*Main!$B$5)</f>
+        <v>7.6138999177378199</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Qc, Winter, S2'!E2*Main!$B$5)</f>
-        <v>6.2036495805263705</v>
+        <f ca="1">('[1]Qc, Winter, S2'!E2*Main!$B$5)</f>
+        <v>7.9313978454636391</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Qc, Winter, S2'!F2*Main!$B$5)</f>
-        <v>6.6873801713569758</v>
+        <f ca="1">('[1]Qc, Winter, S2'!F2*Main!$B$5)</f>
+        <v>9.5608499262619802</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Qc, Winter, S2'!G2*Main!$B$5)</f>
-        <v>9.1155836962969516</v>
+        <f ca="1">('[1]Qc, Winter, S2'!G2*Main!$B$5)</f>
+        <v>11.531937961536173</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Qc, Winter, S2'!H2*Main!$B$5)</f>
-        <v>14.98307526198283</v>
+        <f ca="1">('[1]Qc, Winter, S2'!H2*Main!$B$5)</f>
+        <v>15.786967292362112</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Qc, Winter, S2'!I2*Main!$B$5)</f>
-        <v>16.923881599160858</v>
+        <f ca="1">('[1]Qc, Winter, S2'!I2*Main!$B$5)</f>
+        <v>22.699153690673057</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Qc, Winter, S2'!J2*Main!$B$5)</f>
-        <v>18.960628411505727</v>
+        <f ca="1">('[1]Qc, Winter, S2'!J2*Main!$B$5)</f>
+        <v>27.215304359204936</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Qc, Winter, S2'!K2*Main!$B$5)</f>
-        <v>22.184087180116013</v>
+        <f ca="1">('[1]Qc, Winter, S2'!K2*Main!$B$5)</f>
+        <v>24.792584393534007</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Qc, Winter, S2'!L2*Main!$B$5)</f>
-        <v>23.68726291589584</v>
+        <f ca="1">('[1]Qc, Winter, S2'!L2*Main!$B$5)</f>
+        <v>26.650286099844223</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Qc, Winter, S2'!M2*Main!$B$5)</f>
-        <v>22.831743503863631</v>
+        <f ca="1">('[1]Qc, Winter, S2'!M2*Main!$B$5)</f>
+        <v>29.680069470663952</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Qc, Winter, S2'!N2*Main!$B$5)</f>
-        <v>21.631115769591464</v>
+        <f ca="1">('[1]Qc, Winter, S2'!N2*Main!$B$5)</f>
+        <v>24.929052109084186</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Qc, Winter, S2'!O2*Main!$B$5)</f>
-        <v>20.768071191438736</v>
+        <f ca="1">('[1]Qc, Winter, S2'!O2*Main!$B$5)</f>
+        <v>25.479274123665839</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Qc, Winter, S2'!P2*Main!$B$5)</f>
-        <v>19.70092927848437</v>
+        <f ca="1">('[1]Qc, Winter, S2'!P2*Main!$B$5)</f>
+        <v>25.162795955094122</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Qc, Winter, S2'!Q2*Main!$B$5)</f>
-        <v>16.515575178247619</v>
+        <f ca="1">('[1]Qc, Winter, S2'!Q2*Main!$B$5)</f>
+        <v>23.217293095139681</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Qc, Winter, S2'!R2*Main!$B$5)</f>
-        <v>19.12729452367693</v>
+        <f ca="1">('[1]Qc, Winter, S2'!R2*Main!$B$5)</f>
+        <v>21.825239350771746</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Qc, Winter, S2'!S2*Main!$B$5)</f>
-        <v>25.295295242292074</v>
+        <f ca="1">('[1]Qc, Winter, S2'!S2*Main!$B$5)</f>
+        <v>32.980168125361239</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Qc, Winter, S2'!T2*Main!$B$5)</f>
-        <v>28.093720223589823</v>
+        <f ca="1">('[1]Qc, Winter, S2'!T2*Main!$B$5)</f>
+        <v>30.026500548846109</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Qc, Winter, S2'!U2*Main!$B$5)</f>
-        <v>25.987054403352289</v>
+        <f ca="1">('[1]Qc, Winter, S2'!U2*Main!$B$5)</f>
+        <v>29.110232979302882</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Qc, Winter, S2'!V2*Main!$B$5)</f>
-        <v>23.359901653937918</v>
+        <f ca="1">('[1]Qc, Winter, S2'!V2*Main!$B$5)</f>
+        <v>26.075410976463424</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Qc, Winter, S2'!W2*Main!$B$5)</f>
-        <v>20.569048238397443</v>
+        <f ca="1">('[1]Qc, Winter, S2'!W2*Main!$B$5)</f>
+        <v>23.705058991460451</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Qc, Winter, S2'!X2*Main!$B$5)</f>
-        <v>17.112125630730294</v>
+        <f ca="1">('[1]Qc, Winter, S2'!X2*Main!$B$5)</f>
+        <v>22.907057320940751</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Qc, Winter, S2'!Y2*Main!$B$5)</f>
-        <v>11.969917796101392</v>
+        <f ca="1">('[1]Qc, Winter, S2'!Y2*Main!$B$5)</f>
+        <v>15.961820783567093</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -4610,100 +4613,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Qc, Winter, S2'!B3*Main!$B$5)</f>
-        <v>-23.031170926072019</v>
+        <f ca="1">('[1]Qc, Winter, S2'!B3*Main!$B$5)</f>
+        <v>-30.4185803724538</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Qc, Winter, S2'!C3*Main!$B$5)</f>
-        <v>-25.031720076296473</v>
+        <f ca="1">('[1]Qc, Winter, S2'!C3*Main!$B$5)</f>
+        <v>-37.150817990706521</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Qc, Winter, S2'!D3*Main!$B$5)</f>
-        <v>-28.721050926136844</v>
+        <f ca="1">('[1]Qc, Winter, S2'!D3*Main!$B$5)</f>
+        <v>-36.34531710560568</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Qc, Winter, S2'!E3*Main!$B$5)</f>
-        <v>-29.675722876367598</v>
+        <f ca="1">('[1]Qc, Winter, S2'!E3*Main!$B$5)</f>
+        <v>-37.538539888566198</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Qc, Winter, S2'!F3*Main!$B$5)</f>
-        <v>-31.619119052865091</v>
+        <f ca="1">('[1]Qc, Winter, S2'!F3*Main!$B$5)</f>
+        <v>-40.362983539045047</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Qc, Winter, S2'!G3*Main!$B$5)</f>
-        <v>-29.219233379584267</v>
+        <f ca="1">('[1]Qc, Winter, S2'!G3*Main!$B$5)</f>
+        <v>-30.55784530496727</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Qc, Winter, S2'!H3*Main!$B$5)</f>
-        <v>-18.365514071038273</v>
+        <f ca="1">('[1]Qc, Winter, S2'!H3*Main!$B$5)</f>
+        <v>-25.756776115626138</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Qc, Winter, S2'!I3*Main!$B$5)</f>
-        <v>-7.3952716502251432</v>
+        <f ca="1">('[1]Qc, Winter, S2'!I3*Main!$B$5)</f>
+        <v>-10.49906949188872</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Qc, Winter, S2'!J3*Main!$B$5)</f>
-        <v>-2.4924454652574428</v>
+        <f ca="1">('[1]Qc, Winter, S2'!J3*Main!$B$5)</f>
+        <v>-3.0312897878351226</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Qc, Winter, S2'!K3*Main!$B$5)</f>
-        <v>-0.3558325441717472</v>
+        <f ca="1">('[1]Qc, Winter, S2'!K3*Main!$B$5)</f>
+        <v>-0.44100120602562404</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Qc, Winter, S2'!L3*Main!$B$5)</f>
-        <v>-3.670232621649371</v>
+        <f ca="1">('[1]Qc, Winter, S2'!L3*Main!$B$5)</f>
+        <v>-4.0441984386322831</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Qc, Winter, S2'!M3*Main!$B$5)</f>
-        <v>-2.3984744452868139</v>
+        <f ca="1">('[1]Qc, Winter, S2'!M3*Main!$B$5)</f>
+        <v>-2.8793251209732049</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Qc, Winter, S2'!N3*Main!$B$5)</f>
-        <v>-3.2506522583226238</v>
+        <f ca="1">('[1]Qc, Winter, S2'!N3*Main!$B$5)</f>
+        <v>-4.3319324486915463</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Qc, Winter, S2'!O3*Main!$B$5)</f>
-        <v>-3.3140407646744747</v>
+        <f ca="1">('[1]Qc, Winter, S2'!O3*Main!$B$5)</f>
+        <v>-4.1951209867505304</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Qc, Winter, S2'!P3*Main!$B$5)</f>
-        <v>-8.907124779497984</v>
+        <f ca="1">('[1]Qc, Winter, S2'!P3*Main!$B$5)</f>
+        <v>-12.152002890026816</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Qc, Winter, S2'!Q3*Main!$B$5)</f>
-        <v>-13.20868169412798</v>
+        <f ca="1">('[1]Qc, Winter, S2'!Q3*Main!$B$5)</f>
+        <v>-15.591619489496033</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Qc, Winter, S2'!R3*Main!$B$5)</f>
-        <v>-11.633760844571356</v>
+        <f ca="1">('[1]Qc, Winter, S2'!R3*Main!$B$5)</f>
+        <v>-14.997807972075368</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Qc, Winter, S2'!S3*Main!$B$5)</f>
-        <v>-4.2025494703907933</v>
+        <f ca="1">('[1]Qc, Winter, S2'!S3*Main!$B$5)</f>
+        <v>-4.9263529600993561</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Qc, Winter, S2'!T3*Main!$B$5)</f>
-        <v>-5.3841049759928854</v>
+        <f ca="1">('[1]Qc, Winter, S2'!T3*Main!$B$5)</f>
+        <v>-7.6578666623036185</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Qc, Winter, S2'!U3*Main!$B$5)</f>
-        <v>-7.6845877345532614</v>
+        <f ca="1">('[1]Qc, Winter, S2'!U3*Main!$B$5)</f>
+        <v>-7.9483247154633148</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Qc, Winter, S2'!V3*Main!$B$5)</f>
-        <v>-10.299217192658674</v>
+        <f ca="1">('[1]Qc, Winter, S2'!V3*Main!$B$5)</f>
+        <v>-14.56631118416878</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Qc, Winter, S2'!W3*Main!$B$5)</f>
-        <v>-13.944065794481796</v>
+        <f ca="1">('[1]Qc, Winter, S2'!W3*Main!$B$5)</f>
+        <v>-18.908017888365119</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Qc, Winter, S2'!X3*Main!$B$5)</f>
-        <v>-18.514996258862723</v>
+        <f ca="1">('[1]Qc, Winter, S2'!X3*Main!$B$5)</f>
+        <v>-23.193305313809141</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Qc, Winter, S2'!Y3*Main!$B$5)</f>
-        <v>-20.623117856033243</v>
+        <f ca="1">('[1]Qc, Winter, S2'!Y3*Main!$B$5)</f>
+        <v>-27.737665501297371</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4711,100 +4714,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Qc, Winter, S2'!B4*Main!$B$5)</f>
-        <v>37.854507707694644</v>
+        <f ca="1">('[1]Qc, Winter, S2'!B4*Main!$B$5)</f>
+        <v>42.634011378217735</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
-        <v>40.43805701999073</v>
+        <f ca="1">('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
+        <v>51.194705423354861</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
-        <v>44.739977979564216</v>
+        <f ca="1">('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
+        <v>50.116922151284228</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
-        <v>39.147480732118687</v>
+        <f ca="1">('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
+        <v>51.194705423354861</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
-        <v>43.019209595734822</v>
+        <f ca="1">('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
+        <v>57.66140505577863</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
-        <v>31.71937306372341</v>
+        <f ca="1">('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
+        <v>46.720340214437186</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
-        <v>15.651923828339468</v>
+        <f ca="1">('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
+        <v>19.60680105054799</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
-        <v>1.8318390577043322</v>
+        <f ca="1">('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
+        <v>2.5241724142307445</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
-        <v>-11.432943431179702</v>
+        <f ca="1">('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
+        <v>-15.366079037888873</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
-        <v>-13.100247681560077</v>
+        <f ca="1">('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
+        <v>-13.426671003980569</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
-        <v>-0.99487257969636178</v>
+        <f ca="1">('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
+        <v>-1.2847976787637214</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
-        <v>-11.425946553592944</v>
+        <f ca="1">('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
+        <v>-16.02435663666483</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
-        <v>-13.288872622113534</v>
+        <f ca="1">('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
+        <v>-14.313017578380236</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
-        <v>-9.0367433187407809</v>
+        <f ca="1">('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
+        <v>-13.246946874737318</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
-        <v>-1.1717914074899356</v>
+        <f ca="1">('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
+        <v>-1.40796255035162</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
-        <v>7.4387818755982673</v>
+        <f ca="1">('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
+        <v>9.951677672600729</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
-        <v>10.830304375610805</v>
+        <f ca="1">('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
+        <v>11.431344563982149</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
-        <v>9.0252536463423354</v>
+        <f ca="1">('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
+        <v>13.064393787408173</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
-        <v>9.0252536463423354</v>
+        <f ca="1">('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
+        <v>12.436297932244317</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
-        <v>10.328901395258452</v>
+        <f ca="1">('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
+        <v>13.064393787408173</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
-        <v>10.228620799187981</v>
+        <f ca="1">('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
+        <v>11.305725392949379</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
-        <v>20.075264400675934</v>
+        <f ca="1">('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
+        <v>25.409773363056047</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
-        <v>34.522709407077024</v>
+        <f ca="1">('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
+        <v>37.239434904323623</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
-        <v>30.686852806290684</v>
+        <f ca="1">('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
+        <v>36.038162810635768</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -5656,100 +5659,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Qc, Winter, S3'!B2*Main!$B$5)</f>
-        <v>10.788170461515204</v>
+        <f ca="1">('[1]Qc, Winter, S3'!B2*Main!$B$5)</f>
+        <v>12.398247978921448</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Qc, Winter, S3'!C2*Main!$B$5)</f>
-        <v>8.016314916529705</v>
+        <f ca="1">('[1]Qc, Winter, S3'!C2*Main!$B$5)</f>
+        <v>9.7549412680597882</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Qc, Winter, S3'!D2*Main!$B$5)</f>
-        <v>6.404884088953251</v>
+        <f ca="1">('[1]Qc, Winter, S3'!D2*Main!$B$5)</f>
+        <v>7.6957698093263973</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Qc, Winter, S3'!E2*Main!$B$5)</f>
-        <v>6.3315598811557807</v>
+        <f ca="1">('[1]Qc, Winter, S3'!E2*Main!$B$5)</f>
+        <v>8.2518583644722714</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Qc, Winter, S3'!F2*Main!$B$5)</f>
-        <v>6.8327580011690836</v>
+        <f ca="1">('[1]Qc, Winter, S3'!F2*Main!$B$5)</f>
+        <v>9.7429613534288766</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Qc, Winter, S3'!G2*Main!$B$5)</f>
-        <v>9.0253303923732204</v>
+        <f ca="1">('[1]Qc, Winter, S3'!G2*Main!$B$5)</f>
+        <v>11.305821530917816</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Qc, Winter, S3'!H2*Main!$B$5)</f>
-        <v>15.403161484281412</v>
+        <f ca="1">('[1]Qc, Winter, S3'!H2*Main!$B$5)</f>
+        <v>17.891896264677058</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Qc, Winter, S3'!I2*Main!$B$5)</f>
-        <v>18.291467991012244</v>
+        <f ca="1">('[1]Qc, Winter, S3'!I2*Main!$B$5)</f>
+        <v>21.20015297525125</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Qc, Winter, S3'!J2*Main!$B$5)</f>
-        <v>20.343174233178022</v>
+        <f ca="1">('[1]Qc, Winter, S3'!J2*Main!$B$5)</f>
+        <v>24.741185781095393</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Qc, Winter, S3'!K2*Main!$B$5)</f>
-        <v>21.314122976974204</v>
+        <f ca="1">('[1]Qc, Winter, S3'!K2*Main!$B$5)</f>
+        <v>28.606828146385393</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Qc, Winter, S3'!L2*Main!$B$5)</f>
-        <v>21.27467132261015</v>
+        <f ca="1">('[1]Qc, Winter, S3'!L2*Main!$B$5)</f>
+        <v>24.727069577175051</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Qc, Winter, S3'!M2*Main!$B$5)</f>
-        <v>20.031624017540732</v>
+        <f ca="1">('[1]Qc, Winter, S3'!M2*Main!$B$5)</f>
+        <v>25.632787270118865</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Qc, Winter, S3'!N2*Main!$B$5)</f>
-        <v>20.982182296503719</v>
+        <f ca="1">('[1]Qc, Winter, S3'!N2*Main!$B$5)</f>
+        <v>24.387116193669307</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Qc, Winter, S3'!O2*Main!$B$5)</f>
-        <v>19.269344404427692</v>
+        <f ca="1">('[1]Qc, Winter, S3'!O2*Main!$B$5)</f>
+        <v>27.356694322251744</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Qc, Winter, S3'!P2*Main!$B$5)</f>
-        <v>17.576319258255666</v>
+        <f ca="1">('[1]Qc, Winter, S3'!P2*Main!$B$5)</f>
+        <v>24.194996110667425</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Qc, Winter, S3'!Q2*Main!$B$5)</f>
-        <v>18.534145477811215</v>
+        <f ca="1">('[1]Qc, Winter, S3'!Q2*Main!$B$5)</f>
+        <v>20.688677015471004</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Qc, Winter, S3'!R2*Main!$B$5)</f>
-        <v>20.452948599575333</v>
+        <f ca="1">('[1]Qc, Winter, S3'!R2*Main!$B$5)</f>
+        <v>21.350777625754965</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Qc, Winter, S3'!S2*Main!$B$5)</f>
-        <v>28.392678333184982</v>
+        <f ca="1">('[1]Qc, Winter, S3'!S2*Main!$B$5)</f>
+        <v>34.920178015088375</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Qc, Winter, S3'!T2*Main!$B$5)</f>
-        <v>28.35146077609982</v>
+        <f ca="1">('[1]Qc, Winter, S3'!T2*Main!$B$5)</f>
+        <v>33.900887716439151</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Qc, Winter, S3'!U2*Main!$B$5)</f>
-        <v>26.486805449570603</v>
+        <f ca="1">('[1]Qc, Winter, S3'!U2*Main!$B$5)</f>
+        <v>28.797219721460916</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Qc, Winter, S3'!V2*Main!$B$5)</f>
-        <v>23.128615498948434</v>
+        <f ca="1">('[1]Qc, Winter, S3'!V2*Main!$B$5)</f>
+        <v>31.000766383128738</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Qc, Winter, S3'!W2*Main!$B$5)</f>
-        <v>20.774738720781418</v>
+        <f ca="1">('[1]Qc, Winter, S3'!W2*Main!$B$5)</f>
+        <v>25.251041099599178</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Qc, Winter, S3'!X2*Main!$B$5)</f>
-        <v>16.776593755617938</v>
+        <f ca="1">('[1]Qc, Winter, S3'!X2*Main!$B$5)</f>
+        <v>22.276587853391923</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Qc, Winter, S3'!Y2*Main!$B$5)</f>
-        <v>12.74217055714019</v>
+        <f ca="1">('[1]Qc, Winter, S3'!Y2*Main!$B$5)</f>
+        <v>15.639359757636445</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -5757,100 +5760,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Qc, Winter, S3'!B3*Main!$B$5)</f>
-        <v>-24.28286499814115</v>
+        <f ca="1">('[1]Qc, Winter, S3'!B3*Main!$B$5)</f>
+        <v>-31.672954820802417</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Qc, Winter, S3'!C3*Main!$B$5)</f>
-        <v>-26.392139645660411</v>
+        <f ca="1">('[1]Qc, Winter, S3'!C3*Main!$B$5)</f>
+        <v>-34.424152450104202</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Qc, Winter, S3'!D3*Main!$B$5)</f>
-        <v>-28.721050926136844</v>
+        <f ca="1">('[1]Qc, Winter, S3'!D3*Main!$B$5)</f>
+        <v>-39.282312427270789</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Qc, Winter, S3'!E3*Main!$B$5)</f>
-        <v>-29.675722876367598</v>
+        <f ca="1">('[1]Qc, Winter, S3'!E3*Main!$B$5)</f>
+        <v>-39.360799106457769</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Qc, Winter, S3'!F3*Main!$B$5)</f>
-        <v>-31.317984585694948</v>
+        <f ca="1">('[1]Qc, Winter, S3'!F3*Main!$B$5)</f>
+        <v>-39.985759393820324</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Qc, Winter, S3'!G3*Main!$B$5)</f>
-        <v>-28.415034295742501</v>
+        <f ca="1">('[1]Qc, Winter, S3'!G3*Main!$B$5)</f>
+        <v>-36.938054764246154</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Qc, Winter, S3'!H3*Main!$B$5)</f>
-        <v>-21.359891365229299</v>
+        <f ca="1">('[1]Qc, Winter, S3'!H3*Main!$B$5)</f>
+        <v>-23.006052452792279</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Qc, Winter, S3'!I3*Main!$B$5)</f>
-        <v>-8.7921562952676702</v>
+        <f ca="1">('[1]Qc, Winter, S3'!I3*Main!$B$5)</f>
+        <v>-9.2638848457841672</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Qc, Winter, S3'!J3*Main!$B$5)</f>
-        <v>-2.3230559676185876</v>
+        <f ca="1">('[1]Qc, Winter, S3'!J3*Main!$B$5)</f>
+        <v>-2.9403510942000688</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Qc, Winter, S3'!K3*Main!$B$5)</f>
-        <v>-0.36718890196446258</v>
+        <f ca="1">('[1]Qc, Winter, S3'!K3*Main!$B$5)</f>
+        <v>-0.51213043280395043</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Qc, Winter, S3'!L3*Main!$B$5)</f>
-        <v>-3.670232621649371</v>
+        <f ca="1">('[1]Qc, Winter, S3'!L3*Main!$B$5)</f>
+        <v>-4.0016279287519438</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Qc, Winter, S3'!M3*Main!$B$5)</f>
-        <v>-2.4984108805070977</v>
+        <f ca="1">('[1]Qc, Winter, S3'!M3*Main!$B$5)</f>
+        <v>-3.1922952428181186</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Qc, Winter, S3'!N3*Main!$B$5)</f>
-        <v>-3.8039547703775392</v>
+        <f ca="1">('[1]Qc, Winter, S3'!N3*Main!$B$5)</f>
+        <v>-4.4618904221522921</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Qc, Winter, S3'!O3*Main!$B$5)</f>
-        <v>-3.4884639628152372</v>
+        <f ca="1">('[1]Qc, Winter, S3'!O3*Main!$B$5)</f>
+        <v>-4.6321127562037105</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Qc, Winter, S3'!P3*Main!$B$5)</f>
-        <v>-8.9953141337504405</v>
+        <f ca="1">('[1]Qc, Winter, S3'!P3*Main!$B$5)</f>
+        <v>-10.273966079749945</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Qc, Winter, S3'!Q3*Main!$B$5)</f>
-        <v>-13.081675139376749</v>
+        <f ca="1">('[1]Qc, Winter, S3'!Q3*Main!$B$5)</f>
+        <v>-15.750717647552117</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Qc, Winter, S3'!R3*Main!$B$5)</f>
-        <v>-10.843116903678157</v>
+        <f ca="1">('[1]Qc, Winter, S3'!R3*Main!$B$5)</f>
+        <v>-14.997807972075368</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Qc, Winter, S3'!S3*Main!$B$5)</f>
-        <v>-4.125438470934081</v>
+        <f ca="1">('[1]Qc, Winter, S3'!S3*Main!$B$5)</f>
+        <v>-4.5399723357778372</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Qc, Winter, S3'!T3*Main!$B$5)</f>
-        <v>-5.1597672686598486</v>
+        <f ca="1">('[1]Qc, Winter, S3'!T3*Main!$B$5)</f>
+        <v>-6.5337761430663903</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Qc, Winter, S3'!U3*Main!$B$5)</f>
-        <v>-6.4860740511825696</v>
+        <f ca="1">('[1]Qc, Winter, S3'!U3*Main!$B$5)</f>
+        <v>-8.3898983107668332</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Qc, Winter, S3'!V3*Main!$B$5)</f>
-        <v>-10.63145000532508</v>
+        <f ca="1">('[1]Qc, Winter, S3'!V3*Main!$B$5)</f>
+        <v>-14.011404091438539</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Qc, Winter, S3'!W3*Main!$B$5)</f>
-        <v>-13.512806027642153</v>
+        <f ca="1">('[1]Qc, Winter, S3'!W3*Main!$B$5)</f>
+        <v>-18.547865166681973</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Qc, Winter, S3'!X3*Main!$B$5)</f>
-        <v>-18.900725347589027</v>
+        <f ca="1">('[1]Qc, Winter, S3'!X3*Main!$B$5)</f>
+        <v>-21.985320662048249</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Qc, Winter, S3'!Y3*Main!$B$5)</f>
-        <v>-21.491459660497807</v>
+        <f ca="1">('[1]Qc, Winter, S3'!Y3*Main!$B$5)</f>
+        <v>-29.913168677869713</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -5858,100 +5861,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
-        <v>34.034328030771334</v>
+        <f ca="1">('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
+        <v>42.198970445786948</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
-        <v>46.890938459350963</v>
+        <f ca="1">('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
+        <v>57.122513419743321</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
-        <v>40.43805701999073</v>
+        <f ca="1">('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
+        <v>48.500247243178286</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
-        <v>46.030554267436258</v>
+        <f ca="1">('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
+        <v>55.505838511637371</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
-        <v>41.298441211905427</v>
+        <f ca="1">('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
+        <v>56.583621783708004</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
-        <v>36.250712072826758</v>
+        <f ca="1">('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
+        <v>46.720340214437186</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
-        <v>14.545222143507385</v>
+        <f ca="1">('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
+        <v>19.804849546008072</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
-        <v>2.1371455673217206</v>
+        <f ca="1">('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
+        <v>2.6006624873892519</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
-        <v>-11.313850270438248</v>
+        <f ca="1">('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
+        <v>-13.426671003980569</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
-        <v>-11.909316074145524</v>
+        <f ca="1">('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
+        <v>-16.410375671531806</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
-        <v>-0.92307765126466568</v>
+        <f ca="1">('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
+        <v>-1.3490375627019078</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
-        <v>-11.177556411123533</v>
+        <f ca="1">('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
+        <v>-14.468593856406111</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
-        <v>-13.413067693348237</v>
+        <f ca="1">('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
+        <v>-14.62417013443198</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
-        <v>-8.8444721842994891</v>
+        <f ca="1">('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
+        <v>-11.560971817952568</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
-        <v>-1.1957055178468732</v>
+        <f ca="1">('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
+        <v>-1.4678758503665827</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
-        <v>6.7887912262741468</v>
+        <f ca="1">('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
+        <v>8.9565099053406545</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
-        <v>9.2258148384832772</v>
+        <f ca="1">('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
+        <v>11.556963735014921</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
-        <v>10.12834020311751</v>
+        <f ca="1">('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
+        <v>13.190012958440944</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
-        <v>9.92777901097657</v>
+        <f ca="1">('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
+        <v>12.687536274309858</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
-        <v>9.0252536463423354</v>
+        <f ca="1">('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
+        <v>12.059440419146004</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
-        <v>9.1255342424128063</v>
+        <f ca="1">('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
+        <v>11.305725392949379</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
-        <v>18.82056037563369</v>
+        <f ca="1">('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
+        <v>27.243468348018851</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
-        <v>30.047543372826297</v>
+        <f ca="1">('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
+        <v>38.040282966782193</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
-        <v>29.40823393936191</v>
+        <f ca="1">('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
+        <v>36.038162810635768</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13881,100 +13884,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Pc, Summer, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>57.032618364009927</v>
+        <f ca="1">('[1]Pc, Summer, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>80.399276275579496</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Pc, Summer, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>58.937173013287065</v>
+        <f ca="1">('[1]Pc, Summer, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>66.773809023669784</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Pc, Summer, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>51.261500392655066</v>
+        <f ca="1">('[1]Pc, Summer, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>66.893741009393452</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Pc, Summer, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>54.004706144073303</v>
+        <f ca="1">('[1]Pc, Summer, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>65.783254951184247</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Pc, Summer, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>54.580607254174133</v>
+        <f ca="1">('[1]Pc, Summer, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>63.137078344894825</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Pc, Summer, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>43.617249746417819</v>
+        <f ca="1">('[1]Pc, Summer, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>55.91005581597036</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Pc, Summer, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>60.519062563933417</v>
+        <f ca="1">('[1]Pc, Summer, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>63.834938655544605</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Pc, Summer, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>55.245813119922126</v>
+        <f ca="1">('[1]Pc, Summer, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>78.656165425399962</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Pc, Summer, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>72.723958234200367</v>
+        <f ca="1">('[1]Pc, Summer, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>84.244173312930414</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Pc, Summer, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>79.026345714477941</v>
+        <f ca="1">('[1]Pc, Summer, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>93.365448800751182</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Pc, Summer, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>72.993345764086413</v>
+        <f ca="1">('[1]Pc, Summer, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>89.440121733246457</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Pc, Summer, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>76.53521854564741</v>
+        <f ca="1">('[1]Pc, Summer, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>85.348465989566094</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Pc, Summer, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>82.277962526709473</v>
+        <f ca="1">('[1]Pc, Summer, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>106.61290468698819</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Pc, Summer, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>83.137359167848984</v>
+        <f ca="1">('[1]Pc, Summer, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>95.877064247770122</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Pc, Summer, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>80.464227706074638</v>
+        <f ca="1">('[1]Pc, Summer, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>90.525754643613226</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Pc, Summer, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>73.752649179520105</v>
+        <f ca="1">('[1]Pc, Summer, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>102.09561682431234</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Pc, Summer, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>77.287862084621125</v>
+        <f ca="1">('[1]Pc, Summer, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>100.23795311852712</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Pc, Summer, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>77.04622692917485</v>
+        <f ca="1">('[1]Pc, Summer, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>84.206234615145789</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Pc, Summer, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>76.391170359671079</v>
+        <f ca="1">('[1]Pc, Summer, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>86.295497561384636</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Pc, Summer, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>78.017744847136868</v>
+        <f ca="1">('[1]Pc, Summer, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>83.822299338700645</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Pc, Summer, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>68.564896310853754</v>
+        <f ca="1">('[1]Pc, Summer, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>92.705668815424985</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Pc, Summer, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>69.613392825605402</v>
+        <f ca="1">('[1]Pc, Summer, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>89.758585463038315</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Pc, Summer, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>73.720401851865063</v>
+        <f ca="1">('[1]Pc, Summer, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>93.95503009147798</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Pc, Summer, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>74.448251246135214</v>
+        <f ca="1">('[1]Pc, Summer, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>88.631175886732336</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -13982,100 +13985,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Pc, Summer, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>74.312930700239832</v>
+        <f ca="1">('[1]Pc, Summer, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>84.361648559518741</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Pc, Summer, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>59.212689675827242</v>
+        <f ca="1">('[1]Pc, Summer, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>74.60709317377102</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Pc, Summer, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>59.829595613849698</v>
+        <f ca="1">('[1]Pc, Summer, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>69.206425698992049</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Pc, Summer, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>66.639225198018295</v>
+        <f ca="1">('[1]Pc, Summer, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>75.727714156697061</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Pc, Summer, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>63.930112336943516</v>
+        <f ca="1">('[1]Pc, Summer, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>74.695501843648458</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Pc, Summer, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>62.694634244018012</v>
+        <f ca="1">('[1]Pc, Summer, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>67.815091244583641</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Pc, Summer, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>59.288869327735213</v>
+        <f ca="1">('[1]Pc, Summer, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>82.023003314187491</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Pc, Summer, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>64.730854039414325</v>
+        <f ca="1">('[1]Pc, Summer, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>88.874991034378155</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Pc, Summer, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>77.59889536662989</v>
+        <f ca="1">('[1]Pc, Summer, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>103.09822727407918</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Pc, Summer, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>79.468073387681585</v>
+        <f ca="1">('[1]Pc, Summer, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>111.80743762841544</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Pc, Summer, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>90.608933518158437</v>
+        <f ca="1">('[1]Pc, Summer, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>101.96835475701336</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Pc, Summer, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>90.766711455841318</v>
+        <f ca="1">('[1]Pc, Summer, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>113.49917251815762</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Pc, Summer, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>84.732054988231624</v>
+        <f ca="1">('[1]Pc, Summer, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>98.275282858862653</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Pc, Summer, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>93.551362166480899</v>
+        <f ca="1">('[1]Pc, Summer, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>117.65398974837152</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Pc, Summer, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>85.275926446442753</v>
+        <f ca="1">('[1]Pc, Summer, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>100.09092469482755</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Pc, Summer, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>83.460644827500246</v>
+        <f ca="1">('[1]Pc, Summer, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>97.097341684323041</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Pc, Summer, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>76.66023487274218</v>
+        <f ca="1">('[1]Pc, Summer, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>109.57785907195307</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Pc, Summer, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>83.6388606699457</v>
+        <f ca="1">('[1]Pc, Summer, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>103.05850911244593</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Pc, Summer, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>82.014849492259344</v>
+        <f ca="1">('[1]Pc, Summer, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>99.300508774020372</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Pc, Summer, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>80.984171831532663</v>
+        <f ca="1">('[1]Pc, Summer, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>108.08352424531226</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Pc, Summer, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>84.997282274871097</v>
+        <f ca="1">('[1]Pc, Summer, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>103.04933785701239</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Pc, Summer, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>83.643104216346828</v>
+        <f ca="1">('[1]Pc, Summer, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>109.67282407265674</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Pc, Summer, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>74.231304971180279</v>
+        <f ca="1">('[1]Pc, Summer, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>106.18905925842864</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Pc, Summer, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>77.244126554405355</v>
+        <f ca="1">('[1]Pc, Summer, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>92.594998928814888</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -14083,100 +14086,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Pc, Summer, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>86.198846501533012</v>
+        <f ca="1">('[1]Pc, Summer, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>96.048923424433923</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Pc, Summer, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>69.064856294315064</v>
+        <f ca="1">('[1]Pc, Summer, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>87.644355836648501</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Pc, Summer, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>67.073406346216998</v>
+        <f ca="1">('[1]Pc, Summer, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>81.331319458274251</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Pc, Summer, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>63.364857994718541</v>
+        <f ca="1">('[1]Pc, Summer, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>83.551972729432464</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Pc, Summer, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>62.067695568035582</v>
+        <f ca="1">('[1]Pc, Summer, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>77.762243811709141</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Pc, Summer, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>63.313372213943673</v>
+        <f ca="1">('[1]Pc, Summer, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>82.866979062721654</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Pc, Summer, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>87.210053608365328</v>
+        <f ca="1">('[1]Pc, Summer, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>114.74514220470111</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Pc, Summer, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>93.949027205715495</v>
+        <f ca="1">('[1]Pc, Summer, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>134.75008043390039</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Pc, Summer, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>94.785138397316402</v>
+        <f ca="1">('[1]Pc, Summer, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>132.71101579716037</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Pc, Summer, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>101.3258444146167</v>
+        <f ca="1">('[1]Pc, Summer, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>129.11493748292781</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Pc, Summer, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>102.73825120947615</v>
+        <f ca="1">('[1]Pc, Summer, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>115.85248861519011</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Pc, Summer, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>115.00107892196102</v>
+        <f ca="1">('[1]Pc, Summer, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>143.80645704262204</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Pc, Summer, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>103.7641082555028</v>
+        <f ca="1">('[1]Pc, Summer, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>145.74699810507917</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Pc, Summer, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>118.01231438483561</v>
+        <f ca="1">('[1]Pc, Summer, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>125.53377591427896</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Pc, Summer, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>113.45623032201226</v>
+        <f ca="1">('[1]Pc, Summer, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>136.21398163368545</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Pc, Summer, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>97.853735370182079</v>
+        <f ca="1">('[1]Pc, Summer, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>130.28076934517779</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Pc, Summer, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>94.518639699579879</v>
+        <f ca="1">('[1]Pc, Summer, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>110.06509750491139</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Pc, Summer, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>98.112321786091684</v>
+        <f ca="1">('[1]Pc, Summer, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>111.85701952246983</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Pc, Summer, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>92.153608092211556</v>
+        <f ca="1">('[1]Pc, Summer, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>114.91675189082436</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Pc, Summer, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>93.342079354709583</v>
+        <f ca="1">('[1]Pc, Summer, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>124.46006633653431</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Pc, Summer, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>96.797846103200442</v>
+        <f ca="1">('[1]Pc, Summer, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>103.77147500480173</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Pc, Summer, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>84.244049151023091</v>
+        <f ca="1">('[1]Pc, Summer, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>109.70018733559812</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Pc, Summer, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>87.860682833915916</v>
+        <f ca="1">('[1]Pc, Summer, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>122.6324050467787</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Pc, Summer, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>95.263033822091842</v>
+        <f ca="1">('[1]Pc, Summer, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>101.15149733640047</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15030,100 +15033,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Pc, Summer, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>66.482358830784676</v>
+        <f ca="1">('[1]Pc, Summer, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>75.525023855524665</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Pc, Summer, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>59.915835134392736</v>
+        <f ca="1">('[1]Pc, Summer, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>72.290571800950573</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Pc, Summer, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>54.500505291903046</v>
+        <f ca="1">('[1]Pc, Summer, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>69.212270224178994</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Pc, Summer, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>45.939996113560611</v>
+        <f ca="1">('[1]Pc, Summer, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>56.80327740506177</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Pc, Summer, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>49.356005984817415</v>
+        <f ca="1">('[1]Pc, Summer, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>58.972246007109547</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Pc, Summer, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>49.707757609644972</v>
+        <f ca="1">('[1]Pc, Summer, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>62.449573748029607</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Pc, Summer, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>53.376008113903858</v>
+        <f ca="1">('[1]Pc, Summer, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>65.752353989152454</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Pc, Summer, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>57.022417627850771</v>
+        <f ca="1">('[1]Pc, Summer, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>74.946980161179809</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Pc, Summer, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>74.058268171402105</v>
+        <f ca="1">('[1]Pc, Summer, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>90.930009447940364</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Pc, Summer, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>79.742380581208067</v>
+        <f ca="1">('[1]Pc, Summer, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>93.365448800751182</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Pc, Summer, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>74.471244826420275</v>
+        <f ca="1">('[1]Pc, Summer, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>86.663127045011478</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Pc, Summer, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>83.291018968166995</v>
+        <f ca="1">('[1]Pc, Summer, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>88.16941069204664</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Pc, Summer, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>83.808729564284079</v>
+        <f ca="1">('[1]Pc, Summer, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>98.942679585043976</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Pc, Summer, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>76.192488554235894</v>
+        <f ca="1">('[1]Pc, Summer, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>98.776956894329118</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Pc, Summer, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>75.043807297012052</v>
+        <f ca="1">('[1]Pc, Summer, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>97.315789257658196</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Pc, Summer, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>70.026881411191908</v>
+        <f ca="1">('[1]Pc, Summer, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>103.96248988593278</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Pc, Summer, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>71.323649938918024</v>
+        <f ca="1">('[1]Pc, Summer, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>89.965012035434427</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Pc, Summer, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>73.463924724865905</v>
+        <f ca="1">('[1]Pc, Summer, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>101.25860799070999</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Pc, Summer, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>74.950710070909537</v>
+        <f ca="1">('[1]Pc, Summer, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>89.904359783397979</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Pc, Summer, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>66.399318063180118</v>
+        <f ca="1">('[1]Pc, Summer, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>96.557165790281772</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Pc, Summer, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>70.005261423176037</v>
+        <f ca="1">('[1]Pc, Summer, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>91.803512872577883</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Pc, Summer, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>82.295387452238771</v>
+        <f ca="1">('[1]Pc, Summer, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>96.300060672577899</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Pc, Summer, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>78.822367059621669</v>
+        <f ca="1">('[1]Pc, Summer, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>86.650900733878345</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Pc, Summer, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>68.585662006183085</v>
+        <f ca="1">('[1]Pc, Summer, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>79.655262386510913</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -15131,100 +15134,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Pc, Summer, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>73.058017300979628</v>
+        <f ca="1">('[1]Pc, Summer, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>86.719649814649941</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Pc, Summer, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>63.203197111124865</v>
+        <f ca="1">('[1]Pc, Summer, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>77.46355939051081</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Pc, Summer, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>64.310514061524543</v>
+        <f ca="1">('[1]Pc, Summer, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>72.714639668838728</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Pc, Summer, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>65.521857284392226</v>
+        <f ca="1">('[1]Pc, Summer, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>78.527115766749063</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Pc, Summer, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>65.047568343979222</v>
+        <f ca="1">('[1]Pc, Summer, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>79.594840895220301</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Pc, Summer, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>59.925700362460375</v>
+        <f ca="1">('[1]Pc, Summer, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>74.75224942823445</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Pc, Summer, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>67.061078705713072</v>
+        <f ca="1">('[1]Pc, Summer, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>83.52085961772724</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Pc, Summer, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>68.989705428947374</v>
+        <f ca="1">('[1]Pc, Summer, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>95.988276516233483</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Pc, Summer, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>78.40787529884814</v>
+        <f ca="1">('[1]Pc, Summer, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>102.08483692290905</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Pc, Summer, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>76.966558465411353</v>
+        <f ca="1">('[1]Pc, Summer, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>102.40666889023797</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Pc, Summer, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>83.18033274232215</v>
+        <f ca="1">('[1]Pc, Summer, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>96.798557275631012</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Pc, Summer, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>89.917970204320284</v>
+        <f ca="1">('[1]Pc, Summer, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>96.48799761649019</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Pc, Summer, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>94.196281099293287</v>
+        <f ca="1">('[1]Pc, Summer, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>100.43084940300392</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Pc, Summer, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>79.195394330469384</v>
+        <f ca="1">('[1]Pc, Summer, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>110.24906564353086</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Pc, Summer, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>86.08739735211563</v>
+        <f ca="1">('[1]Pc, Summer, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>99.074413959129444</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Pc, Summer, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>74.114917607355196</v>
+        <f ca="1">('[1]Pc, Summer, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>98.072939616605666</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Pc, Summer, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>82.999421226759608</v>
+        <f ca="1">('[1]Pc, Summer, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>91.710718532897829</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Pc, Summer, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>82.838633678489131</v>
+        <f ca="1">('[1]Pc, Summer, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>112.08034082461118</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Pc, Summer, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>80.407602176726854</v>
+        <f ca="1">('[1]Pc, Summer, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>112.38735749318549</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Pc, Summer, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>72.290651922902128</v>
+        <f ca="1">('[1]Pc, Summer, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>91.253261127050123</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Pc, Summer, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>88.168060495379748</v>
+        <f ca="1">('[1]Pc, Summer, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>110.9932581605805</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Pc, Summer, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>76.213367027375739</v>
+        <f ca="1">('[1]Pc, Summer, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>96.229294370169256</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Pc, Summer, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>89.621114604064147</v>
+        <f ca="1">('[1]Pc, Summer, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>93.658062408353061</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Pc, Summer, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>78.65490182224643</v>
+        <f ca="1">('[1]Pc, Summer, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>101.43122580640505</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -15232,100 +15235,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Pc, Summer, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>76.894384221791199</v>
+        <f ca="1">('[1]Pc, Summer, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>94.255772108123764</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Pc, Summer, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>70.368239748864809</v>
+        <f ca="1">('[1]Pc, Summer, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>81.929842318583795</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Pc, Summer, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>66.453612715550051</v>
+        <f ca="1">('[1]Pc, Summer, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>92.97733550923499</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Pc, Summer, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>71.733062447714374</v>
+        <f ca="1">('[1]Pc, Summer, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>83.551972729432464</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Pc, Summer, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>60.872237789036184</v>
+        <f ca="1">('[1]Pc, Summer, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>78.511004893549213</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Pc, Summer, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>65.87696901702931</v>
+        <f ca="1">('[1]Pc, Summer, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>80.458460481722369</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Pc, Summer, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>79.982804191988876</v>
+        <f ca="1">('[1]Pc, Summer, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>96.638327604311385</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Pc, Summer, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>96.913567308168453</v>
+        <f ca="1">('[1]Pc, Summer, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>129.79859982507162</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Pc, Summer, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>100.97324078017003</v>
+        <f ca="1">('[1]Pc, Summer, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>143.04660509439887</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Pc, Summer, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>94.257488085163587</v>
+        <f ca="1">('[1]Pc, Summer, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>140.49912185753365</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Pc, Summer, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>105.76610802305271</v>
+        <f ca="1">('[1]Pc, Summer, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>137.34573497637092</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Pc, Summer, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>116.07655916185441</v>
+        <f ca="1">('[1]Pc, Summer, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>124.94524978138605</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Pc, Summer, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>114.51891065443651</v>
+        <f ca="1">('[1]Pc, Summer, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>132.27470720419632</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Pc, Summer, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>106.18203174600852</v>
+        <f ca="1">('[1]Pc, Summer, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>136.31160863498525</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Pc, Summer, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>107.32712683660947</v>
+        <f ca="1">('[1]Pc, Summer, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>128.53619620778602</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Pc, Summer, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>105.59033190520617</v>
+        <f ca="1">('[1]Pc, Summer, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>113.32072380797239</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Pc, Summer, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>92.716879630626508</v>
+        <f ca="1">('[1]Pc, Summer, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>124.73574664692792</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Pc, Summer, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>100.81496188952173</v>
+        <f ca="1">('[1]Pc, Summer, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>118.6280883572467</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Pc, Summer, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>88.550087954304828</v>
+        <f ca="1">('[1]Pc, Summer, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>119.4307977806756</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Pc, Summer, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>88.83767918232617</v>
+        <f ca="1">('[1]Pc, Summer, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>113.17495161190621</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Pc, Summer, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>101.30224627558384</v>
+        <f ca="1">('[1]Pc, Summer, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>110.54254383957858</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Pc, Summer, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>97.75724966817333</v>
+        <f ca="1">('[1]Pc, Summer, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>117.59976764283779</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Pc, Summer, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>99.151214753744242</v>
+        <f ca="1">('[1]Pc, Summer, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>113.9287823912441</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Pc, Summer, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>92.012549954997297</v>
+        <f ca="1">('[1]Pc, Summer, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>110.31305985088689</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -16179,100 +16182,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Pc, Summer, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>56.476751277729058</v>
+        <f ca="1">('[1]Pc, Summer, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>76.221345629818217</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Pc, Summer, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>50.618544983888924</v>
+        <f ca="1">('[1]Pc, Summer, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>62.48299353022918</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Pc, Summer, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>54.963220277509897</v>
+        <f ca="1">('[1]Pc, Summer, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>57.619624150251262</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Pc, Summer, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>52.212548359514926</v>
+        <f ca="1">('[1]Pc, Summer, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>62.415763371388323</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Pc, Summer, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>48.881042233057705</v>
+        <f ca="1">('[1]Pc, Summer, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>60.162198103619616</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Pc, Summer, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>43.182213470473016</v>
+        <f ca="1">('[1]Pc, Summer, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>54.27517633295556</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Pc, Summer, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>51.845353588897531</v>
+        <f ca="1">('[1]Pc, Summer, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>68.948046211832207</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Pc, Summer, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>56.430216125207892</v>
+        <f ca="1">('[1]Pc, Summer, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>76.430654266867862</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Pc, Summer, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>72.056803265599498</v>
+        <f ca="1">('[1]Pc, Summer, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>89.258550414187866</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Pc, Summer, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>71.149962180446408</v>
+        <f ca="1">('[1]Pc, Summer, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>91.571528343278217</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Pc, Summer, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>67.820699045917891</v>
+        <f ca="1">('[1]Pc, Summer, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>91.291451525403119</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Pc, Summer, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>76.53521854564741</v>
+        <f ca="1">('[1]Pc, Summer, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>93.811300097007702</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Pc, Summer, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>76.920277895198353</v>
+        <f ca="1">('[1]Pc, Summer, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>90.313676345356768</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Pc, Summer, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>82.365706877447522</v>
+        <f ca="1">('[1]Pc, Summer, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>97.810326012142781</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Pc, Summer, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>87.433339660583698</v>
+        <f ca="1">('[1]Pc, Summer, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>107.98584365115741</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Pc, Summer, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>70.026881411191908</v>
+        <f ca="1">('[1]Pc, Summer, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>92.761251516210123</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Pc, Summer, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>69.087070384279386</v>
+        <f ca="1">('[1]Pc, Summer, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>87.163300830954611</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Pc, Summer, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>67.732241197971604</v>
+        <f ca="1">('[1]Pc, Summer, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>84.206234615145789</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Pc, Summer, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>74.230479926528773</v>
+        <f ca="1">('[1]Pc, Summer, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>83.588850894874639</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Pc, Summer, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>75.839289825144974</v>
+        <f ca="1">('[1]Pc, Summer, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>87.460832610580965</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Pc, Summer, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>70.005261423176037</v>
+        <f ca="1">('[1]Pc, Summer, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>92.705668815424985</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Pc, Summer, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>70.359392509524994</v>
+        <f ca="1">('[1]Pc, Summer, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>103.77603234062313</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Pc, Summer, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>79.551219232158331</v>
+        <f ca="1">('[1]Pc, Summer, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>93.042013921778022</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Pc, Summer, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>71.191257223939601</v>
+        <f ca="1">('[1]Pc, Summer, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>81.287246659278452</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -16280,100 +16283,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Pc, Summer, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>70.548190502459221</v>
+        <f ca="1">('[1]Pc, Summer, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>92.221652743289425</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Pc, Summer, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>61.49297963885445</v>
+        <f ca="1">('[1]Pc, Summer, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>76.749442836325855</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Pc, Summer, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>65.990858479402604</v>
+        <f ca="1">('[1]Pc, Summer, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>74.819568050746753</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Pc, Summer, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>66.080541241205253</v>
+        <f ca="1">('[1]Pc, Summer, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>68.729210131567086</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Pc, Summer, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>58.901560305282821</v>
+        <f ca="1">('[1]Pc, Summer, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>72.595785107260539</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Pc, Summer, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>63.802207796641071</v>
+        <f ca="1">('[1]Pc, Summer, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>67.121375426218549</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Pc, Summer, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>70.050390004935338</v>
+        <f ca="1">('[1]Pc, Summer, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>82.023003314187491</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Pc, Summer, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>78.217216772935643</v>
+        <f ca="1">('[1]Pc, Summer, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>86.207508978682412</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Pc, Summer, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>84.070734824375918</v>
+        <f ca="1">('[1]Pc, Summer, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>110.19195973227012</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Pc, Summer, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>88.640294769339121</v>
+        <f ca="1">('[1]Pc, Summer, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>96.139489731452997</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Pc, Summer, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>77.402532138893932</v>
+        <f ca="1">('[1]Pc, Summer, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>99.900435764460411</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Pc, Summer, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>86.523005198236106</v>
+        <f ca="1">('[1]Pc, Summer, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>107.11998193003234</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Pc, Summer, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>82.15090241248754</v>
+        <f ca="1">('[1]Pc, Summer, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>98.275282858862653</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Pc, Summer, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>84.26220650788521</v>
+        <f ca="1">('[1]Pc, Summer, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>101.78629523799871</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Pc, Summer, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>84.46445554076989</v>
+        <f ca="1">('[1]Pc, Summer, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>99.074413959129444</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Pc, Summer, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>82.681834225821504</v>
+        <f ca="1">('[1]Pc, Summer, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>108.80451687171438</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Pc, Summer, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>81.414624638255262</v>
+        <f ca="1">('[1]Pc, Summer, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>102.62952664009825</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Pc, Summer, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>81.238179695575994</v>
+        <f ca="1">('[1]Pc, Summer, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>96.041528891872971</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Pc, Summer, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>80.407602176726854</v>
+        <f ca="1">('[1]Pc, Summer, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>104.33391212754542</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Pc, Summer, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>74.661611897983178</v>
+        <f ca="1">('[1]Pc, Summer, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>91.253261127050123</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Pc, Summer, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>84.204587719743927</v>
+        <f ca="1">('[1]Pc, Summer, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>107.02129800879644</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Pc, Summer, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>77.864419736035984</v>
+        <f ca="1">('[1]Pc, Summer, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>114.84341241976732</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Pc, Summer, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>75.77028593446866</v>
+        <f ca="1">('[1]Pc, Summer, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>95.585908077595462</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Pc, Summer, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>72.306413116961608</v>
+        <f ca="1">('[1]Pc, Summer, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>97.896735055368993</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -16381,100 +16384,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Pc, Summer, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>81.188751427825878</v>
+        <f ca="1">('[1]Pc, Summer, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>96.945499082589009</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Pc, Summer, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>74.93008183978894</v>
+        <f ca="1">('[1]Pc, Summer, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>88.460714910657757</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Pc, Summer, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>74.510929914220426</v>
+        <f ca="1">('[1]Pc, Summer, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>81.331319458274251</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Pc, Summer, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>70.537604668714977</v>
+        <f ca="1">('[1]Pc, Summer, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>79.808167320232172</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Pc, Summer, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>59.676780010036779</v>
+        <f ca="1">('[1]Pc, Summer, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>74.767199484348922</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Pc, Summer, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>65.87696901702931</v>
+        <f ca="1">('[1]Pc, Summer, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>80.458460481722369</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Pc, Summer, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>82.391887330781017</v>
+        <f ca="1">('[1]Pc, Summer, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>109.71547148237063</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Pc, Summer, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>90.984487103262566</v>
+        <f ca="1">('[1]Pc, Summer, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>114.94415799858527</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Pc, Summer, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>103.03594157445457</v>
+        <f ca="1">('[1]Pc, Summer, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>135.29491312146999</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Pc, Summer, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>94.257488085163587</v>
+        <f ca="1">('[1]Pc, Summer, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>135.43948435770884</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Pc, Summer, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>93.654680768746488</v>
+        <f ca="1">('[1]Pc, Summer, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>118.38110583415256</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Pc, Summer, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>107.47271724270743</v>
+        <f ca="1">('[1]Pc, Summer, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>143.80645704262204</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Pc, Summer, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>119.89631185390337</v>
+        <f ca="1">('[1]Pc, Summer, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>130.92747811410803</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Pc, Summer, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>121.23875510451572</v>
+        <f ca="1">('[1]Pc, Summer, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>148.43667044577981</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Pc, Summer, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>107.32712683660947</v>
+        <f ca="1">('[1]Pc, Summer, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>143.89176705958488</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Pc, Summer, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>95.919586236426071</v>
+        <f ca="1">('[1]Pc, Summer, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>112.10929198388628</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Pc, Summer, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>94.518639699579879</v>
+        <f ca="1">('[1]Pc, Summer, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>107.80807455998577</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Pc, Summer, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>99.013201820568355</v>
+        <f ca="1">('[1]Pc, Summer, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>117.49957688478386</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Pc, Summer, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>101.16240843697838</v>
+        <f ca="1">('[1]Pc, Summer, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>121.68782072560123</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Pc, Summer, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>100.54911963052304</v>
+        <f ca="1">('[1]Pc, Summer, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>115.43197455683182</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Pc, Summer, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>86.888165723956917</v>
+        <f ca="1">('[1]Pc, Summer, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>109.41403236711577</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Pc, Summer, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>86.946689254453133</v>
+        <f ca="1">('[1]Pc, Summer, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>104.05762997328407</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Pc, Summer, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>93.071697566144366</v>
+        <f ca="1">('[1]Pc, Summer, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>118.28059371901139</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Pc, Summer, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>96.075654788865478</v>
+        <f ca="1">('[1]Pc, Summer, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>113.36691402238237</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -17328,100 +17331,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Qc, Summer, S1'!B2*Main!$B$5)</f>
-        <v>10.923190720718422</v>
+        <f ca="1">('[1]Qc, Summer, S1'!B2*Main!$B$5)</f>
+        <v>15.203585595908425</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Qc, Summer, S1'!C2*Main!$B$5)</f>
-        <v>7.9465898049860391</v>
+        <f ca="1">('[1]Qc, Summer, S1'!C2*Main!$B$5)</f>
+        <v>11.225296570310206</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Qc, Summer, S1'!D2*Main!$B$5)</f>
-        <v>7.6908093404214704</v>
+        <f ca="1">('[1]Qc, Summer, S1'!D2*Main!$B$5)</f>
+        <v>10.035518790236159</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Qc, Summer, S1'!E2*Main!$B$5)</f>
-        <v>7.1367617884112944</v>
+        <f ca="1">('[1]Qc, Summer, S1'!E2*Main!$B$5)</f>
+        <v>9.0277031560642698</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Qc, Summer, S1'!F2*Main!$B$5)</f>
-        <v>7.2492576129117641</v>
+        <f ca="1">('[1]Qc, Summer, S1'!F2*Main!$B$5)</f>
+        <v>10.089973840303497</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Qc, Summer, S1'!G2*Main!$B$5)</f>
-        <v>4.0373913786157214</v>
+        <f ca="1">('[1]Qc, Summer, S1'!G2*Main!$B$5)</f>
+        <v>4.4019384506234793</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Qc, Summer, S1'!H2*Main!$B$5)</f>
-        <v>6.5225046736755434</v>
+        <f ca="1">('[1]Qc, Summer, S1'!H2*Main!$B$5)</f>
+        <v>7.9254722488989735</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Qc, Summer, S1'!I2*Main!$B$5)</f>
-        <v>11.280387042003905</v>
+        <f ca="1">('[1]Qc, Summer, S1'!I2*Main!$B$5)</f>
+        <v>15.700753958528599</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Qc, Summer, S1'!J2*Main!$B$5)</f>
-        <v>19.873751538328843</v>
+        <f ca="1">('[1]Qc, Summer, S1'!J2*Main!$B$5)</f>
+        <v>21.697813886657144</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Qc, Summer, S1'!K2*Main!$B$5)</f>
-        <v>22.532262566804892</v>
+        <f ca="1">('[1]Qc, Summer, S1'!K2*Main!$B$5)</f>
+        <v>29.58264340158248</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Qc, Summer, S1'!L2*Main!$B$5)</f>
-        <v>23.888728837188502</v>
+        <f ca="1">('[1]Qc, Summer, S1'!L2*Main!$B$5)</f>
+        <v>30.221140862578906</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Qc, Summer, S1'!M2*Main!$B$5)</f>
-        <v>23.289936649208368</v>
+        <f ca="1">('[1]Qc, Summer, S1'!M2*Main!$B$5)</f>
+        <v>33.781303503575664</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Qc, Summer, S1'!N2*Main!$B$5)</f>
-        <v>27.410943208986641</v>
+        <f ca="1">('[1]Qc, Summer, S1'!N2*Main!$B$5)</f>
+        <v>29.202538883757843</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Qc, Summer, S1'!O2*Main!$B$5)</f>
-        <v>25.295295242292074</v>
+        <f ca="1">('[1]Qc, Summer, S1'!O2*Main!$B$5)</f>
+        <v>34.596843033467181</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Qc, Summer, S1'!P2*Main!$B$5)</f>
-        <v>24.346900265733385</v>
+        <f ca="1">('[1]Qc, Summer, S1'!P2*Main!$B$5)</f>
+        <v>33.388155471354686</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Qc, Summer, S1'!Q2*Main!$B$5)</f>
-        <v>23.288674938527986</v>
+        <f ca="1">('[1]Qc, Summer, S1'!Q2*Main!$B$5)</f>
+        <v>29.483534596847953</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Qc, Summer, S1'!R2*Main!$B$5)</f>
-        <v>24.756419054647342</v>
+        <f ca="1">('[1]Qc, Summer, S1'!R2*Main!$B$5)</f>
+        <v>29.535038598325869</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Qc, Summer, S1'!S2*Main!$B$5)</f>
-        <v>20.922413721918637</v>
+        <f ca="1">('[1]Qc, Summer, S1'!S2*Main!$B$5)</f>
+        <v>23.588119074547745</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Qc, Summer, S1'!T2*Main!$B$5)</f>
-        <v>21.033871790463976</v>
+        <f ca="1">('[1]Qc, Summer, S1'!T2*Main!$B$5)</f>
+        <v>23.739865676846893</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Qc, Summer, S1'!U2*Main!$B$5)</f>
-        <v>18.622760095248196</v>
+        <f ca="1">('[1]Qc, Summer, S1'!U2*Main!$B$5)</f>
+        <v>25.065512288987833</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Qc, Summer, S1'!V2*Main!$B$5)</f>
-        <v>17.500840360305904</v>
+        <f ca="1">('[1]Qc, Summer, S1'!V2*Main!$B$5)</f>
+        <v>22.817707873715115</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Qc, Summer, S1'!W2*Main!$B$5)</f>
-        <v>21.622337490541366</v>
+        <f ca="1">('[1]Qc, Summer, S1'!W2*Main!$B$5)</f>
+        <v>27.622151888540085</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Qc, Summer, S1'!X2*Main!$B$5)</f>
-        <v>18.607098396339318</v>
+        <f ca="1">('[1]Qc, Summer, S1'!X2*Main!$B$5)</f>
+        <v>23.54897518507585</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Qc, Summer, S1'!Y2*Main!$B$5)</f>
-        <v>14.511122721627455</v>
+        <f ca="1">('[1]Qc, Summer, S1'!Y2*Main!$B$5)</f>
+        <v>18.371126306306376</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -17429,100 +17432,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Qc, Summer, S1'!B3*Main!$B$5)</f>
-        <v>-20.580221636632778</v>
+        <f ca="1">('[1]Qc, Summer, S1'!B3*Main!$B$5)</f>
+        <v>-27.621819776947454</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Qc, Summer, S1'!C3*Main!$B$5)</f>
-        <v>-29.21407371762437</v>
+        <f ca="1">('[1]Qc, Summer, S1'!C3*Main!$B$5)</f>
+        <v>-37.621841089349296</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Qc, Summer, S1'!D3*Main!$B$5)</f>
-        <v>-28.889313307648312</v>
+        <f ca="1">('[1]Qc, Summer, S1'!D3*Main!$B$5)</f>
+        <v>-35.435034166226501</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Qc, Summer, S1'!E3*Main!$B$5)</f>
-        <v>-27.461470754348682</v>
+        <f ca="1">('[1]Qc, Summer, S1'!E3*Main!$B$5)</f>
+        <v>-34.400345896206645</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Qc, Summer, S1'!F3*Main!$B$5)</f>
-        <v>-27.374551827076907</v>
+        <f ca="1">('[1]Qc, Summer, S1'!F3*Main!$B$5)</f>
+        <v>-39.453620534828453</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Qc, Summer, S1'!G3*Main!$B$5)</f>
-        <v>-29.511177782674086</v>
+        <f ca="1">('[1]Qc, Summer, S1'!G3*Main!$B$5)</f>
+        <v>-38.476862812921446</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Qc, Summer, S1'!H3*Main!$B$5)</f>
-        <v>-24.794080136083672</v>
+        <f ca="1">('[1]Qc, Summer, S1'!H3*Main!$B$5)</f>
+        <v>-29.424285179322077</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Qc, Summer, S1'!I3*Main!$B$5)</f>
-        <v>-3.9386102860892902</v>
+        <f ca="1">('[1]Qc, Summer, S1'!I3*Main!$B$5)</f>
+        <v>-5.4424452722312875</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Qc, Summer, S1'!J3*Main!$B$5)</f>
-        <v>11.730293072979276</v>
+        <f ca="1">('[1]Qc, Summer, S1'!J3*Main!$B$5)</f>
+        <v>15.184074232955833</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Qc, Summer, S1'!K3*Main!$B$5)</f>
-        <v>17.646260833939714</v>
+        <f ca="1">('[1]Qc, Summer, S1'!K3*Main!$B$5)</f>
+        <v>25.670393008637685</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Qc, Summer, S1'!L3*Main!$B$5)</f>
-        <v>14.319007617529326</v>
+        <f ca="1">('[1]Qc, Summer, S1'!L3*Main!$B$5)</f>
+        <v>19.618689896575187</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Qc, Summer, S1'!M3*Main!$B$5)</f>
-        <v>17.881229344945748</v>
+        <f ca="1">('[1]Qc, Summer, S1'!M3*Main!$B$5)</f>
+        <v>26.879280284059504</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Qc, Summer, S1'!N3*Main!$B$5)</f>
-        <v>18.68916423066274</v>
+        <f ca="1">('[1]Qc, Summer, S1'!N3*Main!$B$5)</f>
+        <v>24.074070580992476</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Qc, Summer, S1'!O3*Main!$B$5)</f>
-        <v>19.615115141148483</v>
+        <f ca="1">('[1]Qc, Summer, S1'!O3*Main!$B$5)</f>
+        <v>21.158704400236648</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Qc, Summer, S1'!P3*Main!$B$5)</f>
-        <v>8.5276096294040169</v>
+        <f ca="1">('[1]Qc, Summer, S1'!P3*Main!$B$5)</f>
+        <v>12.208386632974976</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Qc, Summer, S1'!Q3*Main!$B$5)</f>
-        <v>2.416484175894678</v>
+        <f ca="1">('[1]Qc, Summer, S1'!Q3*Main!$B$5)</f>
+        <v>3.1457823067859176</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Qc, Summer, S1'!R3*Main!$B$5)</f>
-        <v>5.3757144180243062</v>
+        <f ca="1">('[1]Qc, Summer, S1'!R3*Main!$B$5)</f>
+        <v>5.9417933457779908</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Qc, Summer, S1'!S3*Main!$B$5)</f>
-        <v>6.017506177523952</v>
+        <f ca="1">('[1]Qc, Summer, S1'!S3*Main!$B$5)</f>
+        <v>8.5002866781921149</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Qc, Summer, S1'!T3*Main!$B$5)</f>
-        <v>3.702455342556112</v>
+        <f ca="1">('[1]Qc, Summer, S1'!T3*Main!$B$5)</f>
+        <v>4.8312288753469339</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Qc, Summer, S1'!U3*Main!$B$5)</f>
-        <v>-0.72665287959024549</v>
+        <f ca="1">('[1]Qc, Summer, S1'!U3*Main!$B$5)</f>
+        <v>-0.97334857414618114</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Qc, Summer, S1'!V3*Main!$B$5)</f>
-        <v>-2.6401306435055889</v>
+        <f ca="1">('[1]Qc, Summer, S1'!V3*Main!$B$5)</f>
+        <v>-3.3072302703738039</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Qc, Summer, S1'!W3*Main!$B$5)</f>
-        <v>-1.7977262843687434</v>
+        <f ca="1">('[1]Qc, Summer, S1'!W3*Main!$B$5)</f>
+        <v>-2.3988375200350767</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Qc, Summer, S1'!X3*Main!$B$5)</f>
-        <v>-8.9962774827441869</v>
+        <f ca="1">('[1]Qc, Summer, S1'!X3*Main!$B$5)</f>
+        <v>-11.738987110985917</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Qc, Summer, S1'!Y3*Main!$B$5)</f>
-        <v>-13.31880600043168</v>
+        <f ca="1">('[1]Qc, Summer, S1'!Y3*Main!$B$5)</f>
+        <v>-15.095191110480624</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -17530,100 +17533,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Qc, Summer, S1'!B4*Main!$B$5)</f>
-        <v>-30.916713786667398</v>
+        <f ca="1">('[1]Qc, Summer, S1'!B4*Main!$B$5)</f>
+        <v>-38.320978519290961</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Qc, Summer, S1'!C4*Main!$B$5)</f>
-        <v>-35.147421989053463</v>
+        <f ca="1">('[1]Qc, Summer, S1'!C4*Main!$B$5)</f>
+        <v>-37.097968566547642</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Qc, Summer, S1'!D4*Main!$B$5)</f>
-        <v>-36.270297045532025</v>
+        <f ca="1">('[1]Qc, Summer, S1'!D4*Main!$B$5)</f>
+        <v>-47.801361824296073</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Qc, Summer, S1'!E4*Main!$B$5)</f>
-        <v>-44.739977979564216</v>
+        <f ca="1">('[1]Qc, Summer, S1'!E4*Main!$B$5)</f>
+        <v>-58.73918832784927</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Qc, Summer, S1'!F4*Main!$B$5)</f>
-        <v>-44.739977979564216</v>
+        <f ca="1">('[1]Qc, Summer, S1'!F4*Main!$B$5)</f>
+        <v>-49.039138879213603</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Qc, Summer, S1'!G4*Main!$B$5)</f>
-        <v>-42.158825403820124</v>
+        <f ca="1">('[1]Qc, Summer, S1'!G4*Main!$B$5)</f>
+        <v>-54.428055239566746</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Qc, Summer, S1'!H4*Main!$B$5)</f>
-        <v>-16.638688770638595</v>
+        <f ca="1">('[1]Qc, Summer, S1'!H4*Main!$B$5)</f>
+        <v>-23.421401463509085</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Qc, Summer, S1'!I4*Main!$B$5)</f>
-        <v>3.2711294054110986</v>
+        <f ca="1">('[1]Qc, Summer, S1'!I4*Main!$B$5)</f>
+        <v>4.7657657501649231</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Qc, Summer, S1'!J4*Main!$B$5)</f>
-        <v>11.517018641207631</v>
+        <f ca="1">('[1]Qc, Summer, S1'!J4*Main!$B$5)</f>
+        <v>13.43700626640406</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Qc, Summer, S1'!K4*Main!$B$5)</f>
-        <v>12.420314220910189</v>
+        <f ca="1">('[1]Qc, Summer, S1'!K4*Main!$B$5)</f>
+        <v>13.578448437629367</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Qc, Summer, S1'!L4*Main!$B$5)</f>
-        <v>11.046921938318388</v>
+        <f ca="1">('[1]Qc, Summer, S1'!L4*Main!$B$5)</f>
+        <v>11.898284556286008</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Qc, Summer, S1'!M4*Main!$B$5)</f>
-        <v>14.369182188253159</v>
+        <f ca="1">('[1]Qc, Summer, S1'!M4*Main!$B$5)</f>
+        <v>17.999940423556673</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Qc, Summer, S1'!N4*Main!$B$5)</f>
-        <v>21.638532751534648</v>
+        <f ca="1">('[1]Qc, Summer, S1'!N4*Main!$B$5)</f>
+        <v>25.873991994679177</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Qc, Summer, S1'!O4*Main!$B$5)</f>
-        <v>20.681274873104712</v>
+        <f ca="1">('[1]Qc, Summer, S1'!O4*Main!$B$5)</f>
+        <v>27.176900800381514</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Qc, Summer, S1'!P4*Main!$B$5)</f>
-        <v>12.054074359293883</v>
+        <f ca="1">('[1]Qc, Summer, S1'!P4*Main!$B$5)</f>
+        <v>14.814955681846422</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Qc, Summer, S1'!Q4*Main!$B$5)</f>
-        <v>8.1638951589387343</v>
+        <f ca="1">('[1]Qc, Summer, S1'!Q4*Main!$B$5)</f>
+        <v>10.893681750763115</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Qc, Summer, S1'!R4*Main!$B$5)</f>
-        <v>-1.5267571569815053</v>
+        <f ca="1">('[1]Qc, Summer, S1'!R4*Main!$B$5)</f>
+        <v>-1.6238489360114974</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Qc, Summer, S1'!S4*Main!$B$5)</f>
-        <v>-1.5267571569815053</v>
+        <f ca="1">('[1]Qc, Summer, S1'!S4*Main!$B$5)</f>
+        <v>-1.8223193615240139</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Qc, Summer, S1'!T4*Main!$B$5)</f>
-        <v>-1.4115302017376179</v>
+        <f ca="1">('[1]Qc, Summer, S1'!T4*Main!$B$5)</f>
+        <v>-1.8403621274796971</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Qc, Summer, S1'!U4*Main!$B$5)</f>
-        <v>-1.5555638957924769</v>
+        <f ca="1">('[1]Qc, Summer, S1'!U4*Main!$B$5)</f>
+        <v>-1.7862338296126472</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Qc, Summer, S1'!V4*Main!$B$5)</f>
-        <v>-9.6347631335480539</v>
+        <f ca="1">('[1]Qc, Summer, S1'!V4*Main!$B$5)</f>
+        <v>-12.299134112870231</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Qc, Summer, S1'!W4*Main!$B$5)</f>
-        <v>-12.107142764766564</v>
+        <f ca="1">('[1]Qc, Summer, S1'!W4*Main!$B$5)</f>
+        <v>-16.197058113285074</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Qc, Summer, S1'!X4*Main!$B$5)</f>
-        <v>-30.236907052500005</v>
+        <f ca="1">('[1]Qc, Summer, S1'!X4*Main!$B$5)</f>
+        <v>-43.229265146537045</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Qc, Summer, S1'!Y4*Main!$B$5)</f>
-        <v>-35.824161616548928</v>
+        <f ca="1">('[1]Qc, Summer, S1'!Y4*Main!$B$5)</f>
+        <v>-44.876094294976554</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -18477,100 +18480,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Qc, Summer, S2'!B2*Main!$B$5)</f>
-        <v>10.923190720718422</v>
+        <f ca="1">('[1]Qc, Summer, S2'!B2*Main!$B$5)</f>
+        <v>12.439297305743256</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Qc, Summer, S2'!C2*Main!$B$5)</f>
-        <v>9.2992008356219635</v>
+        <f ca="1">('[1]Qc, Summer, S2'!C2*Main!$B$5)</f>
+        <v>11.437094618806627</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Qc, Summer, S2'!D2*Main!$B$5)</f>
-        <v>8.4118227160859842</v>
+        <f ca="1">('[1]Qc, Summer, S2'!D2*Main!$B$5)</f>
+        <v>10.336584353943243</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Qc, Summer, S2'!E2*Main!$B$5)</f>
-        <v>6.7869205242734854</v>
+        <f ca="1">('[1]Qc, Summer, S2'!E2*Main!$B$5)</f>
+        <v>9.2029983629781391</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Qc, Summer, S2'!F2*Main!$B$5)</f>
-        <v>8.3769199082535941</v>
+        <f ca="1">('[1]Qc, Summer, S2'!F2*Main!$B$5)</f>
+        <v>9.0809764562731488</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Qc, Summer, S2'!G2*Main!$B$5)</f>
-        <v>3.8130918575815143</v>
+        <f ca="1">('[1]Qc, Summer, S2'!G2*Main!$B$5)</f>
+        <v>4.8702297751578918</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Qc, Summer, S2'!H2*Main!$B$5)</f>
-        <v>5.8702542063079894</v>
+        <f ca="1">('[1]Qc, Summer, S2'!H2*Main!$B$5)</f>
+        <v>8.1705899473185308</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Qc, Summer, S2'!I2*Main!$B$5)</f>
-        <v>12.408425746204296</v>
+        <f ca="1">('[1]Qc, Summer, S2'!I2*Main!$B$5)</f>
+        <v>14.287686102261025</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Qc, Summer, S2'!J2*Main!$B$5)</f>
-        <v>17.868143584919512</v>
+        <f ca="1">('[1]Qc, Summer, S2'!J2*Main!$B$5)</f>
+        <v>20.555823682096243</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Qc, Summer, S2'!K2*Main!$B$5)</f>
-        <v>21.448980712631577</v>
+        <f ca="1">('[1]Qc, Summer, S2'!K2*Main!$B$5)</f>
+        <v>29.039842605223171</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Qc, Summer, S2'!L2*Main!$B$5)</f>
-        <v>21.286986092544208</v>
+        <f ca="1">('[1]Qc, Summer, S2'!L2*Main!$B$5)</f>
+        <v>26.665712525804917</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Qc, Summer, S2'!M2*Main!$B$5)</f>
-        <v>23.044779421321966</v>
+        <f ca="1">('[1]Qc, Summer, S2'!M2*Main!$B$5)</f>
+        <v>32.245789707958593</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Qc, Summer, S2'!N2*Main!$B$5)</f>
-        <v>27.667120248322966</v>
+        <f ca="1">('[1]Qc, Summer, S2'!N2*Main!$B$5)</f>
+        <v>33.05342313216547</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Qc, Summer, S2'!O2*Main!$B$5)</f>
-        <v>26.0696410150153</v>
+        <f ca="1">('[1]Qc, Summer, S2'!O2*Main!$B$5)</f>
+        <v>34.920178015088375</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Qc, Summer, S2'!P2*Main!$B$5)</f>
-        <v>26.397165551268831</v>
+        <f ca="1">('[1]Qc, Summer, S2'!P2*Main!$B$5)</f>
+        <v>33.067115514899349</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Qc, Summer, S2'!Q2*Main!$B$5)</f>
-        <v>25.518441687961516</v>
+        <f ca="1">('[1]Qc, Summer, S2'!Q2*Main!$B$5)</f>
+        <v>30.414593584116837</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Qc, Summer, S2'!R2*Main!$B$5)</f>
-        <v>23.10599111767085</v>
+        <f ca="1">('[1]Qc, Summer, S2'!R2*Main!$B$5)</f>
+        <v>28.058286668409572</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Qc, Summer, S2'!S2*Main!$B$5)</f>
-        <v>22.59620681967213</v>
+        <f ca="1">('[1]Qc, Summer, S2'!S2*Main!$B$5)</f>
+        <v>25.160660346184258</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Qc, Summer, S2'!T2*Main!$B$5)</f>
-        <v>19.367822539734156</v>
+        <f ca="1">('[1]Qc, Summer, S2'!T2*Main!$B$5)</f>
+        <v>27.91390799365514</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Qc, Summer, S2'!U2*Main!$B$5)</f>
-        <v>20.009561378936894</v>
+        <f ca="1">('[1]Qc, Summer, S2'!U2*Main!$B$5)</f>
+        <v>26.802726011986987</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Qc, Summer, S2'!V2*Main!$B$5)</f>
-        <v>19.465220400748407</v>
+        <f ca="1">('[1]Qc, Summer, S2'!V2*Main!$B$5)</f>
+        <v>20.580677690017556</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Qc, Summer, S2'!W2*Main!$B$5)</f>
-        <v>22.264585138775271</v>
+        <f ca="1">('[1]Qc, Summer, S2'!W2*Main!$B$5)</f>
+        <v>27.353975656612512</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Qc, Summer, S2'!X2*Main!$B$5)</f>
-        <v>18.607098396339318</v>
+        <f ca="1">('[1]Qc, Summer, S2'!X2*Main!$B$5)</f>
+        <v>22.107201194152839</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Qc, Summer, S2'!Y2*Main!$B$5)</f>
-        <v>15.900485535400298</v>
+        <f ca="1">('[1]Qc, Summer, S2'!Y2*Main!$B$5)</f>
+        <v>17.984365752489403</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -18578,100 +18581,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Qc, Summer, S2'!B3*Main!$B$5)</f>
-        <v>-19.950214851837895</v>
+        <f ca="1">('[1]Qc, Summer, S2'!B3*Main!$B$5)</f>
+        <v>-25.780365125150954</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Qc, Summer, S2'!C3*Main!$B$5)</f>
-        <v>-28.394987538625553</v>
+        <f ca="1">('[1]Qc, Summer, S2'!C3*Main!$B$5)</f>
+        <v>-33.175623506062564</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Qc, Summer, S2'!D3*Main!$B$5)</f>
-        <v>-28.889313307648312</v>
+        <f ca="1">('[1]Qc, Summer, S2'!D3*Main!$B$5)</f>
+        <v>-41.089560894879675</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Qc, Summer, S2'!E3*Main!$B$5)</f>
-        <v>-27.186856046805197</v>
+        <f ca="1">('[1]Qc, Summer, S2'!E3*Main!$B$5)</f>
+        <v>-37.496377026865247</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Qc, Summer, S2'!F3*Main!$B$5)</f>
-        <v>-29.140651944952836</v>
+        <f ca="1">('[1]Qc, Summer, S2'!F3*Main!$B$5)</f>
+        <v>-40.55979681150589</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Qc, Summer, S2'!G3*Main!$B$5)</f>
-        <v>-29.812312249844229</v>
+        <f ca="1">('[1]Qc, Summer, S2'!G3*Main!$B$5)</f>
+        <v>-35.081845505898968</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Qc, Summer, S2'!H3*Main!$B$5)</f>
-        <v>-28.186954259968804</v>
+        <f ca="1">('[1]Qc, Summer, S2'!H3*Main!$B$5)</f>
+        <v>-35.963015219171432</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Qc, Summer, S2'!I3*Main!$B$5)</f>
-        <v>-3.7761933670752996</v>
+        <f ca="1">('[1]Qc, Summer, S2'!I3*Main!$B$5)</f>
+        <v>-5.13726142519028</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Qc, Summer, S2'!J3*Main!$B$5)</f>
-        <v>12.642649200877663</v>
+        <f ca="1">('[1]Qc, Summer, S2'!J3*Main!$B$5)</f>
+        <v>16.163691925404596</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Qc, Summer, S2'!K3*Main!$B$5)</f>
-        <v>20.302687196038164</v>
+        <f ca="1">('[1]Qc, Summer, S2'!K3*Main!$B$5)</f>
+        <v>25.908081832791737</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Qc, Summer, S2'!L3*Main!$B$5)</f>
-        <v>13.573225970783009</v>
+        <f ca="1">('[1]Qc, Summer, S2'!L3*Main!$B$5)</f>
+        <v>17.189709242713498</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Qc, Summer, S2'!M3*Main!$B$5)</f>
-        <v>18.874630975220509</v>
+        <f ca="1">('[1]Qc, Summer, S2'!M3*Main!$B$5)</f>
+        <v>25.634869159797489</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Qc, Summer, S2'!N3*Main!$B$5)</f>
-        <v>17.278661269858002</v>
+        <f ca="1">('[1]Qc, Summer, S2'!N3*Main!$B$5)</f>
+        <v>24.074070580992476</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Qc, Summer, S2'!O3*Main!$B$5)</f>
-        <v>19.433493704656364</v>
+        <f ca="1">('[1]Qc, Summer, S2'!O3*Main!$B$5)</f>
+        <v>23.661346856178614</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Qc, Summer, S2'!P3*Main!$B$5)</f>
-        <v>9.0898696049691168</v>
+        <f ca="1">('[1]Qc, Summer, S2'!P3*Main!$B$5)</f>
+        <v>10.799726636862479</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Qc, Summer, S2'!Q3*Main!$B$5)</f>
-        <v>2.3927931545623773</v>
+        <f ca="1">('[1]Qc, Summer, S2'!Q3*Main!$B$5)</f>
+        <v>2.9677191573452051</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Qc, Summer, S2'!R3*Main!$B$5)</f>
-        <v>5.428417500553957</v>
+        <f ca="1">('[1]Qc, Summer, S2'!R3*Main!$B$5)</f>
+        <v>6.8000523846125898</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Qc, Summer, S2'!S3*Main!$B$5)</f>
-        <v>5.8254581080285073</v>
+        <f ca="1">('[1]Qc, Summer, S2'!S3*Main!$B$5)</f>
+        <v>7.7785642243833486</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Qc, Summer, S2'!T3*Main!$B$5)</f>
-        <v>3.5096191267979813</v>
+        <f ca="1">('[1]Qc, Summer, S2'!T3*Main!$B$5)</f>
+        <v>5.1211026078677495</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Qc, Summer, S2'!U3*Main!$B$5)</f>
-        <v>-0.70506913069152533</v>
+        <f ca="1">('[1]Qc, Summer, S2'!U3*Main!$B$5)</f>
+        <v>-0.9553236005508815</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Qc, Summer, S2'!V3*Main!$B$5)</f>
-        <v>-2.8367361169581331</v>
+        <f ca="1">('[1]Qc, Summer, S2'!V3*Main!$B$5)</f>
+        <v>-3.6590632778603789</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Qc, Summer, S2'!W3*Main!$B$5)</f>
-        <v>-2.1299148369151415</v>
+        <f ca="1">('[1]Qc, Summer, S2'!W3*Main!$B$5)</f>
+        <v>-2.4722713216688037</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Qc, Summer, S2'!X3*Main!$B$5)</f>
-        <v>-8.9962774827441869</v>
+        <f ca="1">('[1]Qc, Summer, S2'!X3*Main!$B$5)</f>
+        <v>-12.795495950974651</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Qc, Summer, S2'!Y3*Main!$B$5)</f>
-        <v>-11.542965200374123</v>
+        <f ca="1">('[1]Qc, Summer, S2'!Y3*Main!$B$5)</f>
+        <v>-17.1608488413885</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -18679,100 +18682,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
-        <v>-32.218470156632335</v>
+        <f ca="1">('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
+        <v>-44.843698267255391</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
-        <v>-34.821982896562226</v>
+        <f ca="1">('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
+        <v>-44.436028283007616</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
-        <v>-41.181899770447828</v>
+        <f ca="1">('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
+        <v>-51.114327495286894</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
-        <v>-43.019209595734822</v>
+        <f ca="1">('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
+        <v>-51.733597059390178</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
-        <v>-42.589017499777469</v>
+        <f ca="1">('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
+        <v>-56.044730147672688</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
-        <v>-40.43805701999073</v>
+        <f ca="1">('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
+        <v>-58.73918832784927</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
-        <v>-17.83941888810736</v>
+        <f ca="1">('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
+        <v>-23.206526220724598</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
-        <v>3.6266869494775218</v>
+        <f ca="1">('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
+        <v>4.8103056169888943</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
-        <v>11.629930588670449</v>
+        <f ca="1">('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
+        <v>13.295564095178754</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
-        <v>11.065370851356349</v>
+        <f ca="1">('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
+        <v>14.002774951305284</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
-        <v>10.73719515500105</v>
+        <f ca="1">('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
+        <v>13.579563895761202</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
-        <v>15.094898460387158</v>
+        <f ca="1">('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
+        <v>18.545393163664446</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
-        <v>19.081251608171463</v>
+        <f ca="1">('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
+        <v>22.91696433814441</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
-        <v>18.450941308358129</v>
+        <f ca="1">('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
+        <v>26.160941891956035</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
-        <v>10.234591437136315</v>
+        <f ca="1">('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
+        <v>12.963086221615621</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
-        <v>8.0751571680807039</v>
+        <f ca="1">('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
+        <v>10.004401607843677</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
-        <v>-1.3251099853047026</v>
+        <f ca="1">('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
+        <v>-1.9305759572581138</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
-        <v>-1.2963032464937307</v>
+        <f ca="1">('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
+        <v>-1.9847042551251639</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
-        <v>-1.4259335711431038</v>
+        <f ca="1">('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
+        <v>-1.6238489360114974</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
-        <v>-1.4835470487650475</v>
+        <f ca="1">('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
+        <v>-1.7321055317455971</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
-        <v>-8.3501280490749785</v>
+        <f ca="1">('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
+        <v>-10.80484679074581</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
-        <v>-11.519417387836148</v>
+        <f ca="1">('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
+        <v>-14.135614353412425</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
-        <v>-34.838175517010875</v>
+        <f ca="1">('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
+        <v>-41.994143285207414</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
-        <v>-29.90824501932066</v>
+        <f ca="1">('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
+        <v>-41.582435998097537</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -19626,100 +19629,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Qc, Summer, S3'!B2*Main!$B$5)</f>
-        <v>11.364531759939368</v>
+        <f ca="1">('[1]Qc, Summer, S3'!B2*Main!$B$5)</f>
+        <v>13.545012621809324</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Qc, Summer, S3'!C2*Main!$B$5)</f>
-        <v>8.7074335097187472</v>
+        <f ca="1">('[1]Qc, Summer, S3'!C2*Main!$B$5)</f>
+        <v>11.437094618806627</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Qc, Summer, S3'!D2*Main!$B$5)</f>
-        <v>7.6908093404214704</v>
+        <f ca="1">('[1]Qc, Summer, S3'!D2*Main!$B$5)</f>
+        <v>9.8348084144314356</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Qc, Summer, S3'!E2*Main!$B$5)</f>
-        <v>6.9968252827561708</v>
+        <f ca="1">('[1]Qc, Summer, S3'!E2*Main!$B$5)</f>
+        <v>8.0635795180379883</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Qc, Summer, S3'!F2*Main!$B$5)</f>
-        <v>7.4103522265320256</v>
+        <f ca="1">('[1]Qc, Summer, S3'!F2*Main!$B$5)</f>
+        <v>9.3836756714822531</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Qc, Summer, S3'!G2*Main!$B$5)</f>
-        <v>3.8130918575815143</v>
+        <f ca="1">('[1]Qc, Summer, S3'!G2*Main!$B$5)</f>
+        <v>4.77657151025101</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Qc, Summer, S3'!H2*Main!$B$5)</f>
-        <v>6.4572796269387878</v>
+        <f ca="1">('[1]Qc, Summer, S3'!H2*Main!$B$5)</f>
+        <v>8.6608253441576419</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Qc, Summer, S3'!I2*Main!$B$5)</f>
-        <v>13.035113915204514</v>
+        <f ca="1">('[1]Qc, Summer, S3'!I2*Main!$B$5)</f>
+        <v>15.700753958528599</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Qc, Summer, S3'!J2*Main!$B$5)</f>
-        <v>17.685815589155027</v>
+        <f ca="1">('[1]Qc, Summer, S3'!J2*Main!$B$5)</f>
+        <v>23.981794295778947</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Qc, Summer, S3'!K2*Main!$B$5)</f>
-        <v>21.448980712631577</v>
+        <f ca="1">('[1]Qc, Summer, S3'!K2*Main!$B$5)</f>
+        <v>27.140039817965576</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Qc, Summer, S3'!L2*Main!$B$5)</f>
-        <v>21.523508160239146</v>
+        <f ca="1">('[1]Qc, Summer, S3'!L2*Main!$B$5)</f>
+        <v>30.517426557310074</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Qc, Summer, S3'!M2*Main!$B$5)</f>
-        <v>24.025408332867581</v>
+        <f ca="1">('[1]Qc, Summer, S3'!M2*Main!$B$5)</f>
+        <v>28.560556598477611</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Qc, Summer, S3'!N2*Main!$B$5)</f>
-        <v>25.105349854959723</v>
+        <f ca="1">('[1]Qc, Summer, S3'!N2*Main!$B$5)</f>
+        <v>33.05342313216547</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Qc, Summer, S3'!O2*Main!$B$5)</f>
-        <v>24.779064727143254</v>
+        <f ca="1">('[1]Qc, Summer, S3'!O2*Main!$B$5)</f>
+        <v>29.746818309149351</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Qc, Summer, S3'!P2*Main!$B$5)</f>
-        <v>25.628316069193037</v>
+        <f ca="1">('[1]Qc, Summer, S3'!P2*Main!$B$5)</f>
+        <v>32.425035601988682</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Qc, Summer, S3'!Q2*Main!$B$5)</f>
-        <v>25.022937965865175</v>
+        <f ca="1">('[1]Qc, Summer, S3'!Q2*Main!$B$5)</f>
+        <v>31.656005567142017</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Qc, Summer, S3'!R2*Main!$B$5)</f>
-        <v>25.935296152487691</v>
+        <f ca="1">('[1]Qc, Summer, S3'!R2*Main!$B$5)</f>
+        <v>29.830388984309128</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Qc, Summer, S3'!S2*Main!$B$5)</f>
-        <v>20.08551717304189</v>
+        <f ca="1">('[1]Qc, Summer, S3'!S2*Main!$B$5)</f>
+        <v>25.160660346184258</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Qc, Summer, S3'!T2*Main!$B$5)</f>
-        <v>20.200847165099066</v>
+        <f ca="1">('[1]Qc, Summer, S3'!T2*Main!$B$5)</f>
+        <v>23.478988032046377</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Qc, Summer, S3'!U2*Main!$B$5)</f>
-        <v>19.217103502543353</v>
+        <f ca="1">('[1]Qc, Summer, S3'!U2*Main!$B$5)</f>
+        <v>26.802726011986987</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Qc, Summer, S3'!V2*Main!$B$5)</f>
-        <v>19.108060393395228</v>
+        <f ca="1">('[1]Qc, Summer, S3'!V2*Main!$B$5)</f>
+        <v>23.488816928824384</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Qc, Summer, S3'!W2*Main!$B$5)</f>
-        <v>21.622337490541366</v>
+        <f ca="1">('[1]Qc, Summer, S3'!W2*Main!$B$5)</f>
+        <v>25.208565801191924</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Qc, Summer, S3'!X2*Main!$B$5)</f>
-        <v>20.333530206308946</v>
+        <f ca="1">('[1]Qc, Summer, S3'!X2*Main!$B$5)</f>
+        <v>22.347496859306673</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Qc, Summer, S3'!Y2*Main!$B$5)</f>
-        <v>15.437364597476016</v>
+        <f ca="1">('[1]Qc, Summer, S3'!Y2*Main!$B$5)</f>
+        <v>18.951267137031842</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -19727,100 +19730,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Qc, Summer, S3'!B3*Main!$B$5)</f>
-        <v>-22.26023972941913</v>
+        <f ca="1">('[1]Qc, Summer, S3'!B3*Main!$B$5)</f>
+        <v>-25.780365125150954</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Qc, Summer, S3'!C3*Main!$B$5)</f>
-        <v>-24.845614096297361</v>
+        <f ca="1">('[1]Qc, Summer, S3'!C3*Main!$B$5)</f>
+        <v>-31.123523083007147</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Qc, Summer, S3'!D3*Main!$B$5)</f>
-        <v>-27.986522266784302</v>
+        <f ca="1">('[1]Qc, Summer, S3'!D3*Main!$B$5)</f>
+        <v>-38.073813306264647</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Qc, Summer, S3'!E3*Main!$B$5)</f>
-        <v>-25.264553094000789</v>
+        <f ca="1">('[1]Qc, Summer, S3'!E3*Main!$B$5)</f>
+        <v>-36.808370108941112</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Qc, Summer, S3'!F3*Main!$B$5)</f>
-        <v>-30.906752062828762</v>
+        <f ca="1">('[1]Qc, Summer, S3'!F3*Main!$B$5)</f>
+        <v>-38.347444258151022</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Qc, Summer, S3'!G3*Main!$B$5)</f>
-        <v>-27.102102045312936</v>
+        <f ca="1">('[1]Qc, Summer, S3'!G3*Main!$B$5)</f>
+        <v>-40.74020768426977</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Qc, Summer, S3'!H3*Main!$B$5)</f>
-        <v>-25.577051087749471</v>
+        <f ca="1">('[1]Qc, Summer, S3'!H3*Main!$B$5)</f>
+        <v>-31.058967689284412</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Qc, Summer, S3'!I3*Main!$B$5)</f>
-        <v>-4.1416314348567793</v>
+        <f ca="1">('[1]Qc, Summer, S3'!I3*Main!$B$5)</f>
+        <v>-4.8320775781492733</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Qc, Summer, S3'!J3*Main!$B$5)</f>
-        <v>13.94601509787536</v>
+        <f ca="1">('[1]Qc, Summer, S3'!J3*Main!$B$5)</f>
+        <v>16.980040002445232</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Qc, Summer, S3'!K3*Main!$B$5)</f>
-        <v>20.682176676337942</v>
+        <f ca="1">('[1]Qc, Summer, S3'!K3*Main!$B$5)</f>
+        <v>22.580438294634998</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Qc, Summer, S3'!L3*Main!$B$5)</f>
-        <v>15.51225825232344</v>
+        <f ca="1">('[1]Qc, Summer, S3'!L3*Main!$B$5)</f>
+        <v>20.366068559301862</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Qc, Summer, S3'!M3*Main!$B$5)</f>
-        <v>21.65615553998985</v>
+        <f ca="1">('[1]Qc, Summer, S3'!M3*Main!$B$5)</f>
+        <v>26.132633609502296</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Qc, Summer, S3'!N3*Main!$B$5)</f>
-        <v>16.397096919355043</v>
+        <f ca="1">('[1]Qc, Summer, S3'!N3*Main!$B$5)</f>
+        <v>20.981988121048488</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Qc, Summer, S3'!O3*Main!$B$5)</f>
-        <v>18.525386522195788</v>
+        <f ca="1">('[1]Qc, Summer, S3'!O3*Main!$B$5)</f>
+        <v>22.06875620239736</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Qc, Summer, S3'!P3*Main!$B$5)</f>
-        <v>9.9332595683167657</v>
+        <f ca="1">('[1]Qc, Summer, S3'!P3*Main!$B$5)</f>
+        <v>12.090998299965602</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Qc, Summer, S3'!Q3*Main!$B$5)</f>
-        <v>2.5823213252207835</v>
+        <f ca="1">('[1]Qc, Summer, S3'!Q3*Main!$B$5)</f>
+        <v>2.878687582624849</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Qc, Summer, S3'!R3*Main!$B$5)</f>
-        <v>5.2703082529650063</v>
+        <f ca="1">('[1]Qc, Summer, S3'!R3*Main!$B$5)</f>
+        <v>6.8000523846125898</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Qc, Summer, S3'!S3*Main!$B$5)</f>
-        <v>6.5936503860102889</v>
+        <f ca="1">('[1]Qc, Summer, S3'!S3*Main!$B$5)</f>
+        <v>7.2172245380876436</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Qc, Summer, S3'!T3*Main!$B$5)</f>
-        <v>3.7410225857077384</v>
+        <f ca="1">('[1]Qc, Summer, S3'!T3*Main!$B$5)</f>
+        <v>5.0727903191142811</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Qc, Summer, S3'!U3*Main!$B$5)</f>
-        <v>-0.69787454772528523</v>
+        <f ca="1">('[1]Qc, Summer, S3'!U3*Main!$B$5)</f>
+        <v>-0.91026116656263245</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Qc, Summer, S3'!V3*Main!$B$5)</f>
-        <v>-3.0333415904106773</v>
+        <f ca="1">('[1]Qc, Summer, S3'!V3*Main!$B$5)</f>
+        <v>-3.5183300748657489</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Qc, Summer, S3'!W3*Main!$B$5)</f>
-        <v>-1.9931313152783892</v>
+        <f ca="1">('[1]Qc, Summer, S3'!W3*Main!$B$5)</f>
+        <v>-2.6925727265699844</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Qc, Summer, S3'!X3*Main!$B$5)</f>
-        <v>-8.4340101400726777</v>
+        <f ca="1">('[1]Qc, Summer, S3'!X3*Main!$B$5)</f>
+        <v>-11.034647884326763</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Qc, Summer, S3'!Y3*Main!$B$5)</f>
-        <v>-12.430885600402901</v>
+        <f ca="1">('[1]Qc, Summer, S3'!Y3*Main!$B$5)</f>
+        <v>-15.095191110480624</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -19828,100 +19831,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
-        <v>-32.543909249123573</v>
+        <f ca="1">('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
+        <v>-43.213018330264291</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
-        <v>-35.4728610815447</v>
+        <f ca="1">('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
+        <v>-40.35932844052985</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
-        <v>-35.514665857083443</v>
+        <f ca="1">('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
+        <v>-50.167765875003795</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
-        <v>-45.600362171478906</v>
+        <f ca="1">('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
+        <v>-58.200296691813946</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
-        <v>-40.007864924033385</v>
+        <f ca="1">('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
+        <v>-55.505838511637371</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
-        <v>-41.728633307862772</v>
+        <f ca="1">('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
+        <v>-58.73918832784927</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
-        <v>-17.667886014183253</v>
+        <f ca="1">('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
+        <v>-21.917274764017673</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
-        <v>3.8400214759173763</v>
+        <f ca="1">('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
+        <v>4.0085880141574117</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
-        <v>12.194490325984551</v>
+        <f ca="1">('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
+        <v>15.55863883478365</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
-        <v>11.742842536133269</v>
+        <f ca="1">('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
+        <v>14.144217122530591</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
-        <v>9.7047725439432551</v>
+        <f ca="1">('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
+        <v>12.415601276124526</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
-        <v>13.64346591611916</v>
+        <f ca="1">('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
+        <v>18.727210743700379</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
-        <v>20.261535212800624</v>
+        <f ca="1">('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
+        <v>23.656221252278101</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
-        <v>18.653698905153274</v>
+        <f ca="1">('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
+        <v>27.684880254594251</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
-        <v>10.575744485040859</v>
+        <f ca="1">('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
+        <v>13.390440712438112</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
-        <v>8.3413711406547915</v>
+        <f ca="1">('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
+        <v>11.227161804357905</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
-        <v>-1.569967265197963</v>
+        <f ca="1">('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
+        <v>-1.7501482977012806</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
-        <v>-1.4691436793595616</v>
+        <f ca="1">('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
+        <v>-1.9125331913024304</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
-        <v>-1.4403369405485897</v>
+        <f ca="1">('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
+        <v>-1.6960199998342307</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
-        <v>-1.3395133547101885</v>
+        <f ca="1">('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
+        <v>-1.948618723213797</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
-        <v>-8.625406995747781</v>
+        <f ca="1">('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
+        <v>-11.609463041120497</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
-        <v>-12.224687840152647</v>
+        <f ca="1">('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
+        <v>-16.049812130437026</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
-        <v>-31.551555185217396</v>
+        <f ca="1">('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
+        <v>-41.17072871098766</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
-        <v>-29.90824501932066</v>
+        <f ca="1">('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
+        <v>-40.347314136767906</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28314,100 +28317,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Pc, Winter, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>54.340659911972587</v>
+        <f ca="1">('[1]Pc, Winter, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>64.665786969367687</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Pc, Winter, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>54.101470136502186</v>
+        <f ca="1">('[1]Pc, Winter, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>67.919267863819783</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Pc, Winter, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>46.851880668294797</v>
+        <f ca="1">('[1]Pc, Winter, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>59.429212089443851</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Pc, Winter, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>50.667597213444594</v>
+        <f ca="1">('[1]Pc, Winter, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>54.320729057929746</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Pc, Winter, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>48.363260913736546</v>
+        <f ca="1">('[1]Pc, Winter, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>56.229676419708134</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Pc, Winter, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>52.183441476871245</v>
+        <f ca="1">('[1]Pc, Winter, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>58.551470821631952</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Pc, Winter, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>56.765186035215287</v>
+        <f ca="1">('[1]Pc, Winter, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>81.407087073133425</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Pc, Winter, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>59.946073611803563</v>
+        <f ca="1">('[1]Pc, Winter, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>74.103019630323757</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Pc, Winter, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>68.025641007149304</v>
+        <f ca="1">('[1]Pc, Winter, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>86.732003001583649</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Pc, Winter, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>69.231391140526355</v>
+        <f ca="1">('[1]Pc, Winter, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>90.839479604625154</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Pc, Winter, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>72.264940257928217</v>
+        <f ca="1">('[1]Pc, Winter, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>85.096482932844978</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Pc, Winter, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>71.661035403964647</v>
+        <f ca="1">('[1]Pc, Winter, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>83.487504953241142</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Pc, Winter, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>64.770159393063736</v>
+        <f ca="1">('[1]Pc, Winter, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>96.439430367735426</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Pc, Winter, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>65.779271115267505</v>
+        <f ca="1">('[1]Pc, Winter, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>94.592448000552878</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Pc, Winter, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>68.48424990847775</v>
+        <f ca="1">('[1]Pc, Winter, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>77.825980910377552</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Pc, Winter, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>60.165219524700881</v>
+        <f ca="1">('[1]Pc, Winter, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>88.518460515322815</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Pc, Winter, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>63.92752775187251</v>
+        <f ca="1">('[1]Pc, Winter, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>92.296264514606548</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Pc, Winter, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>82.560343191552221</v>
+        <f ca="1">('[1]Pc, Winter, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>105.61822430628982</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Pc, Winter, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>76.925087994705819</v>
+        <f ca="1">('[1]Pc, Winter, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>104.66498132160108</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Pc, Winter, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>73.8341700394067</v>
+        <f ca="1">('[1]Pc, Winter, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>93.196137165462147</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Pc, Winter, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>78.222466821448975</v>
+        <f ca="1">('[1]Pc, Winter, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>93.821595428159554</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Pc, Winter, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>75.546828080283021</v>
+        <f ca="1">('[1]Pc, Winter, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>83.610116635888957</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Pc, Winter, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>71.81840798168119</v>
+        <f ca="1">('[1]Pc, Winter, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>92.109279740542078</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Pc, Winter, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>66.654981785546752</v>
+        <f ca="1">('[1]Pc, Winter, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>83.580484134540939</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -28415,100 +28418,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Pc, Winter, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>62.950439249871401</v>
+        <f ca="1">('[1]Pc, Winter, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>71.028427876507692</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Pc, Winter, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>62.951078747505633</v>
+        <f ca="1">('[1]Pc, Winter, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>70.109564973280087</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Pc, Winter, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>56.391803406670391</v>
+        <f ca="1">('[1]Pc, Winter, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>64.866004896484</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Pc, Winter, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>48.992081791382702</v>
+        <f ca="1">('[1]Pc, Winter, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>60.522174084128679</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Pc, Winter, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>55.284874739006213</v>
+        <f ca="1">('[1]Pc, Winter, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>66.846779821648241</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Pc, Winter, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>62.264494340453631</v>
+        <f ca="1">('[1]Pc, Winter, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>68.282454735937449</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Pc, Winter, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>72.501496157610518</v>
+        <f ca="1">('[1]Pc, Winter, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>83.194290459378664</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Pc, Winter, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>74.56120145827542</v>
+        <f ca="1">('[1]Pc, Winter, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>94.148654064858306</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Pc, Winter, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>86.015204727935668</v>
+        <f ca="1">('[1]Pc, Winter, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>103.37197674600898</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Pc, Winter, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>84.034374352162573</v>
+        <f ca="1">('[1]Pc, Winter, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>117.71635050302866</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Pc, Winter, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>86.29030679418959</v>
+        <f ca="1">('[1]Pc, Winter, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>101.74215775166294</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Pc, Winter, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>81.924759417978692</v>
+        <f ca="1">('[1]Pc, Winter, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>96.201252992609298</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Pc, Winter, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>76.542889149691376</v>
+        <f ca="1">('[1]Pc, Winter, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>95.561388127025509</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Pc, Winter, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>91.846451002189866</v>
+        <f ca="1">('[1]Pc, Winter, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>113.44124362010857</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Pc, Winter, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>72.325456804645782</v>
+        <f ca="1">('[1]Pc, Winter, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>104.38394176867592</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Pc, Winter, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>82.207804805272033</v>
+        <f ca="1">('[1]Pc, Winter, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>104.22427843711702</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Pc, Winter, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>75.117276253406132</v>
+        <f ca="1">('[1]Pc, Winter, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>99.58200596299649</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Pc, Winter, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>91.435506300045816</v>
+        <f ca="1">('[1]Pc, Winter, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>119.21652791645998</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Pc, Winter, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>91.665341562426576</v>
+        <f ca="1">('[1]Pc, Winter, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>114.4094978149387</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Pc, Winter, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>82.594985984828625</v>
+        <f ca="1">('[1]Pc, Winter, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>113.68767757247278</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Pc, Winter, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>85.09736542677426</v>
+        <f ca="1">('[1]Pc, Winter, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>106.15367980816568</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Pc, Winter, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>73.782665953263802</v>
+        <f ca="1">('[1]Pc, Winter, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>107.64983869715925</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Pc, Winter, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>79.393504561024997</v>
+        <f ca="1">('[1]Pc, Winter, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>93.959528568112901</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Pc, Winter, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>72.286951674365639</v>
+        <f ca="1">('[1]Pc, Winter, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>83.654156352728123</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -28516,100 +28519,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Pc, Winter, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>70.315185319258575</v>
+        <f ca="1">('[1]Pc, Winter, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>90.592377541671738</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Pc, Winter, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>67.890638154229933</v>
+        <f ca="1">('[1]Pc, Winter, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>85.035160296490631</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Pc, Winter, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>62.381829669978544</v>
+        <f ca="1">('[1]Pc, Winter, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>65.322494754166087</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Pc, Winter, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>64.475352186387354</v>
+        <f ca="1">('[1]Pc, Winter, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>82.403677787023454</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Pc, Winter, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>59.684292491994924</v>
+        <f ca="1">('[1]Pc, Winter, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>79.468691835139026</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Pc, Winter, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>60.508787570390282</v>
+        <f ca="1">('[1]Pc, Winter, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>69.517981114959269</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Pc, Winter, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>94.688558287829721</v>
+        <f ca="1">('[1]Pc, Winter, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>117.07175211966577</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Pc, Winter, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>104.46476214674038</v>
+        <f ca="1">('[1]Pc, Winter, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>110.39038113817625</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Pc, Winter, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>97.658870520894183</v>
+        <f ca="1">('[1]Pc, Winter, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>126.00805681890309</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Pc, Winter, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>106.46172104105385</v>
+        <f ca="1">('[1]Pc, Winter, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>121.28666649939704</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Pc, Winter, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>89.268390005485571</v>
+        <f ca="1">('[1]Pc, Winter, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>132.55519710128274</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Pc, Winter, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>106.39723700281407</v>
+        <f ca="1">('[1]Pc, Winter, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>127.63970796156262</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Pc, Winter, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>96.93480689877407</v>
+        <f ca="1">('[1]Pc, Winter, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>129.91920366250312</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Pc, Winter, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>93.137486852184026</v>
+        <f ca="1">('[1]Pc, Winter, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>124.25515235335166</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Pc, Winter, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>103.4852677997597</v>
+        <f ca="1">('[1]Pc, Winter, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>108.08270494773176</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Pc, Winter, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>95.1305296410479</v>
+        <f ca="1">('[1]Pc, Winter, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>100.06932504578076</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Pc, Winter, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>86.950198173040889</v>
+        <f ca="1">('[1]Pc, Winter, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>113.87557774230037</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Pc, Winter, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>90.096862444965907</v>
+        <f ca="1">('[1]Pc, Winter, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>108.54801401618977</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Pc, Winter, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>90.465221434604487</v>
+        <f ca="1">('[1]Pc, Winter, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>127.64267576972235</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Pc, Winter, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>91.183184219236267</v>
+        <f ca="1">('[1]Pc, Winter, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>127.76170962474191</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Pc, Winter, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>96.714055815646518</v>
+        <f ca="1">('[1]Pc, Winter, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>108.19155478391171</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Pc, Winter, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>77.817388595918629</v>
+        <f ca="1">('[1]Pc, Winter, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>99.173326542317568</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Pc, Winter, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>79.139122072667206</v>
+        <f ca="1">('[1]Pc, Winter, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>93.255124221180182</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Pc, Winter, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>78.726541064757328</v>
+        <f ca="1">('[1]Pc, Winter, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>85.883556309420172</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -29461,100 +29464,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Pc, Winter, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>56.380567848216899</v>
+        <f ca="1">('[1]Pc, Winter, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>64.665786969367687</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Pc, Winter, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>50.960494794068111</v>
+        <f ca="1">('[1]Pc, Winter, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>62.298372464707185</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Pc, Winter, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>50.653844695401588</v>
+        <f ca="1">('[1]Pc, Winter, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>53.079036175106516</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Pc, Winter, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>48.997902141936812</v>
+        <f ca="1">('[1]Pc, Winter, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>54.843626106260302</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Pc, Winter, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>49.237098762173986</v>
+        <f ca="1">('[1]Pc, Winter, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>58.966267306658793</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Pc, Winter, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>53.598670480289933</v>
+        <f ca="1">('[1]Pc, Winter, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>65.642768687713954</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Pc, Winter, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>65.303793000679534</v>
+        <f ca="1">('[1]Pc, Winter, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>72.85019554430761</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Pc, Winter, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>58.036951071963998</v>
+        <f ca="1">('[1]Pc, Winter, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>88.452100125582973</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Pc, Winter, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>68.025641007149304</v>
+        <f ca="1">('[1]Pc, Winter, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>92.638135056818399</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Pc, Winter, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>72.017221585409374</v>
+        <f ca="1">('[1]Pc, Winter, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>90.839479604625154</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Pc, Winter, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>70.156450594745834</v>
+        <f ca="1">('[1]Pc, Winter, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>85.976901591419121</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Pc, Winter, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>76.529529261040167</v>
+        <f ca="1">('[1]Pc, Winter, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>83.487504953241142</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Pc, Winter, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>70.302581119829654</v>
+        <f ca="1">('[1]Pc, Winter, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>85.177634269351415</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Pc, Winter, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>63.747396569323755</v>
+        <f ca="1">('[1]Pc, Winter, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>91.198738667530606</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Pc, Winter, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>66.517053514989158</v>
+        <f ca="1">('[1]Pc, Winter, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>78.64740130439219</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Pc, Winter, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>64.672232641140596</v>
+        <f ca="1">('[1]Pc, Winter, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>85.292271637277807</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Pc, Winter, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>67.261749588306841</v>
+        <f ca="1">('[1]Pc, Winter, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>76.424796271796495</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Pc, Winter, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>75.010720350797186</v>
+        <f ca="1">('[1]Pc, Winter, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>101.83532950897822</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Pc, Winter, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>84.62282806109711</v>
+        <f ca="1">('[1]Pc, Winter, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>89.236533324961101</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Pc, Winter, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>80.028936221192524</v>
+        <f ca="1">('[1]Pc, Winter, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>94.166142110325694</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Pc, Winter, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>72.963233119144334</v>
+        <f ca="1">('[1]Pc, Winter, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>89.115795589369128</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Pc, Winter, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>75.546828080283021</v>
+        <f ca="1">('[1]Pc, Winter, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>83.610116635888957</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Pc, Winter, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>67.241973635607508</v>
+        <f ca="1">('[1]Pc, Winter, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>79.824723533113186</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Pc, Winter, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>64.343472207812468</v>
+        <f ca="1">('[1]Pc, Winter, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>74.893761227990623</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -29562,100 +29565,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Pc, Winter, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>59.664837379404467</v>
+        <f ca="1">('[1]Pc, Winter, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>68.284563164323941</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Pc, Winter, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>61.418758977833697</v>
+        <f ca="1">('[1]Pc, Winter, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>76.507902796217337</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Pc, Winter, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>53.003989905185477</v>
+        <f ca="1">('[1]Pc, Winter, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>61.228431866294379</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Pc, Winter, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>51.87537565044839</v>
+        <f ca="1">('[1]Pc, Winter, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>65.939926849058168</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Pc, Winter, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>51.880456321461139</v>
+        <f ca="1">('[1]Pc, Winter, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>71.111415615797085</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Pc, Winter, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>54.245513828693412</v>
+        <f ca="1">('[1]Pc, Winter, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>73.639889634349231</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Pc, Winter, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>68.036150428081811</v>
+        <f ca="1">('[1]Pc, Winter, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>82.395199777975733</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Pc, Winter, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>75.329046440169776</v>
+        <f ca="1">('[1]Pc, Winter, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>94.148654064858306</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Pc, Winter, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>91.0310519586439</v>
+        <f ca="1">('[1]Pc, Winter, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>109.65521194642409</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Pc, Winter, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>77.263182363404894</v>
+        <f ca="1">('[1]Pc, Winter, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>99.691856628269463</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Pc, Winter, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>91.231651948359044</v>
+        <f ca="1">('[1]Pc, Winter, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>96.583900933818882</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Pc, Winter, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>78.613550412943269</v>
+        <f ca="1">('[1]Pc, Winter, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>107.60790795106561</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Pc, Winter, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>83.986987028753674</v>
+        <f ca="1">('[1]Pc, Winter, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>100.74197053111996</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Pc, Winter, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>81.269449144194226</v>
+        <f ca="1">('[1]Pc, Winter, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>94.076495800887116</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Pc, Winter, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>81.532432110602187</v>
+        <f ca="1">('[1]Pc, Winter, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>89.9672369053458</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Pc, Winter, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>71.774080733000332</v>
+        <f ca="1">('[1]Pc, Winter, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>93.021349682892364</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Pc, Winter, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>81.326529250005791</v>
+        <f ca="1">('[1]Pc, Winter, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>94.720639178629597</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Pc, Winter, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>87.993969532387027</v>
+        <f ca="1">('[1]Pc, Winter, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>113.82761155610683</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Pc, Winter, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>93.379872188079759</v>
+        <f ca="1">('[1]Pc, Winter, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>107.96623986640705</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Pc, Winter, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>82.594985984828625</v>
+        <f ca="1">('[1]Pc, Winter, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>98.964672445107979</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Pc, Winter, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>90.872920675108787</v>
+        <f ca="1">('[1]Pc, Winter, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>95.818102994141256</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Pc, Winter, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>70.689380967309376</v>
+        <f ca="1">('[1]Pc, Winter, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>95.056458616434526</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Pc, Winter, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>66.539772599037519</v>
+        <f ca="1">('[1]Pc, Winter, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>94.806979681873941</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Pc, Winter, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>69.218110186127944</v>
+        <f ca="1">('[1]Pc, Winter, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>82.116449801751926</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -29663,100 +29666,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Pc, Winter, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>65.442191092276431</v>
+        <f ca="1">('[1]Pc, Winter, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>92.11844918271683</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Pc, Winter, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>67.324608511406325</v>
+        <f ca="1">('[1]Pc, Winter, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>86.453264641652467</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Pc, Winter, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>63.406289704890483</v>
+        <f ca="1">('[1]Pc, Winter, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>74.947374246162155</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Pc, Winter, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>61.72068825347192</v>
+        <f ca="1">('[1]Pc, Winter, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>80.333255711648874</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Pc, Winter, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>59.684292491994924</v>
+        <f ca="1">('[1]Pc, Winter, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>69.15268549681069</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Pc, Winter, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>59.936444862899094</v>
+        <f ca="1">('[1]Pc, Winter, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>73.102783124471159</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Pc, Winter, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>98.94741904193873</v>
+        <f ca="1">('[1]Pc, Winter, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>112.80377144592335</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Pc, Winter, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>104.46476214674038</v>
+        <f ca="1">('[1]Pc, Winter, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>110.39038113817625</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Pc, Winter, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>104.93936866976162</v>
+        <f ca="1">('[1]Pc, Winter, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>139.03678646072953</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Pc, Winter, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>107.50234114430835</v>
+        <f ca="1">('[1]Pc, Winter, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>136.92939378901173</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Pc, Winter, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>100.08114370975173</v>
+        <f ca="1">('[1]Pc, Winter, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>125.16707792657895</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Pc, Winter, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>103.17079628313395</v>
+        <f ca="1">('[1]Pc, Winter, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>138.41754068226891</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Pc, Winter, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>110.12030879910216</v>
+        <f ca="1">('[1]Pc, Winter, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>135.00141032376533</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Pc, Winter, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>103.58187779424013</v>
+        <f ca="1">('[1]Pc, Winter, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>109.98230251369205</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Pc, Winter, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>103.4852677997597</v>
+        <f ca="1">('[1]Pc, Winter, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>116.15580782180633</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Pc, Winter, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>95.1305296410479</v>
+        <f ca="1">('[1]Pc, Winter, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>102.22463387310617</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Pc, Winter, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>84.367707202599703</v>
+        <f ca="1">('[1]Pc, Winter, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>109.56220921946118</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Pc, Winter, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>96.476216233939383</v>
+        <f ca="1">('[1]Pc, Winter, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>116.53928217870114</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Pc, Winter, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>85.908540156766293</v>
+        <f ca="1">('[1]Pc, Winter, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>127.64267576972235</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Pc, Winter, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>87.482942224137375</v>
+        <f ca="1">('[1]Pc, Winter, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>123.12650251330507</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Pc, Winter, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>90.41348159348</v>
+        <f ca="1">('[1]Pc, Winter, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>123.97672044572747</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Pc, Winter, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>77.004044951059583</v>
+        <f ca="1">('[1]Pc, Winter, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>108.34303659511282</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Pc, Winter, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>77.763316977503749</v>
+        <f ca="1">('[1]Pc, Winter, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>98.425441381111469</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Pc, Winter, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>75.398196594934035</v>
+        <f ca="1">('[1]Pc, Winter, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>83.38195247222184</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -30608,100 +30611,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Pc, Winter, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>59.95040673664446</v>
+        <f ca="1">('[1]Pc, Winter, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>67.859968520628428</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Pc, Winter, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>53.204048610092457</v>
+        <f ca="1">('[1]Pc, Winter, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>56.677477065594587</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Pc, Winter, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>50.231404247945278</v>
+        <f ca="1">('[1]Pc, Winter, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>53.60821750130129</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Pc, Winter, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>42.736545623782625</v>
+        <f ca="1">('[1]Pc, Winter, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>59.026802492904743</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Pc, Winter, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>48.80017983795527</v>
+        <f ca="1">('[1]Pc, Winter, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>56.776994597098266</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Pc, Winter, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>49.824726471173435</v>
+        <f ca="1">('[1]Pc, Winter, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>57.960529332791793</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Pc, Winter, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>60.749869285765264</v>
+        <f ca="1">('[1]Pc, Winter, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>72.85019554430761</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Pc, Winter, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>63.127944511536192</v>
+        <f ca="1">('[1]Pc, Winter, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>73.305848491698256</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Pc, Winter, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>63.310831650420276</v>
+        <f ca="1">('[1]Pc, Winter, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>80.825870946348928</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Pc, Winter, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>70.624306362967872</v>
+        <f ca="1">('[1]Pc, Winter, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>96.074097140376566</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Pc, Winter, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>67.345131043835991</v>
+        <f ca="1">('[1]Pc, Winter, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>85.096482932844978</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Pc, Winter, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>70.270037159085916</v>
+        <f ca="1">('[1]Pc, Winter, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>96.556038643466096</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Pc, Winter, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>70.994133835675399</v>
+        <f ca="1">('[1]Pc, Winter, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>91.241678322327417</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Pc, Winter, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>73.906769299042551</v>
+        <f ca="1">('[1]Pc, Winter, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>86.95660200125279</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Pc, Winter, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>68.48424990847775</v>
+        <f ca="1">('[1]Pc, Winter, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>89.325866426582792</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Pc, Winter, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>64.672232641140596</v>
+        <f ca="1">('[1]Pc, Winter, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>76.420252222654028</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Pc, Winter, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>65.261216486446244</v>
+        <f ca="1">('[1]Pc, Winter, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>85.613541043949681</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Pc, Winter, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>70.480946646344151</v>
+        <f ca="1">('[1]Pc, Winter, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>98.99815841099452</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Pc, Winter, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>82.313506041179721</v>
+        <f ca="1">('[1]Pc, Winter, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>99.843591322651079</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Pc, Winter, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>74.608515812129937</v>
+        <f ca="1">('[1]Pc, Winter, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>106.77620639355207</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Pc, Winter, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>83.481700523753616</v>
+        <f ca="1">('[1]Pc, Winter, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>93.821595428159554</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Pc, Winter, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>73.395902902149899</v>
+        <f ca="1">('[1]Pc, Winter, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>88.100806566915466</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Pc, Winter, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>71.164631646527809</v>
+        <f ca="1">('[1]Pc, Winter, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>91.290309326713498</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Pc, Winter, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>68.966491363281051</v>
+        <f ca="1">('[1]Pc, Winter, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>74.893761227990623</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -30709,100 +30712,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Pc, Winter, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>64.593240185104875</v>
+        <f ca="1">('[1]Pc, Winter, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>75.830191122829305</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Pc, Winter, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>55.800253155703267</v>
+        <f ca="1">('[1]Pc, Winter, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>68.829897408692631</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Pc, Winter, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>53.003989905185477</v>
+        <f ca="1">('[1]Pc, Winter, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>69.109840098371905</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Pc, Winter, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>54.278120533003147</v>
+        <f ca="1">('[1]Pc, Winter, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>61.124146613565287</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Pc, Winter, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>52.853147297902595</v>
+        <f ca="1">('[1]Pc, Winter, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>66.237546136769822</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Pc, Winter, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>60.126099537317579</v>
+        <f ca="1">('[1]Pc, Winter, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>70.96117218514334</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Pc, Winter, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>63.570804698553111</v>
+        <f ca="1">('[1]Pc, Winter, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>91.984287954811066</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Pc, Winter, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>84.54318622290188</v>
+        <f ca="1">('[1]Pc, Winter, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>102.80540806296096</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Pc, Winter, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>85.179230189484301</v>
+        <f ca="1">('[1]Pc, Winter, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>113.84403541336748</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Pc, Winter, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>78.109581361999602</v>
+        <f ca="1">('[1]Pc, Winter, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>96.511063591547256</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Pc, Winter, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>78.878289062935409</v>
+        <f ca="1">('[1]Pc, Winter, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>113.09032275091992</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Pc, Winter, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>88.547177428049537</v>
+        <f ca="1">('[1]Pc, Winter, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>114.86668837917418</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Pc, Winter, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>83.159865042191171</v>
+        <f ca="1">('[1]Pc, Winter, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>107.99478589685225</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Pc, Winter, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>91.032835474651733</v>
+        <f ca="1">('[1]Pc, Winter, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>96.114890308173571</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Pc, Winter, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>79.230688284113086</v>
+        <f ca="1">('[1]Pc, Winter, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>100.53948713845456</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Pc, Winter, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>76.990942769136183</v>
+        <f ca="1">('[1]Pc, Winter, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>99.55639145619007</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Pc, Winter, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>84.431155748305599</v>
+        <f ca="1">('[1]Pc, Winter, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>99.58200596299649</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Pc, Winter, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>94.877043067704605</v>
+        <f ca="1">('[1]Pc, Winter, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>105.20534537954181</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Pc, Winter, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>95.094402813732941</v>
+        <f ca="1">('[1]Pc, Winter, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>105.81848721689649</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Pc, Winter, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>89.31112069116746</v>
+        <f ca="1">('[1]Pc, Winter, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>97.913029221724784</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Pc, Winter, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>76.846572214867805</v>
+        <f ca="1">('[1]Pc, Winter, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>96.851660675543712</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Pc, Winter, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>75.329308446241015</v>
+        <f ca="1">('[1]Pc, Winter, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>104.74367406314583</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Pc, Winter, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>76.687455726922366</v>
+        <f ca="1">('[1]Pc, Winter, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>94.806979681873941</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Pc, Winter, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>62.466658912004995</v>
+        <f ca="1">('[1]Pc, Winter, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>76.734476873335325</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -30810,100 +30813,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Pc, Winter, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>66.660439649021953</v>
+        <f ca="1">('[1]Pc, Winter, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>90.592377541671738</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Pc, Winter, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>68.456667797053541</v>
+        <f ca="1">('[1]Pc, Winter, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>76.526534225519626</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Pc, Winter, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>61.357369635066597</v>
+        <f ca="1">('[1]Pc, Winter, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>73.664056980562691</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Pc, Winter, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>62.271621040055003</v>
+        <f ca="1">('[1]Pc, Winter, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>69.981145334775903</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Pc, Winter, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>59.684292491994924</v>
+        <f ca="1">('[1]Pc, Winter, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>70.528153008587793</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Pc, Winter, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>57.07473132544316</v>
+        <f ca="1">('[1]Pc, Winter, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>72.385822722568776</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Pc, Winter, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>87.874381081255336</v>
+        <f ca="1">('[1]Pc, Winter, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>106.4018004353097</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Pc, Winter, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>87.388763552961407</v>
+        <f ca="1">('[1]Pc, Winter, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>115.14387144872637</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Pc, Winter, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>96.618799356770268</v>
+        <f ca="1">('[1]Pc, Winter, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>120.79656496217254</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Pc, Winter, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>112.70544166058077</v>
+        <f ca="1">('[1]Pc, Winter, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>123.89378771433282</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Pc, Winter, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>96.149233271836749</v>
+        <f ca="1">('[1]Pc, Winter, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>136.2492566886346</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Pc, Winter, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>103.17079628313395</v>
+        <f ca="1">('[1]Pc, Winter, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>133.02862432191577</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Pc, Winter, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>96.93480689877407</v>
+        <f ca="1">('[1]Pc, Winter, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>133.73085865844979</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Pc, Winter, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>93.137486852184026</v>
+        <f ca="1">('[1]Pc, Winter, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>121.87634404674172</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Pc, Winter, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>85.992560422833506</v>
+        <f ca="1">('[1]Pc, Winter, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>118.4624086429705</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Pc, Winter, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>86.527716386383332</v>
+        <f ca="1">('[1]Pc, Winter, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>119.46710449170945</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Pc, Winter, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>93.836840760884058</v>
+        <f ca="1">('[1]Pc, Winter, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>108.48386708875138</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Pc, Winter, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>97.38755248950703</v>
+        <f ca="1">('[1]Pc, Winter, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>109.68962375369138</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Pc, Winter, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>101.40125650141617</v>
+        <f ca="1">('[1]Pc, Winter, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>123.07623681971583</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Pc, Winter, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>86.557881725362662</v>
+        <f ca="1">('[1]Pc, Winter, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>127.76170962474191</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Pc, Winter, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>83.212825339575417</v>
+        <f ca="1">('[1]Pc, Winter, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>107.06404295092489</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Pc, Winter, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>78.630732240777661</v>
+        <f ca="1">('[1]Pc, Winter, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>99.173326542317568</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Pc, Winter, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>70.196388954104691</v>
+        <f ca="1">('[1]Pc, Winter, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>87.223087534593674</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Pc, Winter, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>79.392209958721978</v>
+        <f ca="1">('[1]Pc, Winter, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>90.886763983816834</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -31755,100 +31758,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Qc, Winter, S1'!B2*Main!$B$5)</f>
-        <v>9.3035598475452215</v>
+        <f ca="1">('[1]Qc, Winter, S1'!B2*Main!$B$5)</f>
+        <v>13.638072776813596</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Qc, Winter, S1'!C2*Main!$B$5)</f>
-        <v>7.9399690601818023</v>
+        <f ca="1">('[1]Qc, Winter, S1'!C2*Main!$B$5)</f>
+        <v>9.9462146262570386</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Qc, Winter, S1'!D2*Main!$B$5)</f>
-        <v>6.404884088953251</v>
+        <f ca="1">('[1]Qc, Winter, S1'!D2*Main!$B$5)</f>
+        <v>7.8595095925035556</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Qc, Winter, S1'!E2*Main!$B$5)</f>
-        <v>6.7792459333587143</v>
+        <f ca="1">('[1]Qc, Winter, S1'!E2*Main!$B$5)</f>
+        <v>8.4922037537287451</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Qc, Winter, S1'!F2*Main!$B$5)</f>
-        <v>7.8504028098538416</v>
+        <f ca="1">('[1]Qc, Winter, S1'!F2*Main!$B$5)</f>
+        <v>8.9234599311778489</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Qc, Winter, S1'!G2*Main!$B$5)</f>
-        <v>8.9350770884494892</v>
+        <f ca="1">('[1]Qc, Winter, S1'!G2*Main!$B$5)</f>
+        <v>11.531937961536173</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Qc, Winter, S1'!H2*Main!$B$5)</f>
-        <v>13.58278785432088</v>
+        <f ca="1">('[1]Qc, Winter, S1'!H2*Main!$B$5)</f>
+        <v>17.541074769291235</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Qc, Winter, S1'!I2*Main!$B$5)</f>
-        <v>16.923881599160858</v>
+        <f ca="1">('[1]Qc, Winter, S1'!I2*Main!$B$5)</f>
+        <v>23.555725528056946</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Qc, Winter, S1'!J2*Main!$B$5)</f>
-        <v>20.738187325084393</v>
+        <f ca="1">('[1]Qc, Winter, S1'!J2*Main!$B$5)</f>
+        <v>26.720480643583024</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Qc, Winter, S1'!K2*Main!$B$5)</f>
-        <v>23.924015586399623</v>
+        <f ca="1">('[1]Qc, Winter, S1'!K2*Main!$B$5)</f>
+        <v>26.427260287613169</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Qc, Winter, S1'!L2*Main!$B$5)</f>
-        <v>23.906589424376357</v>
+        <f ca="1">('[1]Qc, Winter, S1'!L2*Main!$B$5)</f>
+        <v>26.925031317368386</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Qc, Winter, S1'!M2*Main!$B$5)</f>
-        <v>22.616349697223409</v>
+        <f ca="1">('[1]Qc, Winter, S1'!M2*Main!$B$5)</f>
+        <v>25.362968456749194</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Qc, Winter, S1'!N2*Main!$B$5)</f>
-        <v>21.198493454199635</v>
+        <f ca="1">('[1]Qc, Winter, S1'!N2*Main!$B$5)</f>
+        <v>27.63873168615855</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Qc, Winter, S1'!O2*Main!$B$5)</f>
-        <v>20.125759711291145</v>
+        <f ca="1">('[1]Qc, Winter, S1'!O2*Main!$B$5)</f>
+        <v>24.942868352641298</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Qc, Winter, S1'!P2*Main!$B$5)</f>
-        <v>20.473514740385717</v>
+        <f ca="1">('[1]Qc, Winter, S1'!P2*Main!$B$5)</f>
+        <v>22.017446460707362</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Qc, Winter, S1'!Q2*Main!$B$5)</f>
-        <v>16.882587959986452</v>
+        <f ca="1">('[1]Qc, Winter, S1'!Q2*Main!$B$5)</f>
+        <v>21.148425393592582</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Qc, Winter, S1'!R2*Main!$B$5)</f>
-        <v>19.506052831076474</v>
+        <f ca="1">('[1]Qc, Winter, S1'!R2*Main!$B$5)</f>
+        <v>24.909240563380795</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Qc, Winter, S1'!S2*Main!$B$5)</f>
-        <v>28.134563075610576</v>
+        <f ca="1">('[1]Qc, Winter, S1'!S2*Main!$B$5)</f>
+        <v>34.596843033467181</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Qc, Winter, S1'!T2*Main!$B$5)</f>
-        <v>27.320498566059825</v>
+        <f ca="1">('[1]Qc, Winter, S1'!T2*Main!$B$5)</f>
+        <v>33.900887716439151</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Qc, Winter, S1'!U2*Main!$B$5)</f>
-        <v>27.236432018898071</v>
+        <f ca="1">('[1]Qc, Winter, S1'!U2*Main!$B$5)</f>
+        <v>30.67529926851271</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Qc, Winter, S1'!V2*Main!$B$5)</f>
-        <v>24.516332428885338</v>
+        <f ca="1">('[1]Qc, Winter, S1'!V2*Main!$B$5)</f>
+        <v>31.869946749010854</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Qc, Winter, S1'!W2*Main!$B$5)</f>
-        <v>19.746286308861546</v>
+        <f ca="1">('[1]Qc, Winter, S1'!W2*Main!$B$5)</f>
+        <v>27.827677946497051</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Qc, Winter, S1'!X2*Main!$B$5)</f>
-        <v>17.447657505842656</v>
+        <f ca="1">('[1]Qc, Winter, S1'!X2*Main!$B$5)</f>
+        <v>21.43596189666015</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Qc, Winter, S1'!Y2*Main!$B$5)</f>
-        <v>12.999588144153124</v>
+        <f ca="1">('[1]Qc, Winter, S1'!Y2*Main!$B$5)</f>
+        <v>16.284281809497742</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -31856,100 +31859,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Qc, Winter, S1'!B3*Main!$B$5)</f>
-        <v>-23.281509740485848</v>
+        <f ca="1">('[1]Qc, Winter, S1'!B3*Main!$B$5)</f>
+        <v>-33.240922881238177</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Qc, Winter, S1'!C3*Main!$B$5)</f>
-        <v>-27.480475301151561</v>
+        <f ca="1">('[1]Qc, Winter, S1'!C3*Main!$B$5)</f>
+        <v>-32.038320102077179</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Qc, Winter, S1'!D3*Main!$B$5)</f>
-        <v>-26.376475340329755</v>
+        <f ca="1">('[1]Qc, Winter, S1'!D3*Main!$B$5)</f>
+        <v>-33.041197368732441</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Qc, Winter, S1'!E3*Main!$B$5)</f>
-        <v>-28.511969038078671</v>
+        <f ca="1">('[1]Qc, Winter, S1'!E3*Main!$B$5)</f>
+        <v>-37.902991732144514</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Qc, Winter, S1'!F3*Main!$B$5)</f>
-        <v>-27.704370979653227</v>
+        <f ca="1">('[1]Qc, Winter, S1'!F3*Main!$B$5)</f>
+        <v>-39.231311103370878</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Qc, Winter, S1'!G3*Main!$B$5)</f>
-        <v>-28.951167018303678</v>
+        <f ca="1">('[1]Qc, Winter, S1'!G3*Main!$B$5)</f>
+        <v>-35.930653270675805</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Qc, Winter, S1'!H3*Main!$B$5)</f>
-        <v>-21.359891365229299</v>
+        <f ca="1">('[1]Qc, Winter, S1'!H3*Main!$B$5)</f>
+        <v>-26.506973478217191</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Qc, Winter, S1'!I3*Main!$B$5)</f>
-        <v>-8.8743259802701715</v>
+        <f ca="1">('[1]Qc, Winter, S1'!I3*Main!$B$5)</f>
+        <v>-10.087341276520537</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Qc, Winter, S1'!J3*Main!$B$5)</f>
-        <v>-2.2020634693051195</v>
+        <f ca="1">('[1]Qc, Winter, S1'!J3*Main!$B$5)</f>
+        <v>-2.7281608090516105</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Qc, Winter, S1'!K3*Main!$B$5)</f>
-        <v>-0.35961799676931899</v>
+        <f ca="1">('[1]Qc, Winter, S1'!K3*Main!$B$5)</f>
+        <v>-0.51213043280395043</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Qc, Winter, S1'!L3*Main!$B$5)</f>
-        <v>-3.4323471739498745</v>
+        <f ca="1">('[1]Qc, Winter, S1'!L3*Main!$B$5)</f>
+        <v>-4.6827560868373812</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Qc, Winter, S1'!M3*Main!$B$5)</f>
-        <v>-2.6982837509476654</v>
+        <f ca="1">('[1]Qc, Winter, S1'!M3*Main!$B$5)</f>
+        <v>-3.3800773159250666</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Qc, Winter, S1'!N3*Main!$B$5)</f>
-        <v>-3.3543964793329204</v>
+        <f ca="1">('[1]Qc, Winter, S1'!N3*Main!$B$5)</f>
+        <v>-4.7651256935607007</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Qc, Winter, S1'!O3*Main!$B$5)</f>
-        <v>-3.3838100439307799</v>
+        <f ca="1">('[1]Qc, Winter, S1'!O3*Main!$B$5)</f>
+        <v>-4.0203242789692579</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Qc, Winter, S1'!P3*Main!$B$5)</f>
-        <v>-9.3480715507602614</v>
+        <f ca="1">('[1]Qc, Winter, S1'!P3*Main!$B$5)</f>
+        <v>-11.489166368752628</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Qc, Winter, S1'!Q3*Main!$B$5)</f>
-        <v>-12.319635810869366</v>
+        <f ca="1">('[1]Qc, Winter, S1'!Q3*Main!$B$5)</f>
+        <v>-15.750717647552117</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Qc, Winter, S1'!R3*Main!$B$5)</f>
-        <v>-11.181964306918099</v>
+        <f ca="1">('[1]Qc, Winter, S1'!R3*Main!$B$5)</f>
+        <v>-14.714830463168283</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Qc, Winter, S1'!S3*Main!$B$5)</f>
-        <v>-3.5471059750087424</v>
+        <f ca="1">('[1]Qc, Winter, S1'!S3*Main!$B$5)</f>
+        <v>-4.4433771796974577</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Qc, Winter, S1'!T3*Main!$B$5)</f>
-        <v>-5.4401894028261442</v>
+        <f ca="1">('[1]Qc, Winter, S1'!T3*Main!$B$5)</f>
+        <v>-6.8147987728756965</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Qc, Winter, S1'!U3*Main!$B$5)</f>
-        <v>-6.6975764658950441</v>
+        <f ca="1">('[1]Qc, Winter, S1'!U3*Main!$B$5)</f>
+        <v>-7.9483247154633148</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Qc, Winter, S1'!V3*Main!$B$5)</f>
-        <v>-10.96368281799149</v>
+        <f ca="1">('[1]Qc, Winter, S1'!V3*Main!$B$5)</f>
+        <v>-12.762863132795504</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Qc, Winter, S1'!W3*Main!$B$5)</f>
-        <v>-13.656559283255366</v>
+        <f ca="1">('[1]Qc, Winter, S1'!W3*Main!$B$5)</f>
+        <v>-17.467407001632537</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Qc, Winter, S1'!X3*Main!$B$5)</f>
-        <v>-19.865048069404793</v>
+        <f ca="1">('[1]Qc, Winter, S1'!X3*Main!$B$5)</f>
+        <v>-23.918096104865675</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Qc, Winter, S1'!Y3*Main!$B$5)</f>
-        <v>-19.971861502684828</v>
+        <f ca="1">('[1]Qc, Winter, S1'!Y3*Main!$B$5)</f>
+        <v>-27.737665501297371</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -31957,100 +31960,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Qc, Winter, S1'!B4*Main!$B$5)</f>
-        <v>34.7289061538483</v>
+        <f ca="1">('[1]Qc, Winter, S1'!B4*Main!$B$5)</f>
+        <v>46.984420702525682</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Qc, Winter, S1'!C4*Main!$B$5)</f>
-        <v>44.309785883606864</v>
+        <f ca="1">('[1]Qc, Winter, S1'!C4*Main!$B$5)</f>
+        <v>56.044730147672688</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Qc, Winter, S1'!D4*Main!$B$5)</f>
-        <v>41.728633307862772</v>
+        <f ca="1">('[1]Qc, Winter, S1'!D4*Main!$B$5)</f>
+        <v>59.278079963884579</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Qc, Winter, S1'!E4*Main!$B$5)</f>
-        <v>46.890938459350963</v>
+        <f ca="1">('[1]Qc, Winter, S1'!E4*Main!$B$5)</f>
+        <v>56.583621783708004</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Qc, Winter, S1'!F4*Main!$B$5)</f>
-        <v>46.460746363393604</v>
+        <f ca="1">('[1]Qc, Winter, S1'!F4*Main!$B$5)</f>
+        <v>51.733597059390178</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Qc, Winter, S1'!G4*Main!$B$5)</f>
-        <v>36.250712072826758</v>
+        <f ca="1">('[1]Qc, Winter, S1'!G4*Main!$B$5)</f>
+        <v>39.297482423358382</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Qc, Winter, S1'!H4*Main!$B$5)</f>
-        <v>14.387121902817089</v>
+        <f ca="1">('[1]Qc, Winter, S1'!H4*Main!$B$5)</f>
+        <v>21.587286005148801</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Qc, Winter, S1'!I4*Main!$B$5)</f>
-        <v>1.9132541269356358</v>
+        <f ca="1">('[1]Qc, Winter, S1'!I4*Main!$B$5)</f>
+        <v>2.7536426337062667</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Qc, Winter, S1'!J4*Main!$B$5)</f>
-        <v>-12.385688717111346</v>
+        <f ca="1">('[1]Qc, Winter, S1'!J4*Main!$B$5)</f>
+        <v>-14.620152871001062</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Qc, Winter, S1'!K4*Main!$B$5)</f>
-        <v>-10.718384466730972</v>
+        <f ca="1">('[1]Qc, Winter, S1'!K4*Main!$B$5)</f>
+        <v>-15.067708571133748</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Qc, Winter, S1'!L4*Main!$B$5)</f>
-        <v>-1.0769239264754433</v>
+        <f ca="1">('[1]Qc, Winter, S1'!L4*Main!$B$5)</f>
+        <v>-1.2847976787637214</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Qc, Winter, S1'!M4*Main!$B$5)</f>
-        <v>-11.425946553592944</v>
+        <f ca="1">('[1]Qc, Winter, S1'!M4*Main!$B$5)</f>
+        <v>-15.86878035863896</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Qc, Winter, S1'!N4*Main!$B$5)</f>
-        <v>-11.922726838531766</v>
+        <f ca="1">('[1]Qc, Winter, S1'!N4*Main!$B$5)</f>
+        <v>-16.335509192716575</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Qc, Winter, S1'!O4*Main!$B$5)</f>
-        <v>-8.940607751520135</v>
+        <f ca="1">('[1]Qc, Winter, S1'!O4*Main!$B$5)</f>
+        <v>-13.246946874737318</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Qc, Winter, S1'!P4*Main!$B$5)</f>
-        <v>-1.1239631867760607</v>
+        <f ca="1">('[1]Qc, Winter, S1'!P4*Main!$B$5)</f>
+        <v>-1.5277891503815455</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Qc, Winter, S1'!Q4*Main!$B$5)</f>
-        <v>7.5110030588565033</v>
+        <f ca="1">('[1]Qc, Winter, S1'!Q4*Main!$B$5)</f>
+        <v>8.1422817321278682</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Qc, Winter, S1'!R4*Main!$B$5)</f>
-        <v>9.3260954345537481</v>
+        <f ca="1">('[1]Qc, Winter, S1'!R4*Main!$B$5)</f>
+        <v>12.813155445342629</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Qc, Winter, S1'!S4*Main!$B$5)</f>
-        <v>10.228620799187981</v>
+        <f ca="1">('[1]Qc, Winter, S1'!S4*Main!$B$5)</f>
+        <v>12.938774616375403</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Qc, Winter, S1'!T4*Main!$B$5)</f>
-        <v>11.030865567751745</v>
+        <f ca="1">('[1]Qc, Winter, S1'!T4*Main!$B$5)</f>
+        <v>12.059440419146004</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Qc, Winter, S1'!U4*Main!$B$5)</f>
-        <v>9.7272178188356282</v>
+        <f ca="1">('[1]Qc, Winter, S1'!U4*Main!$B$5)</f>
+        <v>12.687536274309858</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Qc, Winter, S1'!V4*Main!$B$5)</f>
-        <v>11.030865567751745</v>
+        <f ca="1">('[1]Qc, Winter, S1'!V4*Main!$B$5)</f>
+        <v>13.190012958440944</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Qc, Winter, S1'!W4*Main!$B$5)</f>
-        <v>20.911733750704098</v>
+        <f ca="1">('[1]Qc, Winter, S1'!W4*Main!$B$5)</f>
+        <v>23.576078378093236</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Qc, Winter, S1'!X4*Main!$B$5)</f>
-        <v>33.883399973612633</v>
+        <f ca="1">('[1]Qc, Winter, S1'!X4*Main!$B$5)</f>
+        <v>37.639858935552915</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Qc, Winter, S1'!Y4*Main!$B$5)</f>
-        <v>33.563745256880438</v>
+        <f ca="1">('[1]Qc, Winter, S1'!Y4*Main!$B$5)</f>
+        <v>37.239434904323623</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
